--- a/src/attributions/attributions_saliency_traj_395.xlsx
+++ b/src/attributions/attributions_saliency_traj_395.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.680002969019824e-09</v>
+        <v>9.246922854799777e-05</v>
       </c>
       <c r="B4" t="n">
-        <v>6.824868670207707e-09</v>
+        <v>0.0005129428463988006</v>
       </c>
       <c r="C4" t="n">
-        <v>3.046689300845173e-08</v>
+        <v>6.039538857294247e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>4.238157558233979e-08</v>
+        <v>9.089522063732147e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>3.279303939507372e-09</v>
+        <v>7.223954889923334e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>5.017740534185577e-08</v>
+        <v>0.0005604916368611157</v>
       </c>
       <c r="G4" t="n">
-        <v>3.850780672109977e-08</v>
+        <v>2.761170071607921e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.303012098219369e-08</v>
+        <v>4.561921377899125e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.203120708088591e-08</v>
+        <v>4.53033389931079e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.578472191316905e-08</v>
+        <v>0.0002141486038453877</v>
       </c>
       <c r="K4" t="n">
-        <v>5.277571446526963e-08</v>
+        <v>0.0003697535139508545</v>
       </c>
       <c r="L4" t="n">
-        <v>4.855854029983675e-08</v>
+        <v>4.811162943951786e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>2.706809354435791e-08</v>
+        <v>6.785744335502386e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>5.289323468105067e-08</v>
+        <v>4.595711288857274e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>4.956052457316673e-09</v>
+        <v>0.0004005948430858552</v>
       </c>
       <c r="P4" t="n">
-        <v>1.912742675358459e-08</v>
+        <v>3.002405719598755e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.188452086215875e-08</v>
+        <v>0.0001361130853183568</v>
       </c>
       <c r="R4" t="n">
-        <v>2.503850993207379e-08</v>
+        <v>0.0001282274752156809</v>
       </c>
       <c r="S4" t="n">
-        <v>2.134612131499125e-08</v>
+        <v>3.255107367294841e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>5.271981518006896e-09</v>
+        <v>4.918580816593021e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>5.081737697310018e-09</v>
+        <v>3.158120307489298e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>8.935158390954712e-09</v>
+        <v>4.200758849037811e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>4.301299227904565e-08</v>
+        <v>0.0001138710285886191</v>
       </c>
       <c r="X4" t="n">
-        <v>2.092054351976458e-08</v>
+        <v>4.110363079234958e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.552139523805181e-09</v>
+        <v>4.352595351519994e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.305814175850855e-09</v>
+        <v>2.247441079816781e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.342743776750922e-10</v>
+        <v>2.841831155819818e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.271626050770919e-09</v>
+        <v>7.463658403139561e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.870794155844351e-09</v>
+        <v>9.273341674997937e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.798152382548324e-08</v>
+        <v>4.833478669752367e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.243910840997842e-08</v>
+        <v>0.0001075915643014014</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.080029659623506e-08</v>
+        <v>0.0001318927970714867</v>
       </c>
       <c r="AG4" t="n">
-        <v>3.639843981773083e-08</v>
+        <v>8.397256897296757e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.336275090579875e-08</v>
+        <v>3.048416328965686e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>1.719798969901376e-09</v>
+        <v>2.841603236447554e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.351411840910259e-09</v>
+        <v>1.790867827367038e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.925721164283914e-09</v>
+        <v>8.200284355552867e-06</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.387127550131709e-09</v>
+        <v>1.962027090485208e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.368574492095377e-08</v>
+        <v>5.987912663840689e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.721964247915821e-08</v>
+        <v>6.12940639257431e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.799075732833444e-08</v>
+        <v>2.799801222863607e-06</v>
       </c>
       <c r="AP4" t="n">
-        <v>6.378673145235325e-09</v>
+        <v>0.0001120428496506065</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.175606101355697e-08</v>
+        <v>9.750134631758556e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>8.663750605819587e-09</v>
+        <v>7.017768075456843e-05</v>
       </c>
       <c r="AS4" t="n">
-        <v>5.882727638351071e-09</v>
+        <v>0.0001431322161806747</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.828772155931802e-08</v>
+        <v>4.942189661960583e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>4.539166909012238e-08</v>
+        <v>0.0001933269377332181</v>
       </c>
       <c r="AV4" t="n">
-        <v>1.218708156613957e-08</v>
+        <v>0.0001345506170764565</v>
       </c>
       <c r="AW4" t="n">
-        <v>5.823427073892162e-08</v>
+        <v>2.90750504063908e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.366241850879305e-08</v>
+        <v>4.879935295321047e-05</v>
       </c>
       <c r="AY4" t="n">
-        <v>2.867783166493609e-08</v>
+        <v>0.0001804618514142931</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1.50111478802728e-09</v>
+        <v>0.0001468034461140633</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.866225574076452e-08</v>
+        <v>6.124291394371539e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.290494999750535e-08</v>
+        <v>0.0002068414905807003</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.801609255698168e-08</v>
+        <v>0.0001716115511953831</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.426921064113685e-08</v>
+        <v>0.000121854871395044</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.893380385808996e-08</v>
+        <v>5.547608088818379e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.627551604599375e-08</v>
+        <v>5.868685548193753e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.504180584063988e-09</v>
+        <v>0.0001270179927814752</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.357857826178588e-09</v>
+        <v>0.0002584841276984662</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.617503997408676e-08</v>
+        <v>0.0001275962713407353</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.038318231394442e-08</v>
+        <v>8.428482396993786e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>8.298948195317735e-09</v>
+        <v>0.0001655411761021242</v>
       </c>
       <c r="BL4" t="n">
-        <v>2.978101498740671e-08</v>
+        <v>1.072552731784526e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.703271190756084e-09</v>
+        <v>4.377108416520059e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.110744118903995e-08</v>
+        <v>1.086970405594911e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.748387745692526e-08</v>
+        <v>2.468278034939431e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>3.463735254172207e-08</v>
+        <v>0.000104457802081015</v>
       </c>
       <c r="BQ4" t="n">
-        <v>5.271886038826779e-09</v>
+        <v>2.084369771182537e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.017968541740856e-09</v>
+        <v>7.51611078158021e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>5.011294046397552e-09</v>
+        <v>1.487324516347144e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>1.240548819225751e-08</v>
+        <v>6.392202340066433e-05</v>
       </c>
       <c r="BU4" t="n">
-        <v>7.835087245666728e-09</v>
+        <v>3.863175516016781e-05</v>
       </c>
       <c r="BV4" t="n">
-        <v>4.307785239632267e-10</v>
+        <v>0.0001189485774375498</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.287996997945129e-08</v>
+        <v>9.435079846298322e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.853470171260142e-08</v>
+        <v>2.342324296478182e-05</v>
       </c>
       <c r="BY4" t="n">
-        <v>2.328403425622128e-08</v>
+        <v>0.0001225349988089874</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.254963860082171e-08</v>
+        <v>1.023072036332451e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.289413991718448e-09</v>
+        <v>5.062085620011203e-06</v>
       </c>
       <c r="CB4" t="n">
-        <v>2.799407372577889e-09</v>
+        <v>8.955210432759486e-06</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.920717451753262e-08</v>
+        <v>6.657408084720373e-05</v>
       </c>
       <c r="CD4" t="n">
-        <v>8.008665730585562e-09</v>
+        <v>8.93087599251885e-06</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.425074991345809e-08</v>
+        <v>6.570722325704992e-05</v>
       </c>
       <c r="CF4" t="n">
-        <v>3.610534982101399e-09</v>
+        <v>4.619162791641429e-05</v>
       </c>
       <c r="CG4" t="n">
-        <v>9.637772357962149e-09</v>
+        <v>2.145636608474888e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>7.96672672276344e-10</v>
+        <v>4.511177030508406e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>7.645324373584117e-09</v>
+        <v>9.711701568448916e-05</v>
       </c>
       <c r="CJ4" t="n">
-        <v>5.767459843042388e-09</v>
+        <v>3.313238266855478e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>8.916599014696658e-09</v>
+        <v>2.818835127982311e-06</v>
       </c>
       <c r="CL4" t="n">
-        <v>7.829442649764928e-11</v>
+        <v>5.638163929688744e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>7.551768987923424e-09</v>
+        <v>4.767029531649314e-05</v>
       </c>
       <c r="CN4" t="n">
-        <v>2.677342081369716e-08</v>
+        <v>9.630175190977752e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>6.04219607680534e-09</v>
+        <v>9.630127169657499e-05</v>
       </c>
       <c r="CP4" t="n">
-        <v>2.330485315837905e-08</v>
+        <v>6.942210893612355e-05</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2.380512142963198e-08</v>
+        <v>4.728249678009888e-06</v>
       </c>
       <c r="CR4" t="n">
-        <v>1.803909910336188e-08</v>
+        <v>2.707933163037524e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>2.29931700346242e-08</v>
+        <v>2.142029734386597e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>9.638789322252705e-09</v>
+        <v>1.490989234298468e-06</v>
       </c>
       <c r="CU4" t="n">
-        <v>1.126644821880518e-08</v>
+        <v>0.000117138224595692</v>
       </c>
       <c r="CV4" t="n">
-        <v>7.710699634344564e-09</v>
+        <v>1.508368768554647e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>1.216406531057146e-08</v>
+        <v>8.463548147119582e-05</v>
       </c>
       <c r="CX4" t="n">
-        <v>8.927020012094999e-09</v>
+        <v>3.615337845985778e-05</v>
       </c>
       <c r="CY4" t="n">
-        <v>8.859661448923362e-09</v>
+        <v>3.166532405884936e-05</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1.990417386465992e-09</v>
+        <v>5.366103141568601e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>5.51457501885011e-09</v>
+        <v>9.099396993406117e-05</v>
       </c>
       <c r="DB4" t="n">
-        <v>3.003381987554121e-09</v>
+        <v>4.409594112075865e-06</v>
       </c>
       <c r="DC4" t="n">
-        <v>1.191356968632817e-08</v>
+        <v>8.693644304003101e-06</v>
       </c>
       <c r="DD4" t="n">
-        <v>1.290488271799006e-09</v>
+        <v>5.954320295131765e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.189621106651884e-08</v>
+        <v>5.045710713602602e-05</v>
       </c>
       <c r="DF4" t="n">
-        <v>2.343536031901294e-08</v>
+        <v>4.889663978246972e-05</v>
       </c>
       <c r="DG4" t="n">
-        <v>1.702427532279671e-08</v>
+        <v>6.161764031276107e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>4.166738420963156e-08</v>
+        <v>0.0001482089282944798</v>
       </c>
       <c r="DI4" t="n">
-        <v>2.494786954798656e-08</v>
+        <v>6.467408093158156e-05</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3.532288772589709e-08</v>
+        <v>0.0002420974196866155</v>
       </c>
       <c r="DK4" t="n">
-        <v>5.106038258873014e-09</v>
+        <v>0.0001279058342333883</v>
       </c>
       <c r="DL4" t="n">
-        <v>2.782734220829752e-08</v>
+        <v>5.622539174510166e-05</v>
       </c>
       <c r="DM4" t="n">
-        <v>1.630423795973002e-09</v>
+        <v>0.0002304933004779741</v>
       </c>
       <c r="DN4" t="n">
-        <v>1.516172076776456e-09</v>
+        <v>4.897782855550759e-05</v>
       </c>
       <c r="DO4" t="n">
-        <v>3.642752943733285e-08</v>
+        <v>3.486541390884668e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>8.603354473279978e-09</v>
+        <v>3.715833008754998e-05</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1.514951275538579e-09</v>
+        <v>5.049923856859095e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.184828590794496e-08</v>
+        <v>6.129394023446366e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>3.949618943011046e-08</v>
+        <v>4.575120692607015e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>2.601496795762159e-09</v>
+        <v>0.0001083113893400878</v>
       </c>
       <c r="DU4" t="n">
-        <v>1.452767417475798e-08</v>
+        <v>1.802480983315036e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>1.287543227590504e-08</v>
+        <v>4.876899402006529e-05</v>
       </c>
       <c r="DW4" t="n">
-        <v>5.076689291172443e-09</v>
+        <v>3.580260090529919e-05</v>
       </c>
       <c r="DX4" t="n">
-        <v>5.127822166883789e-09</v>
+        <v>5.548064291360788e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.263137037303522e-09</v>
+        <v>3.287891740910709e-05</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.814374073205727e-08</v>
+        <v>6.14322634646669e-05</v>
       </c>
       <c r="EA4" t="n">
-        <v>7.456494977020611e-09</v>
+        <v>4.665827873395756e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>1.099875923671334e-08</v>
+        <v>2.864847192540765e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>8.744533985804992e-10</v>
+        <v>3.50741102010943e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>3.683529703479849e-09</v>
+        <v>5.239477468421683e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>1.181855502352391e-08</v>
+        <v>5.975672684144229e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>3.530537640017428e-09</v>
+        <v>2.924749787780456e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>6.381001504962569e-09</v>
+        <v>6.724100967403501e-05</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.715991597237235e-09</v>
+        <v>1.638650792301632e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.345544475839233e-08</v>
+        <v>0.0001007854152703658</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.337892197028623e-08</v>
+        <v>7.757249113637954e-05</v>
       </c>
       <c r="EK4" t="n">
-        <v>1.671145888337833e-08</v>
+        <v>4.183825876680203e-05</v>
       </c>
       <c r="EL4" t="n">
-        <v>1.800524707107343e-08</v>
+        <v>7.368907245108858e-05</v>
       </c>
       <c r="EM4" t="n">
-        <v>1.596987964092023e-08</v>
+        <v>8.491841072100215e-06</v>
       </c>
       <c r="EN4" t="n">
-        <v>1.424445095210558e-08</v>
+        <v>6.12473286309978e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>2.730386583493782e-08</v>
+        <v>5.281010817270726e-05</v>
       </c>
       <c r="EP4" t="n">
-        <v>4.494305372304552e-09</v>
+        <v>9.107923688134179e-06</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2.639983875951657e-08</v>
+        <v>1.601524854777381e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>2.182356340085789e-08</v>
+        <v>3.878722418448888e-05</v>
       </c>
       <c r="ES4" t="n">
-        <v>1.106744385026559e-08</v>
+        <v>0.0001400532491970807</v>
       </c>
       <c r="ET4" t="n">
-        <v>2.027031875684315e-08</v>
+        <v>0.0001720596919767559</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.051753617531404e-08</v>
+        <v>6.733870395692065e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>1.085103562559198e-08</v>
+        <v>4.638644895749167e-05</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.195891030647545e-08</v>
+        <v>0.000114048074465245</v>
       </c>
       <c r="EX4" t="n">
-        <v>9.101482234541436e-09</v>
+        <v>1.977698275368311e-06</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.49665453363923e-08</v>
+        <v>8.308819815283641e-05</v>
       </c>
       <c r="EZ4" t="n">
-        <v>7.343878394294734e-09</v>
+        <v>1.421216893504607e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>1.068018029570794e-08</v>
+        <v>6.801092240493745e-07</v>
       </c>
       <c r="FB4" t="n">
-        <v>6.540809227573163e-09</v>
+        <v>6.494931585621089e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.132889226873601e-09</v>
+        <v>7.260787970153615e-05</v>
       </c>
       <c r="FD4" t="n">
-        <v>1.763981183344754e-09</v>
+        <v>4.740640724776313e-05</v>
       </c>
       <c r="FE4" t="n">
-        <v>8.899830206132719e-09</v>
+        <v>1.491189959779149e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>3.34552008318667e-09</v>
+        <v>8.745772356633097e-05</v>
       </c>
       <c r="FG4" t="n">
-        <v>1.914410852066339e-10</v>
+        <v>4.129721855861135e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>5.962023763572688e-09</v>
+        <v>3.858324635075405e-05</v>
       </c>
       <c r="FI4" t="n">
-        <v>3.44647688166333e-08</v>
+        <v>5.198683356866241e-05</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.48257406351604e-09</v>
+        <v>0.0001063227391568944</v>
       </c>
       <c r="FK4" t="n">
-        <v>3.991982300277641e-09</v>
+        <v>5.341502765077166e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>9.501416542434526e-09</v>
+        <v>0.0001052943407557905</v>
       </c>
       <c r="FM4" t="n">
-        <v>2.447837266217334e-09</v>
+        <v>3.41292834491469e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.10583009416132e-08</v>
+        <v>5.749497358920053e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.105994851258174e-08</v>
+        <v>7.972971070557833e-05</v>
       </c>
       <c r="FP4" t="n">
-        <v>1.895951173835897e-09</v>
+        <v>4.237160828779452e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2.38553017339882e-08</v>
+        <v>0.0001155772697529756</v>
       </c>
       <c r="FR4" t="n">
-        <v>9.622558749811105e-09</v>
+        <v>7.167008880060166e-05</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.351164418712415e-08</v>
+        <v>4.887826798949391e-05</v>
       </c>
       <c r="FT4" t="n">
-        <v>1.955659101327001e-08</v>
+        <v>5.473788405652158e-05</v>
       </c>
       <c r="FU4" t="n">
-        <v>1.485137257617453e-08</v>
+        <v>0.0001926483673742041</v>
       </c>
       <c r="FV4" t="n">
-        <v>7.44376382755263e-09</v>
+        <v>2.562022200436331e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>1.112241410083925e-10</v>
+        <v>4.68872967758216e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>8.20670198464768e-09</v>
+        <v>5.830942973261699e-05</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.255420389867368e-08</v>
+        <v>9.290151501772925e-05</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1.727181775379449e-08</v>
+        <v>7.696459215367213e-05</v>
       </c>
       <c r="GA4" t="n">
-        <v>8.388332695119516e-09</v>
+        <v>1.40866586662014e-06</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.624258771926179e-08</v>
+        <v>5.584630707744509e-05</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.096549340218189e-08</v>
+        <v>0.0001282170269405469</v>
       </c>
       <c r="GD4" t="n">
-        <v>7.154803416398181e-09</v>
+        <v>6.669949470961001e-06</v>
       </c>
       <c r="GE4" t="n">
-        <v>5.548845827263449e-09</v>
+        <v>1.017476279230323e-05</v>
       </c>
       <c r="GF4" t="n">
-        <v>2.341632221458667e-09</v>
+        <v>2.182869866373949e-05</v>
       </c>
       <c r="GG4" t="n">
-        <v>1.162677421007174e-08</v>
+        <v>6.711343303322792e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.763949152357782e-09</v>
+        <v>4.055560566484928e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>3.223686428910355e-09</v>
+        <v>0.01245729345828295</v>
       </c>
       <c r="C5" t="n">
-        <v>1.779496772158495e-09</v>
+        <v>0.001220989506691694</v>
       </c>
       <c r="D5" t="n">
-        <v>9.601158978966851e-09</v>
+        <v>0.008292878977954388</v>
       </c>
       <c r="E5" t="n">
-        <v>1.212450850829327e-08</v>
+        <v>0.008945426903665066</v>
       </c>
       <c r="F5" t="n">
-        <v>1.246511782682092e-10</v>
+        <v>0.002896663034334779</v>
       </c>
       <c r="G5" t="n">
-        <v>1.120801673692995e-09</v>
+        <v>0.001491425326094031</v>
       </c>
       <c r="H5" t="n">
-        <v>2.697922774075323e-09</v>
+        <v>0.0007292507798410952</v>
       </c>
       <c r="I5" t="n">
-        <v>2.472465121527989e-09</v>
+        <v>0.0007360816234722733</v>
       </c>
       <c r="J5" t="n">
-        <v>1.448033248863112e-09</v>
+        <v>0.0007418692111968994</v>
       </c>
       <c r="K5" t="n">
-        <v>1.024434759244741e-09</v>
+        <v>0.008739110082387924</v>
       </c>
       <c r="L5" t="n">
-        <v>1.911997671300014e-09</v>
+        <v>0.001269258907996118</v>
       </c>
       <c r="M5" t="n">
-        <v>1.20577974271896e-08</v>
+        <v>0.008061387576162815</v>
       </c>
       <c r="N5" t="n">
-        <v>1.31889104082461e-08</v>
+        <v>0.01276266947388649</v>
       </c>
       <c r="O5" t="n">
-        <v>1.007538497077576e-10</v>
+        <v>0.004198492038995028</v>
       </c>
       <c r="P5" t="n">
-        <v>1.829491114158088e-09</v>
+        <v>0.0002883459674194455</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.61948929214384e-09</v>
+        <v>0.0007538581266999245</v>
       </c>
       <c r="R5" t="n">
-        <v>5.391748825189779e-09</v>
+        <v>0.002017322694882751</v>
       </c>
       <c r="S5" t="n">
-        <v>1.052357423425576e-09</v>
+        <v>0.0002938172838184983</v>
       </c>
       <c r="T5" t="n">
-        <v>3.040916962682161e-10</v>
+        <v>0.002400405704975128</v>
       </c>
       <c r="U5" t="n">
-        <v>2.867761583758011e-11</v>
+        <v>0.001702066045254469</v>
       </c>
       <c r="V5" t="n">
-        <v>2.534938481346671e-09</v>
+        <v>0.0002059307007584721</v>
       </c>
       <c r="W5" t="n">
-        <v>4.793359931198893e-09</v>
+        <v>0.001011634478345513</v>
       </c>
       <c r="X5" t="n">
-        <v>1.460385368190487e-09</v>
+        <v>0.003080850001424551</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.271301229901269e-09</v>
+        <v>0.001938978326506913</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.31170771414213e-09</v>
+        <v>0.002129581058397889</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.996251386415793e-09</v>
+        <v>0.0007478160550817847</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.526308548084671e-10</v>
+        <v>0.002428744221106172</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.514206759978265e-09</v>
+        <v>0.002472685417160392</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.913305818807999e-09</v>
+        <v>0.001211612718179822</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.823538901632674e-09</v>
+        <v>0.001430775388143957</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.443707624091076e-09</v>
+        <v>0.003943496383726597</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.311437625162171e-09</v>
+        <v>0.001420885906554759</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.784391301384858e-09</v>
+        <v>0.0001575421774759889</v>
       </c>
       <c r="AI5" t="n">
-        <v>1.423111295473234e-09</v>
+        <v>0.0003240900114178658</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.082460870411751e-09</v>
+        <v>0.002361680846661329</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.300669350001726e-09</v>
+        <v>0.0004041078209411353</v>
       </c>
       <c r="AL5" t="n">
-        <v>4.157493516121491e-10</v>
+        <v>0.0006239832146093249</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.294539918652362e-10</v>
+        <v>0.0004707266925834119</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.08980832638872e-10</v>
+        <v>0.0004743488098029047</v>
       </c>
       <c r="AO5" t="n">
-        <v>1.849246533680571e-09</v>
+        <v>0.003909468185156584</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.144240369121974e-09</v>
+        <v>0.002183291595429182</v>
       </c>
       <c r="AQ5" t="n">
-        <v>5.88443183069387e-12</v>
+        <v>0.0002241492038592696</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.141338690224813e-09</v>
+        <v>0.0002630559611134231</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.26290233826154e-09</v>
+        <v>0.0003448436327744275</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.762890138896523e-09</v>
+        <v>0.0004569784214254469</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.769415890531036e-09</v>
+        <v>0.009379666298627853</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.764468904319472e-09</v>
+        <v>0.0005788596463389695</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.708231972015085e-10</v>
+        <v>0.001067865057848394</v>
       </c>
       <c r="AX5" t="n">
-        <v>6.511533978681427e-09</v>
+        <v>0.001451173913665116</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.851104241585745e-09</v>
+        <v>0.001274475362151861</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.423123952015715e-09</v>
+        <v>0.001111879479140043</v>
       </c>
       <c r="BA5" t="n">
-        <v>4.708242684614561e-09</v>
+        <v>0.001097045140340924</v>
       </c>
       <c r="BB5" t="n">
-        <v>3.654579305845118e-09</v>
+        <v>0.00359094375744462</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.29758312270323e-10</v>
+        <v>0.001402063295245171</v>
       </c>
       <c r="BD5" t="n">
-        <v>7.950341773810266e-11</v>
+        <v>0.003531210590153933</v>
       </c>
       <c r="BE5" t="n">
-        <v>3.068720555443605e-10</v>
+        <v>0.003125334391370416</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.528087569459331e-09</v>
+        <v>0.003231109818443656</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.062888526666029e-09</v>
+        <v>0.008141480386257172</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.473343891333911e-09</v>
+        <v>0.0054027303121984</v>
       </c>
       <c r="BI5" t="n">
-        <v>3.52527451674689e-10</v>
+        <v>0.002727500395849347</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.647706304730434e-09</v>
+        <v>0.0009279778460040689</v>
       </c>
       <c r="BK5" t="n">
-        <v>9.744565154790052e-10</v>
+        <v>0.002504704054445028</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.071270405716973e-09</v>
+        <v>0.002027989365160465</v>
       </c>
       <c r="BM5" t="n">
-        <v>3.743333643058122e-09</v>
+        <v>0.004300299100577831</v>
       </c>
       <c r="BN5" t="n">
-        <v>7.33359706295289e-10</v>
+        <v>0.001729003619402647</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.113197616893103e-09</v>
+        <v>0.001487222849391401</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.719510838744554e-09</v>
+        <v>0.004711566027253866</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.295087814767726e-09</v>
+        <v>0.002995804883539677</v>
       </c>
       <c r="BR5" t="n">
-        <v>4.859025681813733e-11</v>
+        <v>0.001272344030439854</v>
       </c>
       <c r="BS5" t="n">
-        <v>3.349660770979312e-09</v>
+        <v>0.002256474224850535</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.05090858237844e-09</v>
+        <v>0.001362327486276627</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.882582312262571e-09</v>
+        <v>0.0003056966525036842</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.369314744399276e-10</v>
+        <v>0.003860594006255269</v>
       </c>
       <c r="BW5" t="n">
-        <v>1.513311032041997e-09</v>
+        <v>0.001412715879268944</v>
       </c>
       <c r="BX5" t="n">
-        <v>2.006837807044803e-09</v>
+        <v>0.0005890537286177278</v>
       </c>
       <c r="BY5" t="n">
-        <v>3.232811129905144e-09</v>
+        <v>0.0007310699438676238</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.054429987767946e-09</v>
+        <v>0.002037058118730783</v>
       </c>
       <c r="CA5" t="n">
-        <v>9.15068132378849e-10</v>
+        <v>0.0004580709501169622</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.27955668283164e-09</v>
+        <v>0.001100584398955107</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.797711091100496e-09</v>
+        <v>0.00154351897072047</v>
       </c>
       <c r="CD5" t="n">
-        <v>1.676512262349661e-10</v>
+        <v>5.947484169155359e-06</v>
       </c>
       <c r="CE5" t="n">
-        <v>8.050492494859895e-10</v>
+        <v>0.002247737487778068</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.764960565533215e-11</v>
+        <v>0.000309889845084399</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.58443125286567e-09</v>
+        <v>0.0008242276962846518</v>
       </c>
       <c r="CH5" t="n">
-        <v>3.293271877424786e-09</v>
+        <v>0.0005845560226589441</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.002277288941755e-10</v>
+        <v>0.0005491084884852171</v>
       </c>
       <c r="CJ5" t="n">
-        <v>9.007268264582535e-10</v>
+        <v>0.0006567650707438588</v>
       </c>
       <c r="CK5" t="n">
-        <v>8.421422448279259e-10</v>
+        <v>7.987837307155132e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.39796818565685e-09</v>
+        <v>0.001622008625417948</v>
       </c>
       <c r="CM5" t="n">
-        <v>4.334504699610164e-10</v>
+        <v>0.002978431526571512</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.712575578189274e-10</v>
+        <v>0.00244265585206449</v>
       </c>
       <c r="CO5" t="n">
-        <v>2.070640992002382e-09</v>
+        <v>0.0001220598933286965</v>
       </c>
       <c r="CP5" t="n">
-        <v>2.811528343471537e-09</v>
+        <v>0.002783283125609159</v>
       </c>
       <c r="CQ5" t="n">
-        <v>7.704203941472088e-11</v>
+        <v>0.002922951942309737</v>
       </c>
       <c r="CR5" t="n">
-        <v>3.720421526409723e-09</v>
+        <v>0.0005124637391418219</v>
       </c>
       <c r="CS5" t="n">
-        <v>7.886086783592816e-10</v>
+        <v>9.017641423270106e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.890235745705127e-09</v>
+        <v>0.001891442574560642</v>
       </c>
       <c r="CU5" t="n">
-        <v>5.959810422950795e-11</v>
+        <v>0.0003862616431433707</v>
       </c>
       <c r="CV5" t="n">
-        <v>1.479535383097641e-10</v>
+        <v>0.0001930290454765782</v>
       </c>
       <c r="CW5" t="n">
-        <v>1.66947311530663e-09</v>
+        <v>0.001587537582963705</v>
       </c>
       <c r="CX5" t="n">
-        <v>3.270083648310163e-10</v>
+        <v>0.001082536648027599</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.225517243241825e-09</v>
+        <v>0.0009056541603058577</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.527542175556619e-09</v>
+        <v>0.0005037912633270025</v>
       </c>
       <c r="DA5" t="n">
-        <v>4.918188079017227e-10</v>
+        <v>0.0001355220883851871</v>
       </c>
       <c r="DB5" t="n">
-        <v>4.063168690393582e-10</v>
+        <v>0.000520884757861495</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.140847776832544e-10</v>
+        <v>0.0004144118574913591</v>
       </c>
       <c r="DD5" t="n">
-        <v>9.027915082171489e-10</v>
+        <v>0.0009012646041810513</v>
       </c>
       <c r="DE5" t="n">
-        <v>2.384373809505291e-09</v>
+        <v>0.00125537347048521</v>
       </c>
       <c r="DF5" t="n">
-        <v>4.210413351302122e-09</v>
+        <v>0.00324317323975265</v>
       </c>
       <c r="DG5" t="n">
-        <v>2.086930628308892e-10</v>
+        <v>0.002798681613057852</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.275133192952694e-09</v>
+        <v>0.005507495254278183</v>
       </c>
       <c r="DI5" t="n">
-        <v>4.044604651198824e-10</v>
+        <v>0.002213569125160575</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.670130700404115e-10</v>
+        <v>0.001729775569401681</v>
       </c>
       <c r="DK5" t="n">
-        <v>1.137328897726775e-09</v>
+        <v>1.52320644701831e-05</v>
       </c>
       <c r="DL5" t="n">
-        <v>3.687073313329847e-09</v>
+        <v>0.001707124756649137</v>
       </c>
       <c r="DM5" t="n">
-        <v>1.708889141305292e-10</v>
+        <v>0.0001390683028148487</v>
       </c>
       <c r="DN5" t="n">
-        <v>7.943998237003314e-11</v>
+        <v>0.001020189258269966</v>
       </c>
       <c r="DO5" t="n">
-        <v>1.826587214814879e-10</v>
+        <v>0.0009530297829769552</v>
       </c>
       <c r="DP5" t="n">
-        <v>5.369393818455137e-10</v>
+        <v>0.001535907387733459</v>
       </c>
       <c r="DQ5" t="n">
-        <v>2.396871368048892e-09</v>
+        <v>0.000256810977589339</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.644580693849207e-09</v>
+        <v>0.0006818841793574393</v>
       </c>
       <c r="DS5" t="n">
-        <v>2.390706077548543e-09</v>
+        <v>0.000250641256570816</v>
       </c>
       <c r="DT5" t="n">
-        <v>8.756411151722432e-10</v>
+        <v>0.001420132583007216</v>
       </c>
       <c r="DU5" t="n">
-        <v>1.267109750457962e-09</v>
+        <v>0.0008584968745708466</v>
       </c>
       <c r="DV5" t="n">
-        <v>9.377162379919923e-10</v>
+        <v>0.002254118211567402</v>
       </c>
       <c r="DW5" t="n">
-        <v>3.729787312334309e-10</v>
+        <v>0.0005146481562405825</v>
       </c>
       <c r="DX5" t="n">
-        <v>2.273896182458657e-09</v>
+        <v>0.001522525446489453</v>
       </c>
       <c r="DY5" t="n">
-        <v>4.635756500892541e-10</v>
+        <v>0.0001671138743404299</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.268652294328376e-09</v>
+        <v>0.0009817917598411441</v>
       </c>
       <c r="EA5" t="n">
-        <v>8.900938319733598e-10</v>
+        <v>0.001327356905676425</v>
       </c>
       <c r="EB5" t="n">
-        <v>1.129659699117269e-09</v>
+        <v>0.003174444660544395</v>
       </c>
       <c r="EC5" t="n">
-        <v>7.130885881778681e-10</v>
+        <v>0.0008509597973898053</v>
       </c>
       <c r="ED5" t="n">
-        <v>7.762526732513209e-10</v>
+        <v>0.001219378318637609</v>
       </c>
       <c r="EE5" t="n">
-        <v>1.557514117678238e-09</v>
+        <v>0.0006379772676154971</v>
       </c>
       <c r="EF5" t="n">
-        <v>3.528131120589251e-10</v>
+        <v>0.0006258385255932808</v>
       </c>
       <c r="EG5" t="n">
-        <v>4.259873287448812e-10</v>
+        <v>0.001369616948068142</v>
       </c>
       <c r="EH5" t="n">
-        <v>1.294150453468035e-09</v>
+        <v>0.0002647366491146386</v>
       </c>
       <c r="EI5" t="n">
-        <v>2.21687113111102e-09</v>
+        <v>0.002013360382989049</v>
       </c>
       <c r="EJ5" t="n">
-        <v>1.666510929254628e-09</v>
+        <v>0.002745352918282151</v>
       </c>
       <c r="EK5" t="n">
-        <v>1.267576710262119e-09</v>
+        <v>9.132814011536539e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>9.613302376365596e-10</v>
+        <v>0.001883732387796044</v>
       </c>
       <c r="EM5" t="n">
-        <v>1.221255985228709e-09</v>
+        <v>0.0004052598378621042</v>
       </c>
       <c r="EN5" t="n">
-        <v>4.837000799895463e-10</v>
+        <v>0.001199179911054671</v>
       </c>
       <c r="EO5" t="n">
-        <v>2.147761968274153e-10</v>
+        <v>0.001054749125614762</v>
       </c>
       <c r="EP5" t="n">
-        <v>1.605387045522377e-09</v>
+        <v>0.002151981228962541</v>
       </c>
       <c r="EQ5" t="n">
-        <v>2.379085373149792e-09</v>
+        <v>6.901253073010594e-05</v>
       </c>
       <c r="ER5" t="n">
-        <v>1.08873166038137e-09</v>
+        <v>0.0002176955458708107</v>
       </c>
       <c r="ES5" t="n">
-        <v>2.715769609196172e-09</v>
+        <v>0.0006338111124932766</v>
       </c>
       <c r="ET5" t="n">
-        <v>1.094819346292297e-09</v>
+        <v>0.001128148986026645</v>
       </c>
       <c r="EU5" t="n">
-        <v>7.847599237109648e-10</v>
+        <v>0.0003908953221980482</v>
       </c>
       <c r="EV5" t="n">
-        <v>1.090077139664913e-09</v>
+        <v>0.001180498977191746</v>
       </c>
       <c r="EW5" t="n">
-        <v>7.767067544683925e-10</v>
+        <v>0.0007133028702810407</v>
       </c>
       <c r="EX5" t="n">
-        <v>1.863221799069947e-10</v>
+        <v>0.0004976978525519371</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.383978598390456e-09</v>
+        <v>0.00188751460518688</v>
       </c>
       <c r="EZ5" t="n">
-        <v>4.278241927391235e-10</v>
+        <v>0.0001641440176172182</v>
       </c>
       <c r="FA5" t="n">
-        <v>8.481897406653616e-10</v>
+        <v>0.001041324576362967</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.264147618864399e-09</v>
+        <v>0.001243845792487264</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.671358689809722e-10</v>
+        <v>0.001141910324804485</v>
       </c>
       <c r="FD5" t="n">
-        <v>5.418487880604062e-10</v>
+        <v>0.0002727164828684181</v>
       </c>
       <c r="FE5" t="n">
-        <v>4.158031419176922e-10</v>
+        <v>0.0002339797792956233</v>
       </c>
       <c r="FF5" t="n">
-        <v>9.186172933439707e-10</v>
+        <v>0.0007193755591288209</v>
       </c>
       <c r="FG5" t="n">
-        <v>7.093137188718401e-11</v>
+        <v>0.0008315028971992433</v>
       </c>
       <c r="FH5" t="n">
-        <v>2.926363040778313e-10</v>
+        <v>0.001857610768638551</v>
       </c>
       <c r="FI5" t="n">
-        <v>2.242470209523617e-09</v>
+        <v>0.0009771321201696992</v>
       </c>
       <c r="FJ5" t="n">
-        <v>6.832688859148561e-10</v>
+        <v>0.001860148971900344</v>
       </c>
       <c r="FK5" t="n">
-        <v>2.098277551709771e-09</v>
+        <v>0.001213328680023551</v>
       </c>
       <c r="FL5" t="n">
-        <v>3.394802661205176e-09</v>
+        <v>0.002273577265441418</v>
       </c>
       <c r="FM5" t="n">
-        <v>3.243394441909686e-11</v>
+        <v>0.0006682469975203276</v>
       </c>
       <c r="FN5" t="n">
-        <v>8.066454726396444e-10</v>
+        <v>0.0006008744239807129</v>
       </c>
       <c r="FO5" t="n">
-        <v>2.464796811096903e-09</v>
+        <v>0.0001917330082505941</v>
       </c>
       <c r="FP5" t="n">
-        <v>2.35096853096195e-09</v>
+        <v>0.001411806792020798</v>
       </c>
       <c r="FQ5" t="n">
-        <v>4.666620867510574e-09</v>
+        <v>0.0007345368503592908</v>
       </c>
       <c r="FR5" t="n">
-        <v>4.190493507749693e-10</v>
+        <v>0.001992592820897698</v>
       </c>
       <c r="FS5" t="n">
-        <v>2.75302136643063e-09</v>
+        <v>0.00131842982955277</v>
       </c>
       <c r="FT5" t="n">
-        <v>5.699376082191066e-09</v>
+        <v>0.002714599017053843</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.351708411867492e-09</v>
+        <v>0.00172676844522357</v>
       </c>
       <c r="FV5" t="n">
-        <v>1.524178450118541e-09</v>
+        <v>0.0003842742298729718</v>
       </c>
       <c r="FW5" t="n">
-        <v>1.455201070754697e-09</v>
+        <v>0.002946984488517046</v>
       </c>
       <c r="FX5" t="n">
-        <v>2.561529655054073e-09</v>
+        <v>6.89135049469769e-05</v>
       </c>
       <c r="FY5" t="n">
-        <v>6.545719521966475e-10</v>
+        <v>0.001730432035401464</v>
       </c>
       <c r="FZ5" t="n">
-        <v>1.374659386321753e-09</v>
+        <v>0.001480071106925607</v>
       </c>
       <c r="GA5" t="n">
-        <v>1.100713298285427e-09</v>
+        <v>0.00106829940341413</v>
       </c>
       <c r="GB5" t="n">
-        <v>2.511487684486724e-09</v>
+        <v>0.00122772459872067</v>
       </c>
       <c r="GC5" t="n">
-        <v>3.504632806183849e-09</v>
+        <v>0.00308210588991642</v>
       </c>
       <c r="GD5" t="n">
-        <v>2.42732604849305e-11</v>
+        <v>0.001991811441257596</v>
       </c>
       <c r="GE5" t="n">
-        <v>1.75364212040563e-09</v>
+        <v>0.0002729058032855392</v>
       </c>
       <c r="GF5" t="n">
-        <v>1.405928484743413e-09</v>
+        <v>0.001338451635092497</v>
       </c>
       <c r="GG5" t="n">
-        <v>1.438342667192671e-09</v>
+        <v>0.002122879028320312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.051708104569661e-16</v>
+        <v>0.0002976151299662888</v>
       </c>
       <c r="B6" t="n">
-        <v>3.396739676640378e-14</v>
+        <v>0.0005746367387473583</v>
       </c>
       <c r="C6" t="n">
-        <v>1.335974669243846e-14</v>
+        <v>0.0001906819234136492</v>
       </c>
       <c r="D6" t="n">
-        <v>7.480164897861671e-15</v>
+        <v>0.0001099547880585305</v>
       </c>
       <c r="E6" t="n">
-        <v>3.532595968676853e-14</v>
+        <v>0.001888366648927331</v>
       </c>
       <c r="F6" t="n">
-        <v>7.376256825123145e-15</v>
+        <v>0.001299515832215548</v>
       </c>
       <c r="G6" t="n">
-        <v>2.28733793516088e-14</v>
+        <v>0.0007546003325842321</v>
       </c>
       <c r="H6" t="n">
-        <v>6.887988917843139e-15</v>
+        <v>0.0005084879812784493</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148858230228499e-14</v>
+        <v>0.001367022516205907</v>
       </c>
       <c r="J6" t="n">
-        <v>1.107521201281652e-15</v>
+        <v>0.0003204047388862818</v>
       </c>
       <c r="K6" t="n">
-        <v>4.089888421422022e-14</v>
+        <v>0.0002452114422339946</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47781143740441e-14</v>
+        <v>0.0002856759238056839</v>
       </c>
       <c r="M6" t="n">
-        <v>9.801001292020564e-16</v>
+        <v>0.0002758329210337251</v>
       </c>
       <c r="N6" t="n">
-        <v>9.20971130846486e-15</v>
+        <v>0.002120947930961847</v>
       </c>
       <c r="O6" t="n">
-        <v>1.722015271262561e-14</v>
+        <v>0.001163528067991138</v>
       </c>
       <c r="P6" t="n">
-        <v>8.334961749110505e-15</v>
+        <v>0.0001940242946147919</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.857539170022204e-14</v>
+        <v>3.695311897899956e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>3.38007447280974e-14</v>
+        <v>0.0003396034881006926</v>
       </c>
       <c r="S6" t="n">
-        <v>3.353390732685566e-16</v>
+        <v>0.0003090451064053923</v>
       </c>
       <c r="T6" t="n">
-        <v>4.957952349723699e-15</v>
+        <v>0.0004091092268936336</v>
       </c>
       <c r="U6" t="n">
-        <v>1.359711666447817e-14</v>
+        <v>3.876708797179163e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>4.979021023737229e-15</v>
+        <v>7.540715159848332e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.831149198472468e-14</v>
+        <v>0.0006168023683130741</v>
       </c>
       <c r="X6" t="n">
-        <v>2.315448841097882e-15</v>
+        <v>0.0005146913463249803</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.514094940732996e-14</v>
+        <v>0.0003301674732938409</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.562181848181569e-14</v>
+        <v>0.0002102536091115326</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.67437801547067e-15</v>
+        <v>0.0005899441312067211</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.593433531700305e-15</v>
+        <v>0.00015228871779982</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.997127083256138e-15</v>
+        <v>0.001136060571298003</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.473423559882736e-15</v>
+        <v>0.0006472382228821516</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.493113169261499e-15</v>
+        <v>0.0002632357063703239</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.140419240975004e-14</v>
+        <v>0.001646353281103075</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.556019020373911e-15</v>
+        <v>0.001349998055957258</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.962085076118343e-14</v>
+        <v>0.001035170396789908</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.760109900438966e-14</v>
+        <v>0.0004780310264322907</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.882473156052219e-15</v>
+        <v>0.0009264568798243999</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.214244260965437e-14</v>
+        <v>0.0001678272383287549</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.185826898508118e-14</v>
+        <v>0.0003614220477174968</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.015491290575697e-15</v>
+        <v>4.570269084069878e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.419455423768174e-14</v>
+        <v>0.0008925211732275784</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.077893047577881e-14</v>
+        <v>0.0004728900676127523</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.085500673993645e-14</v>
+        <v>0.0001602489501237869</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.186483730207066e-15</v>
+        <v>0.0007263484294526279</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.639875377148724e-15</v>
+        <v>0.0004669951158575714</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.427992411106172e-15</v>
+        <v>0.0002168635110137984</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.846304311964742e-14</v>
+        <v>0.0003855961840599775</v>
       </c>
       <c r="AU6" t="n">
-        <v>4.248106044452832e-14</v>
+        <v>0.0008680497412569821</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.565492222346029e-14</v>
+        <v>9.850613423623145e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.389823822032637e-14</v>
+        <v>0.0004782069299835712</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.33460537029129e-14</v>
+        <v>0.0012400031555444</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.73357184998172e-14</v>
+        <v>0.0008313592406921089</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4.217165286142348e-18</v>
+        <v>0.001880844589322805</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.432364915568992e-15</v>
+        <v>0.0008772944565862417</v>
       </c>
       <c r="BB6" t="n">
-        <v>4.378698704348479e-15</v>
+        <v>0.0005677307490259409</v>
       </c>
       <c r="BC6" t="n">
-        <v>1.067944899722263e-14</v>
+        <v>0.0007932055741548538</v>
       </c>
       <c r="BD6" t="n">
-        <v>5.648261331846378e-15</v>
+        <v>0.0003834654635284096</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.051583050448341e-15</v>
+        <v>0.0002355542383156717</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.145942912230639e-14</v>
+        <v>0.0002877889783121645</v>
       </c>
       <c r="BG6" t="n">
-        <v>7.435282316052561e-15</v>
+        <v>0.001762003870680928</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.954850567715844e-14</v>
+        <v>0.001191435614600778</v>
       </c>
       <c r="BI6" t="n">
-        <v>5.152947804511112e-15</v>
+        <v>0.0005209441296756268</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.399501360409936e-14</v>
+        <v>0.0005235875141806901</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.020695623155229e-14</v>
+        <v>0.0008717706659808755</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.306238815300832e-14</v>
+        <v>0.0001512771414127201</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.867052278717757e-15</v>
+        <v>0.0007135850028134882</v>
       </c>
       <c r="BN6" t="n">
-        <v>9.310559051164957e-15</v>
+        <v>0.0003265381092205644</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.950161223913255e-14</v>
+        <v>0.0009684000397101045</v>
       </c>
       <c r="BP6" t="n">
-        <v>4.470386209240495e-15</v>
+        <v>0.0001392773556290194</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.019643862344623e-15</v>
+        <v>0.0003027218044735491</v>
       </c>
       <c r="BR6" t="n">
-        <v>8.722685998518477e-15</v>
+        <v>0.0009054234251379967</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.540938261864432e-14</v>
+        <v>5.1745111704804e-05</v>
       </c>
       <c r="BT6" t="n">
-        <v>4.515486055000576e-15</v>
+        <v>0.0006132049020379782</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.103334190368432e-14</v>
+        <v>0.0003113253624178469</v>
       </c>
       <c r="BV6" t="n">
-        <v>9.405079457749065e-15</v>
+        <v>0.0003476714482530951</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.108691504353226e-14</v>
+        <v>0.0004756515845656395</v>
       </c>
       <c r="BX6" t="n">
-        <v>1.938478437284955e-14</v>
+        <v>0.0002830760204233229</v>
       </c>
       <c r="BY6" t="n">
-        <v>2.668767543924627e-14</v>
+        <v>0.0007149639423005283</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.978581720392478e-14</v>
+        <v>3.375652886461467e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>2.201185155304461e-15</v>
+        <v>0.0004369956732261926</v>
       </c>
       <c r="CB6" t="n">
-        <v>5.372902355638793e-15</v>
+        <v>0.0004173428169451654</v>
       </c>
       <c r="CC6" t="n">
-        <v>5.454658822740726e-15</v>
+        <v>0.000374875933630392</v>
       </c>
       <c r="CD6" t="n">
-        <v>6.211689860668047e-15</v>
+        <v>3.786208617384546e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>7.915393296050507e-15</v>
+        <v>9.350557229481637e-05</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.400045409671958e-15</v>
+        <v>0.0001592571788933128</v>
       </c>
       <c r="CG6" t="n">
-        <v>7.956523521903281e-16</v>
+        <v>0.0002960542333312333</v>
       </c>
       <c r="CH6" t="n">
-        <v>7.860855385675644e-15</v>
+        <v>4.188948514638469e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>6.645386399771773e-17</v>
+        <v>5.196303391130641e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>4.23640691008865e-15</v>
+        <v>0.0002194338303525001</v>
       </c>
       <c r="CK6" t="n">
-        <v>3.781985962924894e-16</v>
+        <v>0.0001823222846724093</v>
       </c>
       <c r="CL6" t="n">
-        <v>1.486103635848146e-15</v>
+        <v>0.0003478191792964935</v>
       </c>
       <c r="CM6" t="n">
-        <v>1.048642374107053e-14</v>
+        <v>0.0002422091492917389</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.723017819458932e-14</v>
+        <v>0.0003235296462662518</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.201067629483029e-14</v>
+        <v>0.0001746674097375944</v>
       </c>
       <c r="CP6" t="n">
-        <v>1.040809775740498e-14</v>
+        <v>0.0008564871968701482</v>
       </c>
       <c r="CQ6" t="n">
-        <v>1.662868993434867e-14</v>
+        <v>0.0008477982482872903</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.665849007201567e-15</v>
+        <v>2.767934347502887e-05</v>
       </c>
       <c r="CS6" t="n">
-        <v>1.762640496072183e-14</v>
+        <v>0.0003439534339122474</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.700796044397645e-14</v>
+        <v>0.0003090826794505119</v>
       </c>
       <c r="CU6" t="n">
-        <v>7.936866428296351e-15</v>
+        <v>0.001649460289627314</v>
       </c>
       <c r="CV6" t="n">
-        <v>4.664304661635473e-15</v>
+        <v>7.411596016027033e-06</v>
       </c>
       <c r="CW6" t="n">
-        <v>8.040478886536286e-15</v>
+        <v>1.889905252028257e-05</v>
       </c>
       <c r="CX6" t="n">
-        <v>5.340758725839913e-15</v>
+        <v>4.944951797369868e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.98887571180046e-15</v>
+        <v>0.0002453418273944408</v>
       </c>
       <c r="CZ6" t="n">
-        <v>6.194247758218186e-15</v>
+        <v>0.0001748710637912154</v>
       </c>
       <c r="DA6" t="n">
-        <v>4.868859730265598e-15</v>
+        <v>0.0002078295656247064</v>
       </c>
       <c r="DB6" t="n">
-        <v>1.294035526926444e-15</v>
+        <v>5.924209835939109e-05</v>
       </c>
       <c r="DC6" t="n">
-        <v>3.692703661026166e-15</v>
+        <v>0.0001010646228678524</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.046729120889113e-16</v>
+        <v>0.0003021777956746519</v>
       </c>
       <c r="DE6" t="n">
-        <v>9.633549654611967e-15</v>
+        <v>0.0002280081534991041</v>
       </c>
       <c r="DF6" t="n">
-        <v>2.558749653130965e-14</v>
+        <v>0.0006913333781994879</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.855913561938163e-14</v>
+        <v>0.0001729084906401113</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.200199654235293e-15</v>
+        <v>0.0007721353322267532</v>
       </c>
       <c r="DI6" t="n">
-        <v>7.565764353445296e-15</v>
+        <v>0.0003272672765888274</v>
       </c>
       <c r="DJ6" t="n">
-        <v>2.739915473933614e-15</v>
+        <v>0.001948886085301638</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.983698646426842e-14</v>
+        <v>0.0007910066051408648</v>
       </c>
       <c r="DL6" t="n">
-        <v>2.174745657130628e-15</v>
+        <v>0.0002027653390541673</v>
       </c>
       <c r="DM6" t="n">
-        <v>1.389771849306335e-14</v>
+        <v>0.001400592853315175</v>
       </c>
       <c r="DN6" t="n">
-        <v>6.710023483976748e-15</v>
+        <v>0.0002838855725713074</v>
       </c>
       <c r="DO6" t="n">
-        <v>1.754523379338645e-14</v>
+        <v>0.0001463837834307924</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.31684070318514e-14</v>
+        <v>0.0003490013768896461</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.288128573262177e-14</v>
+        <v>4.248693585395813e-06</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.610969064922603e-14</v>
+        <v>0.001133216428570449</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.933444689886012e-14</v>
+        <v>0.0006572924321517348</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.725163234114372e-15</v>
+        <v>0.001055702683515847</v>
       </c>
       <c r="DU6" t="n">
-        <v>1.23601046661103e-14</v>
+        <v>5.077142850495875e-05</v>
       </c>
       <c r="DV6" t="n">
-        <v>7.645229596424906e-15</v>
+        <v>0.001278077252209187</v>
       </c>
       <c r="DW6" t="n">
-        <v>4.865604159132826e-15</v>
+        <v>0.0003352920757606626</v>
       </c>
       <c r="DX6" t="n">
-        <v>2.934197515221202e-15</v>
+        <v>8.284479554276913e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.54151335488397e-15</v>
+        <v>0.0001958848006324843</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.438545192255364e-14</v>
+        <v>0.0007557244971394539</v>
       </c>
       <c r="EA6" t="n">
-        <v>4.331594778635194e-15</v>
+        <v>0.0003387375909369439</v>
       </c>
       <c r="EB6" t="n">
-        <v>4.070963587797993e-15</v>
+        <v>0.0001873133733170107</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.180391233975703e-16</v>
+        <v>3.895058762282133e-05</v>
       </c>
       <c r="ED6" t="n">
-        <v>1.426948464174505e-14</v>
+        <v>0.0005664126947522163</v>
       </c>
       <c r="EE6" t="n">
-        <v>3.741800655264341e-15</v>
+        <v>0.0001798053563106805</v>
       </c>
       <c r="EF6" t="n">
-        <v>1.023829814466659e-14</v>
+        <v>0.0001751220115693286</v>
       </c>
       <c r="EG6" t="n">
-        <v>2.701880094711871e-15</v>
+        <v>6.012346420902759e-05</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.624155712569612e-15</v>
+        <v>0.0001379643217660487</v>
       </c>
       <c r="EI6" t="n">
-        <v>2.244718625386832e-15</v>
+        <v>0.001548282103613019</v>
       </c>
       <c r="EJ6" t="n">
-        <v>1.281158508545811e-14</v>
+        <v>0.0002357445482630283</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.493817141382317e-15</v>
+        <v>0.001215080264955759</v>
       </c>
       <c r="EL6" t="n">
-        <v>4.673949825805858e-15</v>
+        <v>0.0008420778322033584</v>
       </c>
       <c r="EM6" t="n">
-        <v>6.915381963357344e-15</v>
+        <v>0.0002256151637993753</v>
       </c>
       <c r="EN6" t="n">
-        <v>7.563431624708558e-15</v>
+        <v>0.0002314373559784144</v>
       </c>
       <c r="EO6" t="n">
-        <v>6.433928012621526e-15</v>
+        <v>0.0003605030942708254</v>
       </c>
       <c r="EP6" t="n">
-        <v>3.742631171069124e-15</v>
+        <v>0.0002091498608933762</v>
       </c>
       <c r="EQ6" t="n">
-        <v>9.32911415490751e-15</v>
+        <v>0.0001612366177141666</v>
       </c>
       <c r="ER6" t="n">
-        <v>8.911226215214865e-15</v>
+        <v>4.884417649009265e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>5.515068789022429e-15</v>
+        <v>0.0002245237701572478</v>
       </c>
       <c r="ET6" t="n">
-        <v>4.854569860928944e-15</v>
+        <v>0.0006137855816632509</v>
       </c>
       <c r="EU6" t="n">
-        <v>9.691460450182796e-15</v>
+        <v>0.0005514385993592441</v>
       </c>
       <c r="EV6" t="n">
-        <v>1.100353904943518e-14</v>
+        <v>1.154752681031823e-06</v>
       </c>
       <c r="EW6" t="n">
-        <v>1.975961423970147e-15</v>
+        <v>0.0003054145199712366</v>
       </c>
       <c r="EX6" t="n">
-        <v>2.579822223496052e-15</v>
+        <v>5.780094579677097e-05</v>
       </c>
       <c r="EY6" t="n">
-        <v>6.044029429637951e-15</v>
+        <v>3.101269976468757e-05</v>
       </c>
       <c r="EZ6" t="n">
-        <v>5.489397337973519e-15</v>
+        <v>0.0001550930028315634</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.838302476415326e-15</v>
+        <v>0.0004350353265181184</v>
       </c>
       <c r="FB6" t="n">
-        <v>9.237100965847275e-15</v>
+        <v>0.0001233098155353218</v>
       </c>
       <c r="FC6" t="n">
-        <v>5.034114164209017e-15</v>
+        <v>3.31941555486992e-06</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.016476382638366e-15</v>
+        <v>0.0002011648612096906</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.629490114313183e-15</v>
+        <v>9.051879897015169e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>3.456327470391829e-15</v>
+        <v>8.710481051821262e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>8.360054253139966e-15</v>
+        <v>0.0001601568510523066</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.220445727985464e-15</v>
+        <v>0.0003173571894876659</v>
       </c>
       <c r="FI6" t="n">
-        <v>7.236880094751291e-15</v>
+        <v>0.0002909400791395456</v>
       </c>
       <c r="FJ6" t="n">
-        <v>3.628114434182711e-15</v>
+        <v>0.001017192029394209</v>
       </c>
       <c r="FK6" t="n">
-        <v>8.260347463819821e-15</v>
+        <v>0.0006290187011472881</v>
       </c>
       <c r="FL6" t="n">
-        <v>2.142336567206079e-14</v>
+        <v>0.0003839959972538054</v>
       </c>
       <c r="FM6" t="n">
-        <v>1.194305444200249e-15</v>
+        <v>0.0003948241646867245</v>
       </c>
       <c r="FN6" t="n">
-        <v>3.905263360414434e-14</v>
+        <v>0.0003710497985593975</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.13295018914941e-14</v>
+        <v>0.0007121621747501194</v>
       </c>
       <c r="FP6" t="n">
-        <v>7.577084525268877e-16</v>
+        <v>0.0008707286324352026</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1.90578279611435e-14</v>
+        <v>7.912448199931532e-05</v>
       </c>
       <c r="FR6" t="n">
-        <v>1.235771010396841e-14</v>
+        <v>0.0006615507300011814</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.094136259594198e-14</v>
+        <v>0.0001302513264818117</v>
       </c>
       <c r="FT6" t="n">
-        <v>4.548986716284252e-14</v>
+        <v>0.001003778539597988</v>
       </c>
       <c r="FU6" t="n">
-        <v>1.50867935088143e-14</v>
+        <v>0.001688823336735368</v>
       </c>
       <c r="FV6" t="n">
-        <v>1.072366919926699e-14</v>
+        <v>0.0004544557305052876</v>
       </c>
       <c r="FW6" t="n">
-        <v>2.422086308102346e-14</v>
+        <v>0.0005934230284765363</v>
       </c>
       <c r="FX6" t="n">
-        <v>5.935582530851562e-15</v>
+        <v>0.0001982552785193548</v>
       </c>
       <c r="FY6" t="n">
-        <v>1.011047833182708e-14</v>
+        <v>0.0004104207037016749</v>
       </c>
       <c r="FZ6" t="n">
-        <v>2.206752575811821e-14</v>
+        <v>0.000406199018470943</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.285196949880082e-15</v>
+        <v>0.0003250422305427492</v>
       </c>
       <c r="GB6" t="n">
-        <v>1.383476276925867e-14</v>
+        <v>0.0003165534872096032</v>
       </c>
       <c r="GC6" t="n">
-        <v>3.597394666768165e-15</v>
+        <v>0.0006465361802838743</v>
       </c>
       <c r="GD6" t="n">
-        <v>6.726191648873938e-15</v>
+        <v>0.0001935186301125214</v>
       </c>
       <c r="GE6" t="n">
-        <v>6.936026273864299e-15</v>
+        <v>0.001271159620955586</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.320207489743886e-14</v>
+        <v>0.0008782495278865099</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.66489715392709e-15</v>
+        <v>0.001761976862326264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.522990800140178e-07</v>
+        <v>4.233742689763176e-09</v>
       </c>
       <c r="B7" t="n">
-        <v>5.216785439188243e-07</v>
+        <v>1.323337661673918e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>1.102656142393243e-06</v>
+        <v>4.034126366292412e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>3.021918928425293e-06</v>
+        <v>9.830027902779648e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>7.374682695626689e-07</v>
+        <v>2.328070625168266e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>1.387375846206851e-06</v>
+        <v>3.537066861625249e-09</v>
       </c>
       <c r="G7" t="n">
-        <v>1.176067598862574e-07</v>
+        <v>7.602940499396027e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>3.537187751589954e-07</v>
+        <v>1.273747107788381e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>8.959571573541325e-07</v>
+        <v>2.394643150438469e-09</v>
       </c>
       <c r="J7" t="n">
-        <v>6.057458676878014e-07</v>
+        <v>1.17220366746551e-09</v>
       </c>
       <c r="K7" t="n">
-        <v>5.633081201494861e-08</v>
+        <v>5.539550151922867e-09</v>
       </c>
       <c r="L7" t="n">
-        <v>1.043491124619322e-06</v>
+        <v>5.041419726126151e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>2.575439339125296e-06</v>
+        <v>3.05116110155268e-09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.278518422826892e-06</v>
+        <v>1.507727276361948e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>3.362646339155617e-07</v>
+        <v>5.839938532758993e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>5.345916065380152e-07</v>
+        <v>2.721042058340117e-09</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.089931856768089e-06</v>
+        <v>5.78241232673804e-09</v>
       </c>
       <c r="R7" t="n">
-        <v>1.0002476074078e-06</v>
+        <v>6.308110478414619e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>2.082404080283595e-07</v>
+        <v>5.34428390430719e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>4.443955674560129e-07</v>
+        <v>1.676719874055266e-10</v>
       </c>
       <c r="U7" t="n">
-        <v>5.093192498861754e-07</v>
+        <v>9.629170794056563e-10</v>
       </c>
       <c r="V7" t="n">
-        <v>2.804193286465306e-07</v>
+        <v>1.522530324038485e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>2.588077677501133e-06</v>
+        <v>1.220349932218312e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>9.296896053001547e-08</v>
+        <v>6.308067845850474e-09</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.414776929526852e-07</v>
+        <v>3.137483606252545e-09</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.057483842714646e-07</v>
+        <v>1.924330694791365e-09</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.368179880500975e-07</v>
+        <v>3.816686966473526e-10</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.519247625012213e-07</v>
+        <v>2.225227224705861e-10</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.567240582924569e-07</v>
+        <v>1.02887243169647e-09</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.696333573723678e-07</v>
+        <v>4.183304369576035e-09</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.579456339750323e-07</v>
+        <v>6.686795561705594e-09</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.934077597023133e-07</v>
+        <v>2.724036773926741e-09</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.793509103568795e-07</v>
+        <v>8.990144184650717e-10</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.655665755606606e-07</v>
+        <v>2.047893632450837e-09</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.869920644523518e-07</v>
+        <v>2.812976518384858e-09</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.156483619979554e-07</v>
+        <v>3.141958249130994e-09</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.277285251599096e-07</v>
+        <v>1.815701589080732e-09</v>
       </c>
       <c r="AL7" t="n">
-        <v>3.016717471382435e-07</v>
+        <v>4.551813648223657e-10</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.401404231022752e-07</v>
+        <v>5.749428155787939e-10</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.162153353106987e-06</v>
+        <v>2.359299866583342e-09</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.710920057324984e-07</v>
+        <v>5.234340072490795e-09</v>
       </c>
       <c r="AP7" t="n">
-        <v>9.013625117404445e-07</v>
+        <v>2.584719993592444e-09</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.065467074568005e-07</v>
+        <v>1.45924217154203e-09</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.329485475158435e-08</v>
+        <v>2.08894945785687e-09</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.901790452369823e-08</v>
+        <v>5.039094697067981e-10</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.357550386022922e-07</v>
+        <v>1.033387597715318e-09</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.549774992781749e-07</v>
+        <v>7.547417801845313e-09</v>
       </c>
       <c r="AV7" t="n">
-        <v>6.52542439638637e-07</v>
+        <v>1.146033934418256e-09</v>
       </c>
       <c r="AW7" t="n">
-        <v>1.779118292688509e-06</v>
+        <v>6.534930374613168e-10</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.425805346068955e-07</v>
+        <v>1.360840440334243e-09</v>
       </c>
       <c r="AY7" t="n">
-        <v>3.982825091952691e-07</v>
+        <v>7.808509394635621e-09</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.082283145909969e-07</v>
+        <v>1.537021954156614e-09</v>
       </c>
       <c r="BA7" t="n">
-        <v>7.079290753608802e-07</v>
+        <v>1.164540464060337e-09</v>
       </c>
       <c r="BB7" t="n">
-        <v>3.280063936017541e-07</v>
+        <v>4.846548495862635e-09</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.712075968247518e-07</v>
+        <v>2.562679846107585e-09</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.221509814466117e-07</v>
+        <v>5.098577116058323e-10</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.827351176572847e-07</v>
+        <v>2.895677919667605e-09</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.713363644739729e-06</v>
+        <v>3.511981372383843e-09</v>
       </c>
       <c r="BG7" t="n">
-        <v>5.725550522583944e-07</v>
+        <v>6.796150309185123e-09</v>
       </c>
       <c r="BH7" t="n">
-        <v>5.665688149747439e-07</v>
+        <v>3.518827451642892e-10</v>
       </c>
       <c r="BI7" t="n">
-        <v>5.311553081810416e-07</v>
+        <v>7.2254252581061e-10</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.058428438227565e-07</v>
+        <v>1.770642521492505e-10</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.337646947125904e-07</v>
+        <v>4.717212398475112e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>7.658769050067349e-07</v>
+        <v>8.203014378871387e-10</v>
       </c>
       <c r="BM7" t="n">
-        <v>3.422796623908653e-07</v>
+        <v>6.722701062500391e-09</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.202204143486597e-07</v>
+        <v>5.469022457127437e-11</v>
       </c>
       <c r="BO7" t="n">
-        <v>9.56256940298772e-09</v>
+        <v>1.381922132281943e-09</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.262223122466821e-06</v>
+        <v>1.468017973849101e-08</v>
       </c>
       <c r="BQ7" t="n">
-        <v>2.031618464570784e-07</v>
+        <v>3.479420307428427e-09</v>
       </c>
       <c r="BR7" t="n">
-        <v>3.996365194325335e-08</v>
+        <v>4.533457609312563e-09</v>
       </c>
       <c r="BS7" t="n">
-        <v>2.01060856852564e-09</v>
+        <v>7.786339573101486e-09</v>
       </c>
       <c r="BT7" t="n">
-        <v>2.504315546048019e-07</v>
+        <v>4.710212220260246e-10</v>
       </c>
       <c r="BU7" t="n">
-        <v>6.432434815906163e-07</v>
+        <v>1.145892047915709e-09</v>
       </c>
       <c r="BV7" t="n">
-        <v>4.835027311855811e-08</v>
+        <v>3.462029773970698e-09</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.583885247986473e-07</v>
+        <v>1.21057408541958e-09</v>
       </c>
       <c r="BX7" t="n">
-        <v>1.538446554150141e-06</v>
+        <v>2.325383885448673e-09</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.672489702286839e-08</v>
+        <v>4.949598064740712e-09</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.288812086386315e-06</v>
+        <v>2.763267836769501e-09</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.914129370561568e-07</v>
+        <v>3.161757078373739e-09</v>
       </c>
       <c r="CB7" t="n">
-        <v>3.843935587610758e-07</v>
+        <v>9.00783114765602e-10</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.827245625918295e-07</v>
+        <v>3.023574723926004e-09</v>
       </c>
       <c r="CD7" t="n">
-        <v>4.421866037773725e-07</v>
+        <v>5.145085468782895e-10</v>
       </c>
       <c r="CE7" t="n">
-        <v>3.294402972642274e-08</v>
+        <v>1.448481778965061e-09</v>
       </c>
       <c r="CF7" t="n">
-        <v>9.534949896305989e-08</v>
+        <v>2.187064418457396e-10</v>
       </c>
       <c r="CG7" t="n">
-        <v>7.252078830788378e-07</v>
+        <v>8.93597751350228e-10</v>
       </c>
       <c r="CH7" t="n">
-        <v>2.582330296263535e-07</v>
+        <v>1.211458711125601e-11</v>
       </c>
       <c r="CI7" t="n">
-        <v>2.143478923244402e-07</v>
+        <v>1.435350727163609e-09</v>
       </c>
       <c r="CJ7" t="n">
-        <v>1.498110862030444e-07</v>
+        <v>1.854976172666056e-09</v>
       </c>
       <c r="CK7" t="n">
-        <v>5.473528119637194e-08</v>
+        <v>1.240538338720398e-09</v>
       </c>
       <c r="CL7" t="n">
-        <v>3.50566637052907e-07</v>
+        <v>9.634086861609603e-10</v>
       </c>
       <c r="CM7" t="n">
-        <v>8.716529720231847e-08</v>
+        <v>3.031772166650626e-09</v>
       </c>
       <c r="CN7" t="n">
-        <v>3.1425520319317e-07</v>
+        <v>6.119895257228336e-09</v>
       </c>
       <c r="CO7" t="n">
-        <v>1.787161352240219e-08</v>
+        <v>1.293098073062993e-09</v>
       </c>
       <c r="CP7" t="n">
-        <v>1.485910388510092e-06</v>
+        <v>1.764855039887436e-09</v>
       </c>
       <c r="CQ7" t="n">
-        <v>5.943030600974453e-08</v>
+        <v>9.946726997611677e-09</v>
       </c>
       <c r="CR7" t="n">
-        <v>1.453649701943505e-06</v>
+        <v>1.723181819457409e-09</v>
       </c>
       <c r="CS7" t="n">
-        <v>8.689326591593272e-09</v>
+        <v>2.43524711507348e-09</v>
       </c>
       <c r="CT7" t="n">
-        <v>2.297822447872022e-07</v>
+        <v>3.63404817349533e-09</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.011913113302398e-07</v>
+        <v>2.555550659977257e-09</v>
       </c>
       <c r="CV7" t="n">
-        <v>4.129802562147233e-07</v>
+        <v>4.049791405003056e-11</v>
       </c>
       <c r="CW7" t="n">
-        <v>1.855176918752477e-07</v>
+        <v>1.427878260074067e-09</v>
       </c>
       <c r="CX7" t="n">
-        <v>8.577460874903409e-08</v>
+        <v>1.589829934367515e-10</v>
       </c>
       <c r="CY7" t="n">
-        <v>6.054979166947305e-07</v>
+        <v>6.506886141011137e-10</v>
       </c>
       <c r="CZ7" t="n">
-        <v>2.544542496707436e-07</v>
+        <v>2.788186348468003e-10</v>
       </c>
       <c r="DA7" t="n">
-        <v>1.856175515513314e-07</v>
+        <v>1.336476151969634e-09</v>
       </c>
       <c r="DB7" t="n">
-        <v>5.673139469308808e-08</v>
+        <v>2.053919923028502e-09</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.471370556620059e-08</v>
+        <v>1.109997649351158e-09</v>
       </c>
       <c r="DD7" t="n">
-        <v>4.180860457836388e-07</v>
+        <v>1.195247234520025e-10</v>
       </c>
       <c r="DE7" t="n">
-        <v>6.266761261031206e-07</v>
+        <v>7.281530045588624e-09</v>
       </c>
       <c r="DF7" t="n">
-        <v>2.32276306633139e-07</v>
+        <v>6.536894137099125e-09</v>
       </c>
       <c r="DG7" t="n">
-        <v>2.070699878231608e-07</v>
+        <v>5.169991101894311e-10</v>
       </c>
       <c r="DH7" t="n">
-        <v>6.967426884330052e-07</v>
+        <v>8.485848468353652e-09</v>
       </c>
       <c r="DI7" t="n">
-        <v>1.2723694453598e-06</v>
+        <v>1.037554042682132e-08</v>
       </c>
       <c r="DJ7" t="n">
-        <v>5.902996349504974e-07</v>
+        <v>3.784661917194398e-09</v>
       </c>
       <c r="DK7" t="n">
-        <v>3.182442469551461e-07</v>
+        <v>7.64747731807347e-09</v>
       </c>
       <c r="DL7" t="n">
-        <v>7.588822086290747e-07</v>
+        <v>6.730707990953988e-09</v>
       </c>
       <c r="DM7" t="n">
-        <v>1.795312556396311e-07</v>
+        <v>2.030903889504998e-09</v>
       </c>
       <c r="DN7" t="n">
-        <v>1.035695973428119e-07</v>
+        <v>1.176677644210145e-09</v>
       </c>
       <c r="DO7" t="n">
-        <v>2.673033350220066e-07</v>
+        <v>6.768051674654885e-10</v>
       </c>
       <c r="DP7" t="n">
-        <v>3.48660535109957e-07</v>
+        <v>2.194062709293121e-09</v>
       </c>
       <c r="DQ7" t="n">
-        <v>2.820072211306979e-07</v>
+        <v>1.460660037366779e-09</v>
       </c>
       <c r="DR7" t="n">
-        <v>4.800872375199106e-07</v>
+        <v>2.850449876135031e-09</v>
       </c>
       <c r="DS7" t="n">
-        <v>4.057157525494404e-07</v>
+        <v>6.909656180553725e-11</v>
       </c>
       <c r="DT7" t="n">
-        <v>3.763122151667631e-07</v>
+        <v>4.897938055137274e-09</v>
       </c>
       <c r="DU7" t="n">
-        <v>3.838259488020412e-07</v>
+        <v>3.391964487065025e-09</v>
       </c>
       <c r="DV7" t="n">
-        <v>3.815096647485916e-07</v>
+        <v>4.714156287555227e-10</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.065684950342984e-08</v>
+        <v>2.340425075963992e-10</v>
       </c>
       <c r="DX7" t="n">
-        <v>5.955463393547689e-07</v>
+        <v>1.33365363197413e-09</v>
       </c>
       <c r="DY7" t="n">
-        <v>1.282743511410445e-08</v>
+        <v>1.692553652787865e-09</v>
       </c>
       <c r="DZ7" t="n">
-        <v>6.08908919730311e-07</v>
+        <v>2.778160146377218e-09</v>
       </c>
       <c r="EA7" t="n">
-        <v>1.232102704307181e-07</v>
+        <v>7.37729877187121e-10</v>
       </c>
       <c r="EB7" t="n">
-        <v>2.585767617802048e-07</v>
+        <v>9.511781362547822e-10</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.95103352654769e-08</v>
+        <v>2.083039074562976e-09</v>
       </c>
       <c r="ED7" t="n">
-        <v>1.997703833467313e-07</v>
+        <v>4.632041417096389e-09</v>
       </c>
       <c r="EE7" t="n">
-        <v>4.327637839196541e-07</v>
+        <v>1.467469035176805e-09</v>
       </c>
       <c r="EF7" t="n">
-        <v>5.199140673539659e-07</v>
+        <v>8.763367809194733e-10</v>
       </c>
       <c r="EG7" t="n">
-        <v>4.119438585803437e-07</v>
+        <v>3.536942294601886e-09</v>
       </c>
       <c r="EH7" t="n">
-        <v>2.632226880905364e-08</v>
+        <v>1.128492965740691e-09</v>
       </c>
       <c r="EI7" t="n">
-        <v>2.82791063455079e-07</v>
+        <v>4.375293016778414e-09</v>
       </c>
       <c r="EJ7" t="n">
-        <v>1.33608324404122e-07</v>
+        <v>1.180389119781466e-11</v>
       </c>
       <c r="EK7" t="n">
-        <v>5.088703574074316e-07</v>
+        <v>2.753256067578036e-09</v>
       </c>
       <c r="EL7" t="n">
-        <v>5.571781258595365e-09</v>
+        <v>4.241115236780502e-10</v>
       </c>
       <c r="EM7" t="n">
-        <v>9.566223013734998e-08</v>
+        <v>1.115987857680523e-10</v>
       </c>
       <c r="EN7" t="n">
-        <v>2.003847043852147e-08</v>
+        <v>7.79830977570839e-10</v>
       </c>
       <c r="EO7" t="n">
-        <v>9.257893793801486e-07</v>
+        <v>6.893754456172019e-10</v>
       </c>
       <c r="EP7" t="n">
-        <v>5.651941137330141e-08</v>
+        <v>2.133080156951905e-09</v>
       </c>
       <c r="EQ7" t="n">
-        <v>2.908756435715532e-08</v>
+        <v>5.892945853513964e-11</v>
       </c>
       <c r="ER7" t="n">
-        <v>4.237013513375132e-07</v>
+        <v>3.680387550275555e-09</v>
       </c>
       <c r="ES7" t="n">
-        <v>1.170068202327457e-07</v>
+        <v>9.027140146500301e-10</v>
       </c>
       <c r="ET7" t="n">
-        <v>7.98623318587488e-08</v>
+        <v>5.166191918704044e-10</v>
       </c>
       <c r="EU7" t="n">
-        <v>1.334241233053035e-07</v>
+        <v>5.639507749677364e-10</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.869147041588803e-07</v>
+        <v>1.674200333923181e-09</v>
       </c>
       <c r="EW7" t="n">
-        <v>1.305077717006498e-07</v>
+        <v>2.287518618970807e-09</v>
       </c>
       <c r="EX7" t="n">
-        <v>3.80157956669791e-07</v>
+        <v>2.334717141838638e-10</v>
       </c>
       <c r="EY7" t="n">
-        <v>7.666466927958027e-08</v>
+        <v>8.949037622052458e-10</v>
       </c>
       <c r="EZ7" t="n">
-        <v>7.179144745350641e-08</v>
+        <v>4.768339056937521e-10</v>
       </c>
       <c r="FA7" t="n">
-        <v>5.040686801294214e-07</v>
+        <v>4.915818863082677e-10</v>
       </c>
       <c r="FB7" t="n">
-        <v>4.052247959407396e-07</v>
+        <v>4.07995193185684e-10</v>
       </c>
       <c r="FC7" t="n">
-        <v>2.647438179792516e-07</v>
+        <v>2.501366891394241e-09</v>
       </c>
       <c r="FD7" t="n">
-        <v>3.521131475281436e-08</v>
+        <v>2.197046322649499e-09</v>
       </c>
       <c r="FE7" t="n">
-        <v>7.477297003788408e-08</v>
+        <v>1.946317995660252e-09</v>
       </c>
       <c r="FF7" t="n">
-        <v>2.606263365123596e-07</v>
+        <v>2.474416505027222e-10</v>
       </c>
       <c r="FG7" t="n">
-        <v>4.083026539092316e-08</v>
+        <v>1.253149917168628e-09</v>
       </c>
       <c r="FH7" t="n">
-        <v>4.174367518317013e-07</v>
+        <v>1.535269578134546e-09</v>
       </c>
       <c r="FI7" t="n">
-        <v>4.129839226152399e-07</v>
+        <v>2.100951912442639e-10</v>
       </c>
       <c r="FJ7" t="n">
-        <v>5.185310101296636e-07</v>
+        <v>1.725791287654488e-09</v>
       </c>
       <c r="FK7" t="n">
-        <v>4.559831836559169e-07</v>
+        <v>1.452106879185067e-09</v>
       </c>
       <c r="FL7" t="n">
-        <v>1.732796732767383e-07</v>
+        <v>7.798517387413995e-11</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.543639456258461e-07</v>
+        <v>8.271725526753926e-10</v>
       </c>
       <c r="FN7" t="n">
-        <v>5.837279104525805e-08</v>
+        <v>1.49613965660933e-09</v>
       </c>
       <c r="FO7" t="n">
-        <v>8.778172855272715e-07</v>
+        <v>2.1837418540116e-09</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.94464490732571e-07</v>
+        <v>2.000925425349465e-09</v>
       </c>
       <c r="FQ7" t="n">
-        <v>8.743376156417071e-08</v>
+        <v>6.43069686390163e-09</v>
       </c>
       <c r="FR7" t="n">
-        <v>1.999293886001396e-07</v>
+        <v>2.186795189373925e-09</v>
       </c>
       <c r="FS7" t="n">
-        <v>3.862940047838492e-07</v>
+        <v>1.882551670107091e-09</v>
       </c>
       <c r="FT7" t="n">
-        <v>4.268156317266403e-07</v>
+        <v>1.741597088766866e-09</v>
       </c>
       <c r="FU7" t="n">
-        <v>5.709190986635804e-07</v>
+        <v>4.478282633613162e-09</v>
       </c>
       <c r="FV7" t="n">
-        <v>3.521894242908274e-08</v>
+        <v>1.349078404544457e-09</v>
       </c>
       <c r="FW7" t="n">
-        <v>2.599087451926607e-07</v>
+        <v>1.220993528505687e-09</v>
       </c>
       <c r="FX7" t="n">
-        <v>5.677005674442626e-07</v>
+        <v>2.205036153668516e-09</v>
       </c>
       <c r="FY7" t="n">
-        <v>3.168269699926896e-07</v>
+        <v>1.206558186694906e-10</v>
       </c>
       <c r="FZ7" t="n">
-        <v>1.767340336300549e-07</v>
+        <v>3.104182910718123e-09</v>
       </c>
       <c r="GA7" t="n">
-        <v>2.061014470200462e-08</v>
+        <v>4.314988810705245e-09</v>
       </c>
       <c r="GB7" t="n">
-        <v>9.864555750027648e-07</v>
+        <v>1.128333315669749e-09</v>
       </c>
       <c r="GC7" t="n">
-        <v>5.181574351809104e-07</v>
+        <v>7.75134800790056e-09</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.136586883556447e-07</v>
+        <v>4.155565225261171e-09</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.780140337359626e-07</v>
+        <v>3.008560067740973e-09</v>
       </c>
       <c r="GF7" t="n">
-        <v>2.216147265698964e-07</v>
+        <v>3.11426195942488e-09</v>
       </c>
       <c r="GG7" t="n">
-        <v>6.687468498967064e-07</v>
+        <v>1.176259756263676e-09</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.687553456506066e-09</v>
+        <v>0.0005002339603379369</v>
       </c>
       <c r="B9" t="n">
-        <v>4.594876035213247e-09</v>
+        <v>0.0219037439674139</v>
       </c>
       <c r="C9" t="n">
-        <v>3.170243845218579e-09</v>
+        <v>0.001989144831895828</v>
       </c>
       <c r="D9" t="n">
-        <v>9.410368484452647e-09</v>
+        <v>0.01235940773040056</v>
       </c>
       <c r="E9" t="n">
-        <v>5.866865215864436e-09</v>
+        <v>0.005044233053922653</v>
       </c>
       <c r="F9" t="n">
-        <v>3.991170061112825e-09</v>
+        <v>0.003571766894310713</v>
       </c>
       <c r="G9" t="n">
-        <v>3.371427581555508e-09</v>
+        <v>0.002051536925137043</v>
       </c>
       <c r="H9" t="n">
-        <v>7.736146834247393e-09</v>
+        <v>0.003291623201221228</v>
       </c>
       <c r="I9" t="n">
-        <v>9.492385766307621e-10</v>
+        <v>0.001431031851097941</v>
       </c>
       <c r="J9" t="n">
-        <v>2.694991563245708e-09</v>
+        <v>0.001950961886905134</v>
       </c>
       <c r="K9" t="n">
-        <v>1.426814999483383e-09</v>
+        <v>0.01588820107281208</v>
       </c>
       <c r="L9" t="n">
-        <v>2.041238289507419e-09</v>
+        <v>0.001114285783842206</v>
       </c>
       <c r="M9" t="n">
-        <v>8.594504663506086e-09</v>
+        <v>0.01173720881342888</v>
       </c>
       <c r="N9" t="n">
-        <v>6.336260405248595e-09</v>
+        <v>0.008814927190542221</v>
       </c>
       <c r="O9" t="n">
-        <v>1.555927386931444e-09</v>
+        <v>0.00533992238342762</v>
       </c>
       <c r="P9" t="n">
-        <v>2.235319929155821e-09</v>
+        <v>0.0004761092131957412</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.278530140235716e-09</v>
+        <v>0.0001322230382356793</v>
       </c>
       <c r="R9" t="n">
-        <v>9.156518876451969e-10</v>
+        <v>0.003152168123051524</v>
       </c>
       <c r="S9" t="n">
-        <v>1.209429112414284e-09</v>
+        <v>0.0007705471361987293</v>
       </c>
       <c r="T9" t="n">
-        <v>1.669728799669201e-10</v>
+        <v>0.003425403265282512</v>
       </c>
       <c r="U9" t="n">
-        <v>1.352794543052482e-09</v>
+        <v>0.0007018964388407767</v>
       </c>
       <c r="V9" t="n">
-        <v>2.472865912039879e-09</v>
+        <v>0.002404873725026846</v>
       </c>
       <c r="W9" t="n">
-        <v>6.229655902245668e-09</v>
+        <v>0.00154313794337213</v>
       </c>
       <c r="X9" t="n">
-        <v>6.303475519331414e-10</v>
+        <v>0.001597628812305629</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.62959759206916e-10</v>
+        <v>0.002446787431836128</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.048956810301149e-09</v>
+        <v>0.0008641573949716985</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.602302817678037e-09</v>
+        <v>0.001500828424468637</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.252647706730727e-09</v>
+        <v>0.001549628446809947</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.733325816211106e-09</v>
+        <v>0.005212574731558561</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.024939327327502e-09</v>
+        <v>0.0001770112867234275</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.449485531601624e-09</v>
+        <v>0.0007350189262069762</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.521705066982349e-11</v>
+        <v>0.002809070749208331</v>
       </c>
       <c r="AG9" t="n">
-        <v>7.865637030590733e-10</v>
+        <v>0.001451503136195242</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.893521783813412e-09</v>
+        <v>6.696535274386406e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.178479758223716e-09</v>
+        <v>0.0002492775674909353</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2.25253060648356e-09</v>
+        <v>0.0002472154446877539</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.76141842725508e-09</v>
+        <v>0.001036091824062169</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.73957293014837e-09</v>
+        <v>0.001782441046088934</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.417252093460775e-09</v>
+        <v>0.0005705986986868083</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.046276978035394e-10</v>
+        <v>0.0006579800974577665</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.572116075683084e-09</v>
+        <v>0.003925449680536985</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.838729334404434e-09</v>
+        <v>0.003327477723360062</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.248333682736586e-10</v>
+        <v>6.458524148911238e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.368961721759376e-09</v>
+        <v>0.0001874908630270511</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.142965887548144e-10</v>
+        <v>0.0009941704338416457</v>
       </c>
       <c r="AT9" t="n">
-        <v>4.305147349725758e-09</v>
+        <v>0.00197240523993969</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.912597801303264e-09</v>
+        <v>0.0154118537902832</v>
       </c>
       <c r="AV9" t="n">
-        <v>4.063545055998929e-09</v>
+        <v>0.0002134680398739874</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.310402701435123e-09</v>
+        <v>0.003029341343790293</v>
       </c>
       <c r="AX9" t="n">
-        <v>9.487244323480581e-10</v>
+        <v>0.0005636792629957199</v>
       </c>
       <c r="AY9" t="n">
-        <v>4.067946868246963e-09</v>
+        <v>0.001615029177628458</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.5815048704535e-09</v>
+        <v>0.002428005682304502</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.056907224191946e-09</v>
+        <v>0.002287623938173056</v>
       </c>
       <c r="BB9" t="n">
-        <v>3.865005648862052e-09</v>
+        <v>7.753875979688019e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>1.194205179189112e-09</v>
+        <v>0.0006055596750229597</v>
       </c>
       <c r="BD9" t="n">
-        <v>6.921104245272147e-10</v>
+        <v>0.004281566943973303</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.808302840800025e-09</v>
+        <v>0.003797059878706932</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.360776241161489e-09</v>
+        <v>0.002598125254735351</v>
       </c>
       <c r="BG9" t="n">
-        <v>2.98712565793835e-09</v>
+        <v>0.006053591147065163</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.410377370447691e-10</v>
+        <v>0.004056451376527548</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.211595934691445e-09</v>
+        <v>0.002799168461933732</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.50193923543452e-10</v>
+        <v>0.0006275298655964434</v>
       </c>
       <c r="BK9" t="n">
-        <v>3.859900732372523e-10</v>
+        <v>0.001723391120322049</v>
       </c>
       <c r="BL9" t="n">
-        <v>5.494102950365232e-10</v>
+        <v>0.00185580353718251</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.580060831647302e-09</v>
+        <v>0.0050608916208148</v>
       </c>
       <c r="BN9" t="n">
-        <v>2.503572349432659e-11</v>
+        <v>0.002470457227900624</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.241062307424158e-09</v>
+        <v>0.0009922601748257875</v>
       </c>
       <c r="BP9" t="n">
-        <v>3.336532605757725e-09</v>
+        <v>0.004319705534726381</v>
       </c>
       <c r="BQ9" t="n">
-        <v>2.433423906822441e-09</v>
+        <v>0.001839787466451526</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.11699582916458e-09</v>
+        <v>0.0004926368128508329</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.889576939362314e-09</v>
+        <v>0.0003591757849790156</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.645818925588571e-09</v>
+        <v>0.001734448364004493</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.185492758461805e-09</v>
+        <v>0.001414074329659343</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.450696451854583e-09</v>
+        <v>0.008095705881714821</v>
       </c>
       <c r="BW9" t="n">
-        <v>9.953363688808281e-10</v>
+        <v>0.00274586514569819</v>
       </c>
       <c r="BX9" t="n">
-        <v>5.944491121567808e-09</v>
+        <v>0.002626449801027775</v>
       </c>
       <c r="BY9" t="n">
-        <v>9.74146319165925e-11</v>
+        <v>0.0006492373067885637</v>
       </c>
       <c r="BZ9" t="n">
-        <v>4.395013242231016e-09</v>
+        <v>0.002342982916161418</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.233783602534345e-09</v>
+        <v>0.0002484030555933714</v>
       </c>
       <c r="CB9" t="n">
-        <v>3.379383439749972e-09</v>
+        <v>0.001676759915426373</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.513702829747388e-09</v>
+        <v>0.001903385506011546</v>
       </c>
       <c r="CD9" t="n">
-        <v>3.786994051679926e-10</v>
+        <v>0.0003932554973289371</v>
       </c>
       <c r="CE9" t="n">
-        <v>3.264884751441599e-10</v>
+        <v>0.003802979597821832</v>
       </c>
       <c r="CF9" t="n">
-        <v>9.630702901830546e-10</v>
+        <v>0.001161593245342374</v>
       </c>
       <c r="CG9" t="n">
-        <v>2.326581816092244e-09</v>
+        <v>0.001224795007146895</v>
       </c>
       <c r="CH9" t="n">
-        <v>1.213571687586068e-09</v>
+        <v>9.472640522290021e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>1.78643960735414e-10</v>
+        <v>9.480871813138947e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>3.596712094822152e-10</v>
+        <v>0.0003598161856643856</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.8958129227874e-09</v>
+        <v>0.0001866052916739136</v>
       </c>
       <c r="CL9" t="n">
-        <v>4.542182463485034e-10</v>
+        <v>2.201896131737158e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.220917226849252e-10</v>
+        <v>0.00394021300598979</v>
       </c>
       <c r="CN9" t="n">
-        <v>3.871612475059294e-10</v>
+        <v>0.002472511725500226</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.940287706174274e-10</v>
+        <v>0.000815748586319387</v>
       </c>
       <c r="CP9" t="n">
-        <v>3.362771394677111e-09</v>
+        <v>0.003613188397139311</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.408627297612043e-09</v>
+        <v>0.002168965293094516</v>
       </c>
       <c r="CR9" t="n">
-        <v>2.116083308578709e-09</v>
+        <v>0.002045147586613894</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.03038366727759e-09</v>
+        <v>0.002827707910910249</v>
       </c>
       <c r="CT9" t="n">
-        <v>8.248215999095976e-10</v>
+        <v>0.004886836279183626</v>
       </c>
       <c r="CU9" t="n">
-        <v>1.578998487516969e-09</v>
+        <v>0.0001415252772858366</v>
       </c>
       <c r="CV9" t="n">
-        <v>4.354682447971214e-10</v>
+        <v>0.0004740357107948512</v>
       </c>
       <c r="CW9" t="n">
-        <v>7.909602972588914e-10</v>
+        <v>0.003048804355785251</v>
       </c>
       <c r="CX9" t="n">
-        <v>5.20564147343805e-12</v>
+        <v>0.001789150643162429</v>
       </c>
       <c r="CY9" t="n">
-        <v>1.839546293069816e-09</v>
+        <v>0.001834817114286125</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.419740658370472e-09</v>
+        <v>6.63468090351671e-05</v>
       </c>
       <c r="DA9" t="n">
-        <v>8.887512392696806e-10</v>
+        <v>0.000330854207277298</v>
       </c>
       <c r="DB9" t="n">
-        <v>7.524058043273385e-10</v>
+        <v>0.0005507961031980813</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.503898866024201e-09</v>
+        <v>0.000295630656182766</v>
       </c>
       <c r="DD9" t="n">
-        <v>5.498731470154894e-10</v>
+        <v>0.0001213618088513613</v>
       </c>
       <c r="DE9" t="n">
-        <v>2.897313056138273e-09</v>
+        <v>0.001597779570147395</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.226351713043641e-09</v>
+        <v>0.004455768968909979</v>
       </c>
       <c r="DG9" t="n">
-        <v>2.328356674130561e-10</v>
+        <v>0.001238275552168489</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.480045863644364e-09</v>
+        <v>0.005254770163446665</v>
       </c>
       <c r="DI9" t="n">
-        <v>1.845954056278742e-09</v>
+        <v>0.002006718888878822</v>
       </c>
       <c r="DJ9" t="n">
-        <v>4.247124874012798e-10</v>
+        <v>0.0009124425705522299</v>
       </c>
       <c r="DK9" t="n">
-        <v>2.382512409582205e-09</v>
+        <v>0.001860539545305073</v>
       </c>
       <c r="DL9" t="n">
-        <v>4.929568309108845e-09</v>
+        <v>0.001394577906467021</v>
       </c>
       <c r="DM9" t="n">
-        <v>5.33579846972998e-11</v>
+        <v>7.736816769465804e-06</v>
       </c>
       <c r="DN9" t="n">
-        <v>6.530362361978348e-10</v>
+        <v>0.001121578272432089</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.379253348840706e-10</v>
+        <v>0.001530700945295393</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.158334095308078e-09</v>
+        <v>0.001985404873266816</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.517994396849076e-09</v>
+        <v>0.0002337705809623003</v>
       </c>
       <c r="DR9" t="n">
-        <v>1.042516517557601e-09</v>
+        <v>0.001584492740221322</v>
       </c>
       <c r="DS9" t="n">
-        <v>4.74689754170754e-09</v>
+        <v>0.0003934501146432012</v>
       </c>
       <c r="DT9" t="n">
-        <v>7.947165148181057e-11</v>
+        <v>0.001472869655117393</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.266722613583852e-09</v>
+        <v>0.0002271361881867051</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.195578525070573e-09</v>
+        <v>0.000928469467908144</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.657398273126944e-10</v>
+        <v>0.0002617125574033707</v>
       </c>
       <c r="DX9" t="n">
-        <v>4.635296313448833e-10</v>
+        <v>0.001493326271884143</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.741207261180989e-10</v>
+        <v>0.001187732559628785</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.441244983941715e-09</v>
+        <v>0.0001446234236937016</v>
       </c>
       <c r="EA9" t="n">
-        <v>5.933874502872527e-10</v>
+        <v>0.001960143679752946</v>
       </c>
       <c r="EB9" t="n">
-        <v>5.336520669807499e-10</v>
+        <v>0.00223329127766192</v>
       </c>
       <c r="EC9" t="n">
-        <v>7.410320135292636e-10</v>
+        <v>0.0005487565067596734</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.134432991989343e-09</v>
+        <v>0.001036500791087747</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.354179073904561e-09</v>
+        <v>4.028320836368948e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>9.619253171777586e-10</v>
+        <v>2.29793949984014e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>4.838300871057299e-10</v>
+        <v>0.001867395360022783</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.258703224455871e-10</v>
+        <v>0.001006280654110014</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.093086814980438e-09</v>
+        <v>0.001778459292836487</v>
       </c>
       <c r="EJ9" t="n">
-        <v>1.081902012423086e-09</v>
+        <v>0.002422461751848459</v>
       </c>
       <c r="EK9" t="n">
-        <v>5.776465417106635e-10</v>
+        <v>0.0001496254844823852</v>
       </c>
       <c r="EL9" t="n">
-        <v>6.762404525240129e-10</v>
+        <v>0.0009206124232150614</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.024398676996441e-09</v>
+        <v>0.0004936471814289689</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.259312099044507e-09</v>
+        <v>0.0005280456971377134</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.519996988858964e-10</v>
+        <v>0.001211153576150537</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.469141416471814e-10</v>
+        <v>0.003086702432483435</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.884285363994991e-10</v>
+        <v>0.001129275071434677</v>
       </c>
       <c r="ER9" t="n">
-        <v>7.527656276096195e-10</v>
+        <v>0.001374098006635904</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.537243443650027e-09</v>
+        <v>0.0005065661971457303</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.117033798792022e-09</v>
+        <v>0.002312059514224529</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.530542359517995e-11</v>
+        <v>0.002129854867234826</v>
       </c>
       <c r="EV9" t="n">
-        <v>4.395310337912406e-09</v>
+        <v>0.0008687431691214442</v>
       </c>
       <c r="EW9" t="n">
-        <v>6.256098417090072e-10</v>
+        <v>9.764450805960223e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>2.846331226269427e-10</v>
+        <v>0.0002085811865981668</v>
       </c>
       <c r="EY9" t="n">
-        <v>7.098344689815406e-10</v>
+        <v>0.003110541729256511</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.64251009962635e-10</v>
+        <v>0.0009449692443013191</v>
       </c>
       <c r="FA9" t="n">
-        <v>9.146491342093555e-10</v>
+        <v>0.001646725926548243</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.570082397428507e-09</v>
+        <v>0.0004725694889202714</v>
       </c>
       <c r="FC9" t="n">
-        <v>1.822287459818384e-10</v>
+        <v>0.0008606297778896987</v>
       </c>
       <c r="FD9" t="n">
-        <v>7.100673382609557e-10</v>
+        <v>0.0007013215217739344</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.130235987607421e-09</v>
+        <v>0.0002809004508890212</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.865058273433419e-11</v>
+        <v>0.000506799085997045</v>
       </c>
       <c r="FG9" t="n">
-        <v>1.26691712676319e-09</v>
+        <v>0.0003381982096470892</v>
       </c>
       <c r="FH9" t="n">
-        <v>5.630410027102073e-10</v>
+        <v>0.0004062045481987298</v>
       </c>
       <c r="FI9" t="n">
-        <v>2.149008193619295e-10</v>
+        <v>0.0006474434630945325</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.427881590743141e-09</v>
+        <v>0.001529341447167099</v>
       </c>
       <c r="FK9" t="n">
-        <v>2.278586652693093e-09</v>
+        <v>0.0003520643804222345</v>
       </c>
       <c r="FL9" t="n">
-        <v>7.617402264514794e-10</v>
+        <v>0.001263656304217875</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.901950263949459e-10</v>
+        <v>6.934429984539747e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>6.062007340545961e-09</v>
+        <v>0.0003247644635848701</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.743226257788777e-10</v>
+        <v>0.0001502092054579407</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.425241119041743e-10</v>
+        <v>0.002302437555044889</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.141514077180773e-09</v>
+        <v>0.0001027770049404353</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.410412035582567e-10</v>
+        <v>0.0005970579222775996</v>
       </c>
       <c r="FS9" t="n">
-        <v>9.594716132710346e-10</v>
+        <v>0.001626461511477828</v>
       </c>
       <c r="FT9" t="n">
-        <v>4.162213684821836e-09</v>
+        <v>0.0005026684375479817</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.375086489119326e-09</v>
+        <v>0.001552068395540118</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.222196426870937e-09</v>
+        <v>0.001433545490726829</v>
       </c>
       <c r="FW9" t="n">
-        <v>3.705769913153745e-09</v>
+        <v>0.0009589679539203644</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.303883223613411e-09</v>
+        <v>0.000718605297151953</v>
       </c>
       <c r="FY9" t="n">
-        <v>1.305851426991467e-09</v>
+        <v>0.00278632203117013</v>
       </c>
       <c r="FZ9" t="n">
-        <v>4.438120093652742e-09</v>
+        <v>0.001240072306245565</v>
       </c>
       <c r="GA9" t="n">
-        <v>9.586639260206198e-10</v>
+        <v>0.0005186635535210371</v>
       </c>
       <c r="GB9" t="n">
-        <v>1.460993326318771e-09</v>
+        <v>0.0008106117602437735</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.239349150556791e-09</v>
+        <v>0.0006394615629687905</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.455514902521827e-09</v>
+        <v>0.003494036616757512</v>
       </c>
       <c r="GE9" t="n">
-        <v>9.313191329241022e-10</v>
+        <v>0.004501057788729668</v>
       </c>
       <c r="GF9" t="n">
-        <v>2.964766432356214e-09</v>
+        <v>0.0004950626171194017</v>
       </c>
       <c r="GG9" t="n">
-        <v>1.562504903240836e-09</v>
+        <v>0.0006159006152302027</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.890959187127009e-07</v>
+        <v>0.03813327848911285</v>
       </c>
       <c r="B10" t="n">
-        <v>1.489388182562834e-06</v>
+        <v>0.2362513095140457</v>
       </c>
       <c r="C10" t="n">
-        <v>1.471123027840804e-06</v>
+        <v>0.02455025911331177</v>
       </c>
       <c r="D10" t="n">
-        <v>3.464217570581241e-06</v>
+        <v>0.06357952207326889</v>
       </c>
       <c r="E10" t="n">
-        <v>1.27935766158771e-06</v>
+        <v>0.006989554967731237</v>
       </c>
       <c r="F10" t="n">
-        <v>1.184820490607308e-07</v>
+        <v>0.03312736004590988</v>
       </c>
       <c r="G10" t="n">
-        <v>8.343874924321426e-09</v>
+        <v>0.01923612877726555</v>
       </c>
       <c r="H10" t="n">
-        <v>4.135756341838714e-07</v>
+        <v>0.006990948691964149</v>
       </c>
       <c r="I10" t="n">
-        <v>9.947389116859995e-07</v>
+        <v>0.004012618213891983</v>
       </c>
       <c r="J10" t="n">
-        <v>3.392663927570538e-08</v>
+        <v>0.04114924743771553</v>
       </c>
       <c r="K10" t="n">
-        <v>6.033182842202223e-09</v>
+        <v>0.1487133055925369</v>
       </c>
       <c r="L10" t="n">
-        <v>1.652330752222042e-06</v>
+        <v>0.002581879496574402</v>
       </c>
       <c r="M10" t="n">
-        <v>4.191877451376058e-06</v>
+        <v>0.09351742267608643</v>
       </c>
       <c r="N10" t="n">
-        <v>2.48224114329787e-06</v>
+        <v>0.04193767532706261</v>
       </c>
       <c r="O10" t="n">
-        <v>1.994568265217822e-06</v>
+        <v>0.06364700198173523</v>
       </c>
       <c r="P10" t="n">
-        <v>1.368893265407678e-07</v>
+        <v>0.01600231789052486</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.593655724718701e-06</v>
+        <v>0.01181929931044579</v>
       </c>
       <c r="R10" t="n">
-        <v>1.390524630551226e-06</v>
+        <v>0.005137236788868904</v>
       </c>
       <c r="S10" t="n">
-        <v>1.70011367117695e-06</v>
+        <v>0.009602325037121773</v>
       </c>
       <c r="T10" t="n">
-        <v>2.21399091060448e-07</v>
+        <v>0.04027817025780678</v>
       </c>
       <c r="U10" t="n">
-        <v>1.630269395036521e-07</v>
+        <v>0.02075465954840183</v>
       </c>
       <c r="V10" t="n">
-        <v>3.802006744990649e-07</v>
+        <v>0.02090383879840374</v>
       </c>
       <c r="W10" t="n">
-        <v>2.31501940106682e-06</v>
+        <v>0.007020012941211462</v>
       </c>
       <c r="X10" t="n">
-        <v>6.442201652134827e-07</v>
+        <v>0.02503825724124908</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.764932898775442e-07</v>
+        <v>0.003030918538570404</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.698015239526285e-07</v>
+        <v>0.004771965555846691</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.321860901905893e-07</v>
+        <v>0.002820727648213506</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.16907072981121e-07</v>
+        <v>0.02962575852870941</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.577870242883364e-07</v>
+        <v>0.03669612854719162</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.141092280311568e-07</v>
+        <v>0.01851680502295494</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.978691888230969e-07</v>
+        <v>0.006594614125788212</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.888092751618387e-07</v>
+        <v>0.02325155586004257</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.300330154663243e-06</v>
+        <v>0.002905999077484012</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.836561396994512e-07</v>
+        <v>0.01978744193911552</v>
       </c>
       <c r="AI10" t="n">
-        <v>1.343996913760748e-08</v>
+        <v>0.01615745574235916</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.124575181980617e-07</v>
+        <v>0.009246628731489182</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.286240885496227e-07</v>
+        <v>0.02974751219153404</v>
       </c>
       <c r="AL10" t="n">
-        <v>5.313432893672143e-07</v>
+        <v>0.009785977192223072</v>
       </c>
       <c r="AM10" t="n">
-        <v>5.334238295517935e-08</v>
+        <v>0.01949822530150414</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.668141617818037e-07</v>
+        <v>0.02344945259392262</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.981526279199898e-07</v>
+        <v>0.02800550125539303</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.962751169543481e-07</v>
+        <v>0.02195976860821247</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.685661175088171e-07</v>
+        <v>0.00671682134270668</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.06772038274994e-09</v>
+        <v>0.0161048099398613</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.530328515604197e-07</v>
+        <v>0.006397988181561232</v>
       </c>
       <c r="AT10" t="n">
-        <v>6.609812999158748e-07</v>
+        <v>0.00767748337239027</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.820903889893088e-07</v>
+        <v>0.1911274939775467</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.250354627785782e-08</v>
+        <v>0.0154460621997714</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.024368771140871e-06</v>
+        <v>0.007263717241585255</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.684464561752975e-07</v>
+        <v>0.04599688202142715</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.646029801349869e-08</v>
+        <v>0.02370000071823597</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8.026983095987816e-07</v>
+        <v>0.001734257210046053</v>
       </c>
       <c r="BA10" t="n">
-        <v>4.704245952780184e-07</v>
+        <v>0.01211097463965416</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.729759896486939e-07</v>
+        <v>0.009556401520967484</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.870301389317319e-07</v>
+        <v>0.006427675485610962</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.99544398735452e-07</v>
+        <v>0.05275484919548035</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.237552851307555e-06</v>
+        <v>0.03478188812732697</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.117913027177565e-06</v>
+        <v>0.01153830904513597</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.750677256495692e-06</v>
+        <v>0.0478493757545948</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.745025184935912e-08</v>
+        <v>0.05076494067907333</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.153719381363771e-06</v>
+        <v>0.004534322768449783</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.57409413456844e-07</v>
+        <v>0.01478424668312073</v>
       </c>
       <c r="BK10" t="n">
-        <v>5.739569246543397e-07</v>
+        <v>0.002470606006681919</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.187188385960326e-07</v>
+        <v>0.06056644767522812</v>
       </c>
       <c r="BM10" t="n">
-        <v>5.795685638076975e-07</v>
+        <v>0.06615100800991058</v>
       </c>
       <c r="BN10" t="n">
-        <v>4.909269932795723e-07</v>
+        <v>0.01718035712838173</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.219387162469502e-07</v>
+        <v>0.02467199414968491</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.003970851343183e-06</v>
+        <v>0.04356911033391953</v>
       </c>
       <c r="BQ10" t="n">
-        <v>8.397520900871314e-08</v>
+        <v>0.007579325698316097</v>
       </c>
       <c r="BR10" t="n">
-        <v>3.187442416674457e-07</v>
+        <v>0.0005037486553192139</v>
       </c>
       <c r="BS10" t="n">
-        <v>2.252006510161664e-07</v>
+        <v>0.0201849602162838</v>
       </c>
       <c r="BT10" t="n">
-        <v>7.272405611047361e-08</v>
+        <v>0.01321034226566553</v>
       </c>
       <c r="BU10" t="n">
-        <v>3.365915119957208e-07</v>
+        <v>0.01320471428334713</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.963581723885e-07</v>
+        <v>0.09169335663318634</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.67898599304317e-07</v>
+        <v>0.001694716396741569</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.851728484325577e-06</v>
+        <v>0.01462467014789581</v>
       </c>
       <c r="BY10" t="n">
-        <v>3.213840216176322e-08</v>
+        <v>0.01820147596299648</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.379326306505391e-07</v>
+        <v>0.05647195875644684</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.496648221494979e-07</v>
+        <v>0.01327446103096008</v>
       </c>
       <c r="CB10" t="n">
-        <v>2.976741484417289e-07</v>
+        <v>0.002705238061025739</v>
       </c>
       <c r="CC10" t="n">
-        <v>6.159796726024069e-07</v>
+        <v>0.0003628474660217762</v>
       </c>
       <c r="CD10" t="n">
-        <v>3.289709695764031e-07</v>
+        <v>0.01891803741455078</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.339737281114139e-07</v>
+        <v>0.04209610819816589</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.531019163143355e-07</v>
+        <v>0.001246668281964958</v>
       </c>
       <c r="CG10" t="n">
-        <v>6.985627010180906e-07</v>
+        <v>0.002506268676370382</v>
       </c>
       <c r="CH10" t="n">
-        <v>4.166130054272799e-07</v>
+        <v>0.0147927962243557</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.447581041702506e-07</v>
+        <v>0.001108522643335164</v>
       </c>
       <c r="CJ10" t="n">
-        <v>9.78467618040213e-09</v>
+        <v>0.006276114378124475</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.861363685407014e-08</v>
+        <v>0.002151428489014506</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.111126432031597e-07</v>
+        <v>0.001753650140017271</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.422606032974727e-07</v>
+        <v>0.04278496280312538</v>
       </c>
       <c r="CN10" t="n">
-        <v>8.826868906908203e-07</v>
+        <v>0.0523604042828083</v>
       </c>
       <c r="CO10" t="n">
-        <v>6.887340475714154e-09</v>
+        <v>0.02467120811343193</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.605869556442485e-06</v>
+        <v>0.06068278104066849</v>
       </c>
       <c r="CQ10" t="n">
-        <v>9.926950497174403e-07</v>
+        <v>0.03186450153589249</v>
       </c>
       <c r="CR10" t="n">
-        <v>5.81754818540503e-07</v>
+        <v>0.04823129996657372</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.364639956591418e-08</v>
+        <v>0.01505567319691181</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.740497393460828e-07</v>
+        <v>0.01287337951362133</v>
       </c>
       <c r="CU10" t="n">
-        <v>6.567267405443999e-07</v>
+        <v>0.007513168733566999</v>
       </c>
       <c r="CV10" t="n">
-        <v>2.273998802593269e-07</v>
+        <v>0.0194510817527771</v>
       </c>
       <c r="CW10" t="n">
-        <v>5.527620601242234e-07</v>
+        <v>0.03272660449147224</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.078067057846965e-07</v>
+        <v>0.004989349748939276</v>
       </c>
       <c r="CY10" t="n">
-        <v>5.710034542971698e-07</v>
+        <v>0.009308384731411934</v>
       </c>
       <c r="CZ10" t="n">
-        <v>3.356261402132077e-07</v>
+        <v>0.0179445669054985</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.635623334550473e-07</v>
+        <v>0.004814701154828072</v>
       </c>
       <c r="DB10" t="n">
-        <v>6.115181605537146e-08</v>
+        <v>0.003902458120137453</v>
       </c>
       <c r="DC10" t="n">
-        <v>9.744036333358963e-08</v>
+        <v>0.002141491277143359</v>
       </c>
       <c r="DD10" t="n">
-        <v>3.345290906509035e-07</v>
+        <v>0.00149028142914176</v>
       </c>
       <c r="DE10" t="n">
-        <v>8.53261894917523e-07</v>
+        <v>0.00553519930690527</v>
       </c>
       <c r="DF10" t="n">
-        <v>9.448405648981861e-07</v>
+        <v>0.03023683279752731</v>
       </c>
       <c r="DG10" t="n">
-        <v>5.518245984603709e-07</v>
+        <v>0.01189342699944973</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.285026201003348e-06</v>
+        <v>0.008012231439352036</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.787249955981679e-07</v>
+        <v>0.009846663102507591</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.260296357941115e-06</v>
+        <v>0.01636092737317085</v>
       </c>
       <c r="DK10" t="n">
-        <v>6.191740453687089e-07</v>
+        <v>0.01352506596595049</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.378843535349006e-06</v>
+        <v>0.004157655872404575</v>
       </c>
       <c r="DM10" t="n">
-        <v>3.169996887208981e-07</v>
+        <v>0.001675110543146729</v>
       </c>
       <c r="DN10" t="n">
-        <v>1.878452025039223e-07</v>
+        <v>0.03904029354453087</v>
       </c>
       <c r="DO10" t="n">
-        <v>4.522921130956092e-07</v>
+        <v>0.02000529691576958</v>
       </c>
       <c r="DP10" t="n">
-        <v>2.737544946285198e-07</v>
+        <v>0.02240589633584023</v>
       </c>
       <c r="DQ10" t="n">
-        <v>2.016783753333584e-07</v>
+        <v>0.004012496210634708</v>
       </c>
       <c r="DR10" t="n">
-        <v>4.874975729762809e-07</v>
+        <v>0.01418687682598829</v>
       </c>
       <c r="DS10" t="n">
-        <v>5.841163783770753e-07</v>
+        <v>0.01977304741740227</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.851792603702052e-07</v>
+        <v>0.005345210433006287</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.550759177211148e-07</v>
+        <v>0.01096598710864782</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.632209318813693e-07</v>
+        <v>0.008898241445422173</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.508372626332857e-07</v>
+        <v>0.008751191198825836</v>
       </c>
       <c r="DX10" t="n">
-        <v>6.814079256400873e-07</v>
+        <v>0.007973814383149147</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.089587951559224e-07</v>
+        <v>0.02721463516354561</v>
       </c>
       <c r="DZ10" t="n">
-        <v>6.538977572745353e-07</v>
+        <v>0.01468936819583178</v>
       </c>
       <c r="EA10" t="n">
-        <v>5.731827172894555e-07</v>
+        <v>0.03592098504304886</v>
       </c>
       <c r="EB10" t="n">
-        <v>6.234355964807037e-07</v>
+        <v>0.005810013506561518</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.958430857484927e-07</v>
+        <v>0.001327071571722627</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.998409058818652e-07</v>
+        <v>0.008547942154109478</v>
       </c>
       <c r="EE10" t="n">
-        <v>2.691004574728595e-08</v>
+        <v>0.004483101423829794</v>
       </c>
       <c r="EF10" t="n">
-        <v>2.615355754187476e-08</v>
+        <v>0.02295380830764771</v>
       </c>
       <c r="EG10" t="n">
-        <v>1.458583653857204e-07</v>
+        <v>0.03883733227849007</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.804596081456111e-07</v>
+        <v>0.02011519484221935</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.16555975182564e-06</v>
+        <v>0.006403663195669651</v>
       </c>
       <c r="EJ10" t="n">
-        <v>1.986479531979057e-07</v>
+        <v>0.006380858365446329</v>
       </c>
       <c r="EK10" t="n">
-        <v>6.036679423004898e-08</v>
+        <v>0.007510665338486433</v>
       </c>
       <c r="EL10" t="n">
-        <v>6.374226302341413e-08</v>
+        <v>0.0003557367017492652</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.213462041960156e-07</v>
+        <v>0.008468115702271461</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.721321289480329e-08</v>
+        <v>0.000114180613309145</v>
       </c>
       <c r="EO10" t="n">
-        <v>2.225245054887637e-07</v>
+        <v>0.01848163828253746</v>
       </c>
       <c r="EP10" t="n">
-        <v>4.270993940735934e-07</v>
+        <v>0.02002829872071743</v>
       </c>
       <c r="EQ10" t="n">
-        <v>5.770218081124767e-07</v>
+        <v>0.02063846774399281</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.218586972612684e-08</v>
+        <v>0.01749447360634804</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.550029473193717e-07</v>
+        <v>0.01682075299322605</v>
       </c>
       <c r="ET10" t="n">
-        <v>5.945119596617587e-07</v>
+        <v>0.03937764093279839</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.956051391971414e-07</v>
+        <v>0.01022093649953604</v>
       </c>
       <c r="EV10" t="n">
-        <v>2.547996018620324e-07</v>
+        <v>0.00983123853802681</v>
       </c>
       <c r="EW10" t="n">
-        <v>2.912638485952357e-08</v>
+        <v>0.01154042221605778</v>
       </c>
       <c r="EX10" t="n">
-        <v>2.21363862351609e-07</v>
+        <v>0.01459584664553404</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.474636460192414e-07</v>
+        <v>0.03544452413916588</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.635531106103372e-07</v>
+        <v>0.001268860185518861</v>
       </c>
       <c r="FA10" t="n">
-        <v>4.510651194777893e-07</v>
+        <v>3.579899203032255e-05</v>
       </c>
       <c r="FB10" t="n">
-        <v>4.346232458374288e-07</v>
+        <v>0.002609977731481194</v>
       </c>
       <c r="FC10" t="n">
-        <v>1.896255241717881e-07</v>
+        <v>0.008080601692199707</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.241700431364734e-07</v>
+        <v>0.005128444172441959</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.328888004081819e-07</v>
+        <v>0.003285769838839769</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.098618511718996e-07</v>
+        <v>0.001280452124774456</v>
       </c>
       <c r="FG10" t="n">
-        <v>1.00270312941575e-06</v>
+        <v>0.01232823636382818</v>
       </c>
       <c r="FH10" t="n">
-        <v>7.284072012225806e-08</v>
+        <v>0.004381956532597542</v>
       </c>
       <c r="FI10" t="n">
-        <v>5.585969233834476e-07</v>
+        <v>0.009654784575104713</v>
       </c>
       <c r="FJ10" t="n">
-        <v>4.735115624043829e-07</v>
+        <v>0.01151607371866703</v>
       </c>
       <c r="FK10" t="n">
-        <v>6.155397613838431e-07</v>
+        <v>0.01963082700967789</v>
       </c>
       <c r="FL10" t="n">
-        <v>1.788968404525804e-07</v>
+        <v>0.004147445783019066</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.042949003884132e-07</v>
+        <v>0.01183198112994432</v>
       </c>
       <c r="FN10" t="n">
-        <v>5.235664843894483e-07</v>
+        <v>0.001210745889693499</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.617433546627581e-07</v>
+        <v>0.00907488539814949</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.687658309241669e-07</v>
+        <v>0.01154444925487041</v>
       </c>
       <c r="FQ10" t="n">
-        <v>3.990695773836705e-08</v>
+        <v>0.04108529537916183</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.772180979742188e-07</v>
+        <v>0.007302571088075638</v>
       </c>
       <c r="FS10" t="n">
-        <v>1.175762577076966e-06</v>
+        <v>0.05148837342858315</v>
       </c>
       <c r="FT10" t="n">
-        <v>1.600782866262307e-07</v>
+        <v>0.0331539623439312</v>
       </c>
       <c r="FU10" t="n">
-        <v>7.88975739851594e-07</v>
+        <v>0.02038440853357315</v>
       </c>
       <c r="FV10" t="n">
-        <v>2.431296479699085e-07</v>
+        <v>0.01517719868570566</v>
       </c>
       <c r="FW10" t="n">
-        <v>3.562931283340731e-07</v>
+        <v>0.01409600581973791</v>
       </c>
       <c r="FX10" t="n">
-        <v>9.11221832211595e-07</v>
+        <v>0.004119375720620155</v>
       </c>
       <c r="FY10" t="n">
-        <v>8.300628451252123e-08</v>
+        <v>0.0259535051882267</v>
       </c>
       <c r="FZ10" t="n">
-        <v>6.029773089721857e-07</v>
+        <v>0.02574628591537476</v>
       </c>
       <c r="GA10" t="n">
-        <v>1.433118370641751e-07</v>
+        <v>0.01017378177493811</v>
       </c>
       <c r="GB10" t="n">
-        <v>5.704101795345196e-07</v>
+        <v>0.009797429665923119</v>
       </c>
       <c r="GC10" t="n">
-        <v>1.342060159004177e-06</v>
+        <v>0.02486321516335011</v>
       </c>
       <c r="GD10" t="n">
-        <v>3.276496229887016e-08</v>
+        <v>0.02327815629541874</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.644813920620436e-07</v>
+        <v>0.01891808584332466</v>
       </c>
       <c r="GF10" t="n">
-        <v>3.04309281773385e-07</v>
+        <v>0.01299329660832882</v>
       </c>
       <c r="GG10" t="n">
-        <v>3.988578214375593e-07</v>
+        <v>0.001652943901717663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.561440808403816e-11</v>
+        <v>0.00163335376419127</v>
       </c>
       <c r="B11" t="n">
-        <v>9.592297789406956e-11</v>
+        <v>0.01570671424269676</v>
       </c>
       <c r="C11" t="n">
-        <v>8.227105802172119e-11</v>
+        <v>0.001834211405366659</v>
       </c>
       <c r="D11" t="n">
-        <v>1.741480154526798e-10</v>
+        <v>0.00392219377681613</v>
       </c>
       <c r="E11" t="n">
-        <v>6.876100244745942e-10</v>
+        <v>0.009942921809852123</v>
       </c>
       <c r="F11" t="n">
-        <v>2.234063767314609e-10</v>
+        <v>0.001318239839747548</v>
       </c>
       <c r="G11" t="n">
-        <v>8.571033466298061e-11</v>
+        <v>0.0009105345234274864</v>
       </c>
       <c r="H11" t="n">
-        <v>1.356511153405293e-10</v>
+        <v>0.003374306252226233</v>
       </c>
       <c r="I11" t="n">
-        <v>1.005696220746088e-10</v>
+        <v>0.001134003978222609</v>
       </c>
       <c r="J11" t="n">
-        <v>1.042179120780418e-10</v>
+        <v>0.001769008580595255</v>
       </c>
       <c r="K11" t="n">
-        <v>9.752074148217105e-12</v>
+        <v>0.01193172484636307</v>
       </c>
       <c r="L11" t="n">
-        <v>1.389645759575231e-10</v>
+        <v>9.848922491073608e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>2.374331842247557e-10</v>
+        <v>0.001370026730000973</v>
       </c>
       <c r="N11" t="n">
-        <v>7.214234210017878e-10</v>
+        <v>0.006319242063909769</v>
       </c>
       <c r="O11" t="n">
-        <v>1.615202763205481e-11</v>
+        <v>0.001023664139211178</v>
       </c>
       <c r="P11" t="n">
-        <v>1.78692269314773e-10</v>
+        <v>6.21904619038105e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.447714336246577e-11</v>
+        <v>0.0006734627531841397</v>
       </c>
       <c r="R11" t="n">
-        <v>8.522699906921005e-12</v>
+        <v>0.002449360443279147</v>
       </c>
       <c r="S11" t="n">
-        <v>5.417266288332279e-11</v>
+        <v>0.0004592932527884841</v>
       </c>
       <c r="T11" t="n">
-        <v>7.517437367043911e-11</v>
+        <v>0.001658244407735765</v>
       </c>
       <c r="U11" t="n">
-        <v>4.315169749302683e-11</v>
+        <v>0.0009217114420607686</v>
       </c>
       <c r="V11" t="n">
-        <v>2.168476787023366e-10</v>
+        <v>0.001941492548212409</v>
       </c>
       <c r="W11" t="n">
-        <v>3.571066498064823e-10</v>
+        <v>0.006015778053551912</v>
       </c>
       <c r="X11" t="n">
-        <v>5.279772452571052e-11</v>
+        <v>7.502106018364429e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.662753847588078e-11</v>
+        <v>0.0007170719327405095</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.237190350167339e-10</v>
+        <v>0.003079110756516457</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.121406423946873e-11</v>
+        <v>0.0006569350953213871</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.83752012542649e-12</v>
+        <v>0.0005251952679827809</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.257288301248494e-10</v>
+        <v>0.002217151923105121</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.179879527413163e-10</v>
+        <v>0.0003487751237116754</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.421084500075054e-10</v>
+        <v>0.0005249999230727553</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.860462990945557e-11</v>
+        <v>0.001141934189945459</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.683147174031291e-11</v>
+        <v>0.0001088399440050125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1.030539750757065e-10</v>
+        <v>0.0008083125576376915</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.659820710377737e-11</v>
+        <v>0.0004623295972123742</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3.7781111572599e-11</v>
+        <v>0.0006000195862725377</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.770993322633643e-11</v>
+        <v>0.002100046724081039</v>
       </c>
       <c r="AL11" t="n">
-        <v>1.778642511052198e-10</v>
+        <v>0.00227694446220994</v>
       </c>
       <c r="AM11" t="n">
-        <v>5.548418668954724e-11</v>
+        <v>0.00130147545132786</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.168557916044534e-10</v>
+        <v>0.0003878551651723683</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.211954033443547e-11</v>
+        <v>0.002195595065131783</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.613738864758574e-10</v>
+        <v>0.002877167658880353</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.887896519143673e-11</v>
+        <v>0.0008107824251055717</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.275969335554297e-12</v>
+        <v>0.0001473652664572001</v>
       </c>
       <c r="AS11" t="n">
-        <v>7.200187668310321e-11</v>
+        <v>0.0005156854167580605</v>
       </c>
       <c r="AT11" t="n">
-        <v>6.171265581889074e-11</v>
+        <v>0.0008502569398842752</v>
       </c>
       <c r="AU11" t="n">
-        <v>2.684007460729276e-10</v>
+        <v>0.01187822502106428</v>
       </c>
       <c r="AV11" t="n">
-        <v>7.672959490001574e-12</v>
+        <v>0.0003670243313536048</v>
       </c>
       <c r="AW11" t="n">
-        <v>2.7975594063534e-10</v>
+        <v>0.001159887760877609</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.931604761341916e-11</v>
+        <v>0.004011313430964947</v>
       </c>
       <c r="AY11" t="n">
-        <v>4.931666186536177e-11</v>
+        <v>0.003695472842082381</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6.548182829302363e-11</v>
+        <v>0.004777296911925077</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.095219748226128e-10</v>
+        <v>0.0006668384885415435</v>
       </c>
       <c r="BB11" t="n">
-        <v>2.291866141312937e-10</v>
+        <v>0.001236953190527856</v>
       </c>
       <c r="BC11" t="n">
-        <v>1.472170163552278e-10</v>
+        <v>0.002355798147618771</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.179969455478158e-10</v>
+        <v>0.005833140574395657</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.362793377092999e-11</v>
+        <v>0.001559998956508934</v>
       </c>
       <c r="BF11" t="n">
-        <v>2.809562582584135e-10</v>
+        <v>0.0005472492193803191</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.71150229941486e-10</v>
+        <v>0.003350918181240559</v>
       </c>
       <c r="BH11" t="n">
-        <v>8.683237462392412e-11</v>
+        <v>0.001327960519120097</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.453004244700296e-10</v>
+        <v>0.002694814233109355</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.607938088232785e-10</v>
+        <v>0.001104084542021155</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.481411382453501e-10</v>
+        <v>0.0001953330938704312</v>
       </c>
       <c r="BL11" t="n">
-        <v>4.003253284423636e-11</v>
+        <v>0.003256636206060648</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.261838411537042e-10</v>
+        <v>0.005937628913670778</v>
       </c>
       <c r="BN11" t="n">
-        <v>7.068119700637254e-11</v>
+        <v>0.0007658386020921171</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.875130259398894e-11</v>
+        <v>0.002069245325401425</v>
       </c>
       <c r="BP11" t="n">
-        <v>2.964298528862486e-10</v>
+        <v>0.00290430267341435</v>
       </c>
       <c r="BQ11" t="n">
-        <v>9.98989641010084e-11</v>
+        <v>0.002434744499623775</v>
       </c>
       <c r="BR11" t="n">
-        <v>2.159382533895027e-10</v>
+        <v>0.0007186512229964137</v>
       </c>
       <c r="BS11" t="n">
-        <v>3.02854158418242e-10</v>
+        <v>0.001749631832353771</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.331961624329026e-11</v>
+        <v>0.001006419421173632</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.737528732004279e-10</v>
+        <v>0.0007975557236932218</v>
       </c>
       <c r="BV11" t="n">
-        <v>8.813669932772328e-11</v>
+        <v>0.00745268864557147</v>
       </c>
       <c r="BW11" t="n">
-        <v>2.027742557197953e-11</v>
+        <v>0.002807326847687364</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.8940411178624e-10</v>
+        <v>0.0001080150250345469</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.308320118909023e-10</v>
+        <v>0.00122743146494031</v>
       </c>
       <c r="BZ11" t="n">
-        <v>9.122800431748956e-11</v>
+        <v>0.001915346714667976</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.176488628740202e-10</v>
+        <v>0.0005028403829783201</v>
       </c>
       <c r="CB11" t="n">
-        <v>6.749149850104885e-12</v>
+        <v>0.001229510409757495</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.616550782124193e-10</v>
+        <v>0.0003317883238196373</v>
       </c>
       <c r="CD11" t="n">
-        <v>8.881072960376102e-12</v>
+        <v>0.0003772029303945601</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.503273976994791e-11</v>
+        <v>0.002060202183201909</v>
       </c>
       <c r="CF11" t="n">
-        <v>5.343944037283777e-11</v>
+        <v>7.59546019253321e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>4.495616032218486e-11</v>
+        <v>0.0006579969194717705</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.81218623440671e-10</v>
+        <v>0.001302730874158442</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.278663806780767e-11</v>
+        <v>8.686137152835727e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.533382969209907e-11</v>
+        <v>0.001197810866869986</v>
       </c>
       <c r="CK11" t="n">
-        <v>5.322297116916452e-11</v>
+        <v>0.001383489929139614</v>
       </c>
       <c r="CL11" t="n">
-        <v>2.945609034465946e-11</v>
+        <v>0.000457565940450877</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.073308039667431e-10</v>
+        <v>0.003493615658953786</v>
       </c>
       <c r="CN11" t="n">
-        <v>3.433187761858747e-11</v>
+        <v>0.004212956875562668</v>
       </c>
       <c r="CO11" t="n">
-        <v>5.158599242216511e-13</v>
+        <v>4.677163087762892e-05</v>
       </c>
       <c r="CP11" t="n">
-        <v>4.134009801148864e-10</v>
+        <v>0.003000545781105757</v>
       </c>
       <c r="CQ11" t="n">
-        <v>6.828991538920803e-11</v>
+        <v>0.003371687605977058</v>
       </c>
       <c r="CR11" t="n">
-        <v>2.528937059764758e-10</v>
+        <v>0.0004189377650618553</v>
       </c>
       <c r="CS11" t="n">
-        <v>2.373213014994491e-10</v>
+        <v>0.002271832665428519</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.540136629341049e-10</v>
+        <v>0.001367256161756814</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.48146273026839e-10</v>
+        <v>0.0007381587056443095</v>
       </c>
       <c r="CV11" t="n">
-        <v>1.305341598700771e-11</v>
+        <v>0.0001989667507587001</v>
       </c>
       <c r="CW11" t="n">
-        <v>6.690059617397992e-11</v>
+        <v>0.00140958244446665</v>
       </c>
       <c r="CX11" t="n">
-        <v>1.373652754044219e-11</v>
+        <v>0.0005216308636590838</v>
       </c>
       <c r="CY11" t="n">
-        <v>3.910312351695922e-11</v>
+        <v>0.001271607587113976</v>
       </c>
       <c r="CZ11" t="n">
-        <v>1.719838438329901e-10</v>
+        <v>0.0005837666103616357</v>
       </c>
       <c r="DA11" t="n">
-        <v>2.740372338772001e-11</v>
+        <v>0.0001809861860238016</v>
       </c>
       <c r="DB11" t="n">
-        <v>6.021640824860341e-11</v>
+        <v>0.0006957864970900118</v>
       </c>
       <c r="DC11" t="n">
-        <v>6.564616905624376e-11</v>
+        <v>0.001421334454789758</v>
       </c>
       <c r="DD11" t="n">
-        <v>4.887276347509406e-12</v>
+        <v>0.0005605275509878993</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.56125015693398e-10</v>
+        <v>0.001467872643843293</v>
       </c>
       <c r="DF11" t="n">
-        <v>9.65282714870952e-11</v>
+        <v>0.00104692461900413</v>
       </c>
       <c r="DG11" t="n">
-        <v>7.880205168953047e-12</v>
+        <v>0.001145386253483593</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.835017220981229e-10</v>
+        <v>0.008735284209251404</v>
       </c>
       <c r="DI11" t="n">
-        <v>2.371406959689182e-10</v>
+        <v>0.004532106220722198</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1.310148933786337e-10</v>
+        <v>0.003709994256496429</v>
       </c>
       <c r="DK11" t="n">
-        <v>5.397391214523317e-11</v>
+        <v>0.003585629630833864</v>
       </c>
       <c r="DL11" t="n">
-        <v>2.918673913665515e-10</v>
+        <v>0.0009909631917253137</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.031626797876051e-10</v>
+        <v>0.005223530344665051</v>
       </c>
       <c r="DN11" t="n">
-        <v>7.392202822087413e-11</v>
+        <v>0.001157003687694669</v>
       </c>
       <c r="DO11" t="n">
-        <v>6.614622738432274e-11</v>
+        <v>0.001487714005634189</v>
       </c>
       <c r="DP11" t="n">
-        <v>5.157697186009003e-11</v>
+        <v>0.001519755693152547</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.350435874236666e-10</v>
+        <v>0.001678087166510522</v>
       </c>
       <c r="DR11" t="n">
-        <v>7.8502052081042e-11</v>
+        <v>0.002061758190393448</v>
       </c>
       <c r="DS11" t="n">
-        <v>2.027559509176768e-10</v>
+        <v>0.0009470091899856925</v>
       </c>
       <c r="DT11" t="n">
-        <v>9.758194946529741e-11</v>
+        <v>0.002008038340136409</v>
       </c>
       <c r="DU11" t="n">
-        <v>6.4739424758542e-12</v>
+        <v>0.0002294160367455333</v>
       </c>
       <c r="DV11" t="n">
-        <v>6.842468952550362e-11</v>
+        <v>0.002128669060766697</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.8546252995042e-11</v>
+        <v>0.0009616164606995881</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.408041599981757e-10</v>
+        <v>0.001277912058867514</v>
       </c>
       <c r="DY11" t="n">
-        <v>5.098807140391237e-11</v>
+        <v>0.001096588908694685</v>
       </c>
       <c r="DZ11" t="n">
-        <v>6.894439880111847e-12</v>
+        <v>0.001082171453163028</v>
       </c>
       <c r="EA11" t="n">
-        <v>5.990561519064741e-11</v>
+        <v>0.0002122609876096249</v>
       </c>
       <c r="EB11" t="n">
-        <v>8.98456933851044e-11</v>
+        <v>0.0001691214274615049</v>
       </c>
       <c r="EC11" t="n">
-        <v>7.444727473382429e-11</v>
+        <v>0.000179883383680135</v>
       </c>
       <c r="ED11" t="n">
-        <v>3.47964192182193e-11</v>
+        <v>0.0007753595127724111</v>
       </c>
       <c r="EE11" t="n">
-        <v>7.480412123062052e-12</v>
+        <v>0.002707620849832892</v>
       </c>
       <c r="EF11" t="n">
-        <v>5.247889969806074e-11</v>
+        <v>1.050328137353063e-05</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.056185555681211e-10</v>
+        <v>0.001814113813452423</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.106154265406722e-10</v>
+        <v>0.0001689485943643376</v>
       </c>
       <c r="EI11" t="n">
-        <v>1.766879004216904e-10</v>
+        <v>0.0002679853932932019</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.874786437205955e-10</v>
+        <v>0.001556126167997718</v>
       </c>
       <c r="EK11" t="n">
-        <v>4.701197764411802e-11</v>
+        <v>0.002082952298223972</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.055626835944068e-10</v>
+        <v>0.001081528607755899</v>
       </c>
       <c r="EM11" t="n">
-        <v>5.561079027827098e-11</v>
+        <v>0.001298870076425374</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.062268883966766e-10</v>
+        <v>0.0003386845346540213</v>
       </c>
       <c r="EO11" t="n">
-        <v>1.670106275497574e-10</v>
+        <v>0.001820954494178295</v>
       </c>
       <c r="EP11" t="n">
-        <v>7.148867608997023e-11</v>
+        <v>0.0007356919813901186</v>
       </c>
       <c r="EQ11" t="n">
-        <v>3.570078954684419e-11</v>
+        <v>0.001758027821779251</v>
       </c>
       <c r="ER11" t="n">
-        <v>4.912618922769951e-11</v>
+        <v>0.002263541333377361</v>
       </c>
       <c r="ES11" t="n">
-        <v>1.250306386202382e-10</v>
+        <v>0.0008443845435976982</v>
       </c>
       <c r="ET11" t="n">
-        <v>7.002827484559049e-11</v>
+        <v>0.001607159152626991</v>
       </c>
       <c r="EU11" t="n">
-        <v>1.06069798777586e-10</v>
+        <v>0.001652961364015937</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.542090899420145e-10</v>
+        <v>0.003351969178766012</v>
       </c>
       <c r="EW11" t="n">
-        <v>6.591624468477164e-11</v>
+        <v>0.001145280548371375</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.001915737874892e-11</v>
+        <v>0.0002349771384615451</v>
       </c>
       <c r="EY11" t="n">
-        <v>4.46526357555932e-11</v>
+        <v>0.001112997182644904</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.342374384733947e-11</v>
+        <v>0.0001535007613711059</v>
       </c>
       <c r="FA11" t="n">
-        <v>1.660040160889054e-12</v>
+        <v>0.0003744782879948616</v>
       </c>
       <c r="FB11" t="n">
-        <v>1.978173597150246e-10</v>
+        <v>0.001027214340865612</v>
       </c>
       <c r="FC11" t="n">
-        <v>4.867974426336907e-11</v>
+        <v>0.00022349480423145</v>
       </c>
       <c r="FD11" t="n">
-        <v>4.611364068374257e-11</v>
+        <v>0.001638848450966179</v>
       </c>
       <c r="FE11" t="n">
-        <v>9.993886274095587e-11</v>
+        <v>0.001716182800009847</v>
       </c>
       <c r="FF11" t="n">
-        <v>6.304107930121816e-11</v>
+        <v>0.001127374125644565</v>
       </c>
       <c r="FG11" t="n">
-        <v>1.851614833681126e-10</v>
+        <v>0.0004427471722010523</v>
       </c>
       <c r="FH11" t="n">
-        <v>6.139644348479578e-11</v>
+        <v>0.001726811402477324</v>
       </c>
       <c r="FI11" t="n">
-        <v>2.031916301881154e-13</v>
+        <v>0.0002622113679535687</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.382347153411345e-10</v>
+        <v>0.003011356107890606</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.748570871429322e-10</v>
+        <v>0.001191347022540867</v>
       </c>
       <c r="FL11" t="n">
-        <v>3.060312420144484e-12</v>
+        <v>0.0002017614606302232</v>
       </c>
       <c r="FM11" t="n">
-        <v>7.387992995155912e-12</v>
+        <v>0.002692961599677801</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.109712959885712e-10</v>
+        <v>0.0009798724204301834</v>
       </c>
       <c r="FO11" t="n">
-        <v>9.671897831242671e-12</v>
+        <v>0.0005028826417401433</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.74798977375934e-11</v>
+        <v>0.003327382262796164</v>
       </c>
       <c r="FQ11" t="n">
-        <v>9.110017601399178e-11</v>
+        <v>0.0002334992605028674</v>
       </c>
       <c r="FR11" t="n">
-        <v>4.010153320521681e-11</v>
+        <v>0.00105323689058423</v>
       </c>
       <c r="FS11" t="n">
-        <v>1.357822188019497e-11</v>
+        <v>0.0003856330877169967</v>
       </c>
       <c r="FT11" t="n">
-        <v>2.933628895362972e-10</v>
+        <v>0.007772539742290974</v>
       </c>
       <c r="FU11" t="n">
-        <v>5.727040369718495e-11</v>
+        <v>0.001994864316657186</v>
       </c>
       <c r="FV11" t="n">
-        <v>1.051780190719498e-11</v>
+        <v>0.002142977900803089</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.684042627569937e-10</v>
+        <v>0.0001002788485493511</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.147439573911946e-10</v>
+        <v>0.001992925303056836</v>
       </c>
       <c r="FY11" t="n">
-        <v>1.978269978386571e-11</v>
+        <v>0.002062958665192127</v>
       </c>
       <c r="FZ11" t="n">
-        <v>8.695835024274956e-11</v>
+        <v>0.00146471441257745</v>
       </c>
       <c r="GA11" t="n">
-        <v>1.873024305099058e-11</v>
+        <v>0.002266341354697943</v>
       </c>
       <c r="GB11" t="n">
-        <v>2.436558732554772e-10</v>
+        <v>0.001648269477300346</v>
       </c>
       <c r="GC11" t="n">
-        <v>4.285583554697325e-10</v>
+        <v>0.0006898858118802309</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.130124466230953e-10</v>
+        <v>0.00352860358543694</v>
       </c>
       <c r="GE11" t="n">
-        <v>6.335464791673573e-11</v>
+        <v>0.001560988137498498</v>
       </c>
       <c r="GF11" t="n">
-        <v>2.804897807073825e-11</v>
+        <v>0.001042685937136412</v>
       </c>
       <c r="GG11" t="n">
-        <v>5.715665787886515e-12</v>
+        <v>0.001653502928093076</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.228051325190108e-10</v>
+        <v>0.0002838517248164862</v>
       </c>
       <c r="B12" t="n">
-        <v>1.859938314474618e-09</v>
+        <v>0.008749171160161495</v>
       </c>
       <c r="C12" t="n">
-        <v>8.80755357535179e-10</v>
+        <v>0.0004295927938073874</v>
       </c>
       <c r="D12" t="n">
-        <v>2.653974817690141e-09</v>
+        <v>0.005564824678003788</v>
       </c>
       <c r="E12" t="n">
-        <v>1.297596030624959e-09</v>
+        <v>0.001087204436771572</v>
       </c>
       <c r="F12" t="n">
-        <v>7.425268733207702e-10</v>
+        <v>0.0009824491571635008</v>
       </c>
       <c r="G12" t="n">
-        <v>2.495419981762836e-10</v>
+        <v>0.0006667630514129996</v>
       </c>
       <c r="H12" t="n">
-        <v>1.963552653805323e-09</v>
+        <v>0.0009513979312032461</v>
       </c>
       <c r="I12" t="n">
-        <v>2.943426058443777e-11</v>
+        <v>8.516386151313782e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>3.090337985511837e-10</v>
+        <v>0.0009010235080495477</v>
       </c>
       <c r="K12" t="n">
-        <v>1.443460906358496e-09</v>
+        <v>0.005876097828149796</v>
       </c>
       <c r="L12" t="n">
-        <v>1.161213569744746e-09</v>
+        <v>0.0005627471255138516</v>
       </c>
       <c r="M12" t="n">
-        <v>2.982107893956254e-09</v>
+        <v>0.005368889309465885</v>
       </c>
       <c r="N12" t="n">
-        <v>2.053369252408288e-09</v>
+        <v>0.002707690699025989</v>
       </c>
       <c r="O12" t="n">
-        <v>1.855578191101159e-10</v>
+        <v>0.002359977224841714</v>
       </c>
       <c r="P12" t="n">
-        <v>3.084537625319683e-10</v>
+        <v>9.627343388274312e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.113147656856995e-09</v>
+        <v>0.0008954107761383057</v>
       </c>
       <c r="R12" t="n">
-        <v>4.883947690714763e-10</v>
+        <v>0.0008724905783310533</v>
       </c>
       <c r="S12" t="n">
-        <v>1.92643456742303e-10</v>
+        <v>0.0002549400378484279</v>
       </c>
       <c r="T12" t="n">
-        <v>3.607215914858131e-11</v>
+        <v>0.001569964340887964</v>
       </c>
       <c r="U12" t="n">
-        <v>7.323966433325779e-11</v>
+        <v>0.0005648528458550572</v>
       </c>
       <c r="V12" t="n">
-        <v>5.784060452818096e-10</v>
+        <v>0.0007576097850687802</v>
       </c>
       <c r="W12" t="n">
-        <v>1.44156075965185e-09</v>
+        <v>0.0002998114214278758</v>
       </c>
       <c r="X12" t="n">
-        <v>2.883862315616881e-10</v>
+        <v>0.0009026550687849522</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.184462472021309e-10</v>
+        <v>0.0008679952588863671</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.513162704140484e-10</v>
+        <v>0.0002864968846552074</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.478567268620168e-10</v>
+        <v>0.0004290605138521641</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.617925014078651e-10</v>
+        <v>0.0008069389150477946</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.100771696016523e-10</v>
+        <v>0.001810579444281757</v>
       </c>
       <c r="AD12" t="n">
-        <v>9.992268817926586e-11</v>
+        <v>0.0001903038646560162</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.445972810022795e-10</v>
+        <v>2.753376611508429e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.567366402279504e-10</v>
+        <v>0.0002784515672829002</v>
       </c>
       <c r="AG12" t="n">
-        <v>3.788828695228119e-10</v>
+        <v>0.000158011622261256</v>
       </c>
       <c r="AH12" t="n">
-        <v>1.485155332048294e-10</v>
+        <v>0.0008545274613425136</v>
       </c>
       <c r="AI12" t="n">
-        <v>1.549680522794361e-10</v>
+        <v>0.0002117934636771679</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.512514221819089e-11</v>
+        <v>0.0001726702612359077</v>
       </c>
       <c r="AK12" t="n">
-        <v>8.169061538332301e-10</v>
+        <v>0.0003817574470303953</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.958804507484757e-10</v>
+        <v>0.0006588862743228674</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.094086987147747e-10</v>
+        <v>0.0003855835821013898</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.652742664948192e-10</v>
+        <v>0.000510514946654439</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.520208096714384e-10</v>
+        <v>0.001035264460369945</v>
       </c>
       <c r="AP12" t="n">
-        <v>9.436820214148156e-10</v>
+        <v>0.001123534981161356</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.46303608117293e-10</v>
+        <v>0.0004430368135217577</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.577774716432501e-10</v>
+        <v>0.0006507677026093006</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.462877289945766e-11</v>
+        <v>0.0001210067493957467</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.056994824999435e-09</v>
+        <v>0.000914205564185977</v>
       </c>
       <c r="AU12" t="n">
-        <v>1.093495849424642e-09</v>
+        <v>0.006596624851226807</v>
       </c>
       <c r="AV12" t="n">
-        <v>9.33347177323185e-10</v>
+        <v>0.0002095621020998806</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.537667463999639e-10</v>
+        <v>0.0003115249273832887</v>
       </c>
       <c r="AX12" t="n">
-        <v>5.108088951821799e-10</v>
+        <v>0.001330181956291199</v>
       </c>
       <c r="AY12" t="n">
-        <v>2.119636688391324e-10</v>
+        <v>0.0006149420514702797</v>
       </c>
       <c r="AZ12" t="n">
-        <v>7.276809710354826e-11</v>
+        <v>7.104757241904736e-05</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.178710684612838e-09</v>
+        <v>0.0008329770062118769</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.53040652267822e-11</v>
+        <v>0.0001920951472129673</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.34300997942394e-11</v>
+        <v>0.0003174807643517852</v>
       </c>
       <c r="BD12" t="n">
-        <v>5.772912148316323e-10</v>
+        <v>0.001417805440723896</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.939336357117185e-10</v>
+        <v>0.001561812125146389</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.245611724876028e-09</v>
+        <v>0.001558271702378988</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.688785110700366e-10</v>
+        <v>0.00287640537135303</v>
       </c>
       <c r="BH12" t="n">
-        <v>3.938872561448648e-10</v>
+        <v>0.001029375474900007</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.005374672402581e-10</v>
+        <v>0.001112927799113095</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.657505799279591e-10</v>
+        <v>0.0007763220928609371</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.30144089949269e-10</v>
+        <v>0.0005677877343259752</v>
       </c>
       <c r="BL12" t="n">
-        <v>9.816543411478307e-11</v>
+        <v>0.001341711264103651</v>
       </c>
       <c r="BM12" t="n">
-        <v>8.87506734770227e-10</v>
+        <v>0.001931708538904786</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.466495952451297e-10</v>
+        <v>0.0006454463000409305</v>
       </c>
       <c r="BO12" t="n">
-        <v>6.138568542368716e-10</v>
+        <v>4.480592906475067e-06</v>
       </c>
       <c r="BP12" t="n">
-        <v>5.832043181719371e-10</v>
+        <v>0.001630833372473717</v>
       </c>
       <c r="BQ12" t="n">
-        <v>7.541417490486424e-11</v>
+        <v>0.0008187490748241544</v>
       </c>
       <c r="BR12" t="n">
-        <v>4.221330507370169e-10</v>
+        <v>0.001000469783321023</v>
       </c>
       <c r="BS12" t="n">
-        <v>6.858012491228749e-10</v>
+        <v>0.001202716026455164</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.604050586274553e-10</v>
+        <v>0.0001389552489854395</v>
       </c>
       <c r="BU12" t="n">
-        <v>9.750825702425914e-10</v>
+        <v>0.0007265681633725762</v>
       </c>
       <c r="BV12" t="n">
-        <v>1.582544650879925e-10</v>
+        <v>0.003529686480760574</v>
       </c>
       <c r="BW12" t="n">
-        <v>7.156358838855681e-12</v>
+        <v>0.0005015149363316596</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.437660102077132e-09</v>
+        <v>0.0004300580767448992</v>
       </c>
       <c r="BY12" t="n">
-        <v>5.775946387842623e-10</v>
+        <v>0.000612173113040626</v>
       </c>
       <c r="BZ12" t="n">
-        <v>8.261202277815016e-10</v>
+        <v>0.001606479054316878</v>
       </c>
       <c r="CA12" t="n">
-        <v>9.564302128062252e-11</v>
+        <v>0.0002993987582158297</v>
       </c>
       <c r="CB12" t="n">
-        <v>5.172089423410853e-10</v>
+        <v>4.462493234314024e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.168247413893766e-10</v>
+        <v>0.0005052762571722269</v>
       </c>
       <c r="CD12" t="n">
-        <v>3.116210622877702e-10</v>
+        <v>0.0004684265586547554</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.977433855022582e-10</v>
+        <v>0.001519171055406332</v>
       </c>
       <c r="CF12" t="n">
-        <v>2.755654038288924e-10</v>
+        <v>0.0004230998747516423</v>
       </c>
       <c r="CG12" t="n">
-        <v>4.982526058405767e-10</v>
+        <v>0.0003362942370586097</v>
       </c>
       <c r="CH12" t="n">
-        <v>4.928153995997775e-10</v>
+        <v>0.0004773502005264163</v>
       </c>
       <c r="CI12" t="n">
-        <v>2.475194216255971e-10</v>
+        <v>0.0002419863303657621</v>
       </c>
       <c r="CJ12" t="n">
-        <v>3.132724635257489e-11</v>
+        <v>0.0005958289839327335</v>
       </c>
       <c r="CK12" t="n">
-        <v>5.027821492475937e-10</v>
+        <v>2.534739905968308e-06</v>
       </c>
       <c r="CL12" t="n">
-        <v>1.789653009121039e-10</v>
+        <v>0.0002276856248499826</v>
       </c>
       <c r="CM12" t="n">
-        <v>5.770224575929461e-11</v>
+        <v>0.001387936063110828</v>
       </c>
       <c r="CN12" t="n">
-        <v>3.460780828579146e-10</v>
+        <v>0.00116197788156569</v>
       </c>
       <c r="CO12" t="n">
-        <v>4.55007531652285e-10</v>
+        <v>0.0004144897102378309</v>
       </c>
       <c r="CP12" t="n">
-        <v>8.343958302070575e-10</v>
+        <v>0.002186010126024485</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1.839352142818385e-10</v>
+        <v>0.001356192049570382</v>
       </c>
       <c r="CR12" t="n">
-        <v>9.810223744466384e-10</v>
+        <v>0.001536421361379325</v>
       </c>
       <c r="CS12" t="n">
-        <v>1.379197034356849e-10</v>
+        <v>0.0009102976764552295</v>
       </c>
       <c r="CT12" t="n">
-        <v>2.993124359473853e-10</v>
+        <v>0.001099107437767088</v>
       </c>
       <c r="CU12" t="n">
-        <v>6.563719012753211e-11</v>
+        <v>1.288753992412239e-06</v>
       </c>
       <c r="CV12" t="n">
-        <v>3.655022395854246e-10</v>
+        <v>0.000469462014734745</v>
       </c>
       <c r="CW12" t="n">
-        <v>4.911524520423427e-10</v>
+        <v>0.00113792868796736</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.299738927595939e-10</v>
+        <v>0.0006508893566206098</v>
       </c>
       <c r="CY12" t="n">
-        <v>4.322618374352771e-10</v>
+        <v>0.0007337321876548231</v>
       </c>
       <c r="CZ12" t="n">
-        <v>4.136584408342969e-10</v>
+        <v>0.0004753515240736306</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.798344251291439e-10</v>
+        <v>0.0003005804901476949</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.072806565804996e-10</v>
+        <v>0.0006467939238063991</v>
       </c>
       <c r="DC12" t="n">
-        <v>4.960893917882458e-10</v>
+        <v>9.046385821420699e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>2.199701254479436e-10</v>
+        <v>7.648416794836521e-05</v>
       </c>
       <c r="DE12" t="n">
-        <v>1.191866605410041e-09</v>
+        <v>0.000351414259057492</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.047635755924148e-09</v>
+        <v>0.002119462238624692</v>
       </c>
       <c r="DG12" t="n">
-        <v>5.298101957151857e-10</v>
+        <v>5.526236418518238e-05</v>
       </c>
       <c r="DH12" t="n">
-        <v>3.306207391196025e-11</v>
+        <v>0.002528024138882756</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.627286083660806e-10</v>
+        <v>0.0004572462639771402</v>
       </c>
       <c r="DJ12" t="n">
-        <v>5.800915858777955e-10</v>
+        <v>0.0007754390244372189</v>
       </c>
       <c r="DK12" t="n">
-        <v>5.028261140793688e-10</v>
+        <v>0.000579338928218931</v>
       </c>
       <c r="DL12" t="n">
-        <v>1.121287840355478e-09</v>
+        <v>0.0001048493577400222</v>
       </c>
       <c r="DM12" t="n">
-        <v>3.08451042485558e-10</v>
+        <v>1.282215816900134e-05</v>
       </c>
       <c r="DN12" t="n">
-        <v>8.391396084939107e-12</v>
+        <v>0.0009299363009631634</v>
       </c>
       <c r="DO12" t="n">
-        <v>9.189490141059409e-11</v>
+        <v>0.0007013913709670305</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.052331208284407e-10</v>
+        <v>0.0008009483572095633</v>
       </c>
       <c r="DQ12" t="n">
-        <v>5.796711999295212e-10</v>
+        <v>0.0008177476120181382</v>
       </c>
       <c r="DR12" t="n">
-        <v>2.764602990978915e-10</v>
+        <v>0.001324468874372542</v>
       </c>
       <c r="DS12" t="n">
-        <v>5.187014151530889e-10</v>
+        <v>0.0006407826440408826</v>
       </c>
       <c r="DT12" t="n">
-        <v>2.494654760543114e-10</v>
+        <v>6.936673889867961e-05</v>
       </c>
       <c r="DU12" t="n">
-        <v>1.356930262597089e-10</v>
+        <v>0.0001215270094689913</v>
       </c>
       <c r="DV12" t="n">
-        <v>3.039232754353804e-10</v>
+        <v>0.000287078000837937</v>
       </c>
       <c r="DW12" t="n">
-        <v>5.602152769457192e-11</v>
+        <v>0.000148779436131008</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.87589166422697e-10</v>
+        <v>0.0003418640699237585</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.61215485405819e-10</v>
+        <v>0.0007607776205986738</v>
       </c>
       <c r="DZ12" t="n">
-        <v>4.228407901596398e-10</v>
+        <v>0.0006045267218723893</v>
       </c>
       <c r="EA12" t="n">
-        <v>2.540128107852979e-10</v>
+        <v>0.001151094329543412</v>
       </c>
       <c r="EB12" t="n">
-        <v>1.478853567382643e-10</v>
+        <v>5.391058220993727e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>3.082205601856458e-10</v>
+        <v>0.0003186188696417958</v>
       </c>
       <c r="ED12" t="n">
-        <v>4.295235347950843e-11</v>
+        <v>0.0002227945369668305</v>
       </c>
       <c r="EE12" t="n">
-        <v>4.300639011578511e-10</v>
+        <v>2.389252767898142e-05</v>
       </c>
       <c r="EF12" t="n">
-        <v>5.926381607679332e-10</v>
+        <v>0.000266574730630964</v>
       </c>
       <c r="EG12" t="n">
-        <v>2.106161633985693e-10</v>
+        <v>0.0005864576669409871</v>
       </c>
       <c r="EH12" t="n">
-        <v>1.096271962097717e-10</v>
+        <v>0.0002319783961866051</v>
       </c>
       <c r="EI12" t="n">
-        <v>6.957111553518303e-10</v>
+        <v>0.000295036647003144</v>
       </c>
       <c r="EJ12" t="n">
-        <v>6.757182313688048e-11</v>
+        <v>0.0009560099570080638</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.427257561610219e-10</v>
+        <v>0.0002118984994012862</v>
       </c>
       <c r="EL12" t="n">
-        <v>6.661708684685408e-11</v>
+        <v>0.0009810286574065685</v>
       </c>
       <c r="EM12" t="n">
-        <v>4.836965827870188e-10</v>
+        <v>0.0003494150587357581</v>
       </c>
       <c r="EN12" t="n">
-        <v>1.601479920898541e-10</v>
+        <v>6.8759145506192e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>5.67391550410079e-11</v>
+        <v>0.0005383712705224752</v>
       </c>
       <c r="EP12" t="n">
-        <v>3.2216956880049e-10</v>
+        <v>0.001153277233242989</v>
       </c>
       <c r="EQ12" t="n">
-        <v>2.083816036391184e-10</v>
+        <v>0.0002862717083189636</v>
       </c>
       <c r="ER12" t="n">
-        <v>8.586979738378631e-11</v>
+        <v>0.0006622124928981066</v>
       </c>
       <c r="ES12" t="n">
-        <v>1.216050315999695e-10</v>
+        <v>0.0001359931047772989</v>
       </c>
       <c r="ET12" t="n">
-        <v>9.67843721833006e-11</v>
+        <v>0.001651979167945683</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.362714385777508e-10</v>
+        <v>0.0009161233901977539</v>
       </c>
       <c r="EV12" t="n">
-        <v>1.275327066174725e-10</v>
+        <v>4.473913577385247e-07</v>
       </c>
       <c r="EW12" t="n">
-        <v>5.734513558453003e-12</v>
+        <v>0.0001869442203314975</v>
       </c>
       <c r="EX12" t="n">
-        <v>3.102755274930757e-10</v>
+        <v>0.0002641055325511843</v>
       </c>
       <c r="EY12" t="n">
-        <v>3.6641747969135e-10</v>
+        <v>0.001225364278070629</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.523328824193371e-10</v>
+        <v>0.0003332934866193682</v>
       </c>
       <c r="FA12" t="n">
-        <v>3.338747611714155e-10</v>
+        <v>0.0006826695171184838</v>
       </c>
       <c r="FB12" t="n">
-        <v>4.464672520576585e-10</v>
+        <v>0.0002584250760264695</v>
       </c>
       <c r="FC12" t="n">
-        <v>1.844399355466209e-10</v>
+        <v>0.0005396349006332457</v>
       </c>
       <c r="FD12" t="n">
-        <v>2.220568173783022e-11</v>
+        <v>0.0006734185153618455</v>
       </c>
       <c r="FE12" t="n">
-        <v>4.572860146101476e-10</v>
+        <v>3.633798041846603e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>1.389937887008585e-10</v>
+        <v>0.0002025230933213606</v>
       </c>
       <c r="FG12" t="n">
-        <v>6.285097442493282e-10</v>
+        <v>0.000195089538465254</v>
       </c>
       <c r="FH12" t="n">
-        <v>4.495883110244847e-10</v>
+        <v>0.0001207683817483485</v>
       </c>
       <c r="FI12" t="n">
-        <v>1.633923274457771e-10</v>
+        <v>0.0002695991424843669</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.487595047144907e-10</v>
+        <v>0.001114442478865385</v>
       </c>
       <c r="FK12" t="n">
-        <v>6.735216828701596e-10</v>
+        <v>0.000713706889655441</v>
       </c>
       <c r="FL12" t="n">
-        <v>9.252956179039984e-10</v>
+        <v>0.0002682686317712069</v>
       </c>
       <c r="FM12" t="n">
-        <v>8.220799041502858e-11</v>
+        <v>0.0003548623935785145</v>
       </c>
       <c r="FN12" t="n">
-        <v>8.22802492805863e-10</v>
+        <v>0.0002064079890260473</v>
       </c>
       <c r="FO12" t="n">
-        <v>5.350760390321341e-10</v>
+        <v>6.762366683688015e-05</v>
       </c>
       <c r="FP12" t="n">
-        <v>1.236898361511862e-10</v>
+        <v>0.0002794202009681612</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.817135608650489e-10</v>
+        <v>0.0006390961352735758</v>
       </c>
       <c r="FR12" t="n">
-        <v>4.035039802285922e-10</v>
+        <v>0.0005687512457370758</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.11043507722286e-10</v>
+        <v>0.001236076350323856</v>
       </c>
       <c r="FT12" t="n">
-        <v>1.390216830543523e-09</v>
+        <v>0.001524169929325581</v>
       </c>
       <c r="FU12" t="n">
-        <v>6.68879895915353e-10</v>
+        <v>0.0002595721161924303</v>
       </c>
       <c r="FV12" t="n">
-        <v>3.191863995333222e-10</v>
+        <v>0.001180379185825586</v>
       </c>
       <c r="FW12" t="n">
-        <v>6.273188080108127e-10</v>
+        <v>0.0008553950465284288</v>
       </c>
       <c r="FX12" t="n">
-        <v>1.897892121238698e-10</v>
+        <v>0.000489325902890414</v>
       </c>
       <c r="FY12" t="n">
-        <v>2.829820822114471e-10</v>
+        <v>0.001086053205654025</v>
       </c>
       <c r="FZ12" t="n">
-        <v>1.221776568804955e-09</v>
+        <v>0.0005793908494524658</v>
       </c>
       <c r="GA12" t="n">
-        <v>9.889611352065231e-11</v>
+        <v>0.0001216261371155269</v>
       </c>
       <c r="GB12" t="n">
-        <v>7.456355671786596e-11</v>
+        <v>0.0001327745558228344</v>
       </c>
       <c r="GC12" t="n">
-        <v>6.787944095698606e-10</v>
+        <v>0.0009803923312574625</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.327114612121761e-10</v>
+        <v>0.0009866204345598817</v>
       </c>
       <c r="GE12" t="n">
-        <v>7.813771851772344e-11</v>
+        <v>0.002225650008767843</v>
       </c>
       <c r="GF12" t="n">
-        <v>5.566939687007277e-10</v>
+        <v>0.000251098332228139</v>
       </c>
       <c r="GG12" t="n">
-        <v>2.322756292860717e-10</v>
+        <v>5.014188718632795e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.708304120664252e-06</v>
+        <v>0.01531888358294964</v>
       </c>
       <c r="B13" t="n">
-        <v>4.10439315601252e-05</v>
+        <v>0.1046344414353371</v>
       </c>
       <c r="C13" t="n">
-        <v>1.175822490040446e-06</v>
+        <v>0.01063996367156506</v>
       </c>
       <c r="D13" t="n">
-        <v>3.680684312712401e-05</v>
+        <v>0.03886138275265694</v>
       </c>
       <c r="E13" t="n">
-        <v>1.821759360609576e-05</v>
+        <v>0.008640259504318237</v>
       </c>
       <c r="F13" t="n">
-        <v>5.562596925301477e-07</v>
+        <v>0.1064198985695839</v>
       </c>
       <c r="G13" t="n">
-        <v>1.936802618729416e-06</v>
+        <v>0.01852899231016636</v>
       </c>
       <c r="H13" t="n">
-        <v>7.427282980643213e-06</v>
+        <v>0.05602731928229332</v>
       </c>
       <c r="I13" t="n">
-        <v>4.194480993646721e-07</v>
+        <v>0.008699929341673851</v>
       </c>
       <c r="J13" t="n">
-        <v>1.273239490728884e-06</v>
+        <v>0.02581781893968582</v>
       </c>
       <c r="K13" t="n">
-        <v>4.099906436749734e-05</v>
+        <v>0.1021091863512993</v>
       </c>
       <c r="L13" t="n">
-        <v>1.445199131921981e-06</v>
+        <v>0.007362666074186563</v>
       </c>
       <c r="M13" t="n">
-        <v>3.290697350166738e-05</v>
+        <v>0.02583645656704903</v>
       </c>
       <c r="N13" t="n">
-        <v>1.130324562836904e-05</v>
+        <v>0.03143239766359329</v>
       </c>
       <c r="O13" t="n">
-        <v>4.180498763162177e-06</v>
+        <v>0.08965516090393066</v>
       </c>
       <c r="P13" t="n">
-        <v>2.338230387977092e-06</v>
+        <v>0.0155055820941925</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.28462395677343e-06</v>
+        <v>0.01956318691372871</v>
       </c>
       <c r="R13" t="n">
-        <v>5.56763097847579e-06</v>
+        <v>0.02053374424576759</v>
       </c>
       <c r="S13" t="n">
-        <v>1.732419605104951e-06</v>
+        <v>0.00318602193146944</v>
       </c>
       <c r="T13" t="n">
-        <v>4.799365342478268e-06</v>
+        <v>0.002751719206571579</v>
       </c>
       <c r="U13" t="n">
-        <v>1.341802317256224e-06</v>
+        <v>0.005601218435913324</v>
       </c>
       <c r="V13" t="n">
-        <v>4.094592441106215e-06</v>
+        <v>0.01883573643863201</v>
       </c>
       <c r="W13" t="n">
-        <v>1.722719571262132e-05</v>
+        <v>0.03469503298401833</v>
       </c>
       <c r="X13" t="n">
-        <v>2.414344066892227e-07</v>
+        <v>0.01984584890305996</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.984611223335378e-06</v>
+        <v>0.004787353333085775</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.796096285033855e-06</v>
+        <v>0.02028319239616394</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.801256414386444e-06</v>
+        <v>0.01392728183418512</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.554130100586917e-06</v>
+        <v>0.003972148988395929</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.560207349233679e-06</v>
+        <v>0.001562053337693214</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.240289162131376e-08</v>
+        <v>0.006501047406345606</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.341753613814944e-05</v>
+        <v>0.00861552357673645</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.150515117842588e-06</v>
+        <v>0.01747178100049496</v>
       </c>
       <c r="AG13" t="n">
-        <v>5.828177563671488e-06</v>
+        <v>0.01980971917510033</v>
       </c>
       <c r="AH13" t="n">
-        <v>2.424969125058851e-06</v>
+        <v>0.001344195567071438</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.321629724770901e-06</v>
+        <v>0.008689025416970253</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.235628815265954e-06</v>
+        <v>0.003932366147637367</v>
       </c>
       <c r="AK13" t="n">
-        <v>4.858226020587608e-06</v>
+        <v>0.01695773750543594</v>
       </c>
       <c r="AL13" t="n">
-        <v>7.242872470669681e-06</v>
+        <v>0.00424607191234827</v>
       </c>
       <c r="AM13" t="n">
-        <v>4.700694262282923e-06</v>
+        <v>0.003156996797770262</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.861398797904258e-06</v>
+        <v>0.01128431037068367</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.100250640069135e-09</v>
+        <v>0.0009794957004487514</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.94643575923692e-06</v>
+        <v>0.0135558657348156</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6.727890422553173e-08</v>
+        <v>0.006050389260053635</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.276444208997418e-06</v>
+        <v>0.006062877830117941</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.167265615251381e-06</v>
+        <v>0.008444678038358688</v>
       </c>
       <c r="AT13" t="n">
-        <v>5.928029167989735e-06</v>
+        <v>0.001600628718733788</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.648281224537641e-05</v>
+        <v>0.05674031004309654</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.827097548812162e-07</v>
+        <v>0.001706946641206741</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.951794148335466e-06</v>
+        <v>0.0205747801810503</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.216015092126327e-07</v>
+        <v>0.005035593174397945</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.390212209022138e-06</v>
+        <v>0.05304979160428047</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6.129475877969526e-06</v>
+        <v>0.02619048580527306</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.431834383922251e-07</v>
+        <v>0.009705772623419762</v>
       </c>
       <c r="BB13" t="n">
-        <v>7.337251190620009e-06</v>
+        <v>0.02099384739995003</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.098767592746299e-06</v>
+        <v>0.008607165887951851</v>
       </c>
       <c r="BD13" t="n">
-        <v>7.348286544583971e-06</v>
+        <v>0.03988736495375633</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.392118292642408e-06</v>
+        <v>0.02709124609827995</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.618767601030413e-05</v>
+        <v>0.004587981849908829</v>
       </c>
       <c r="BG13" t="n">
-        <v>5.351768777472898e-06</v>
+        <v>0.0008425358682870865</v>
       </c>
       <c r="BH13" t="n">
-        <v>6.427240350603824e-06</v>
+        <v>0.02432217448949814</v>
       </c>
       <c r="BI13" t="n">
-        <v>7.381622708635405e-06</v>
+        <v>0.007865592837333679</v>
       </c>
       <c r="BJ13" t="n">
-        <v>3.33337254687649e-07</v>
+        <v>0.002021066378802061</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.385655195917934e-05</v>
+        <v>0.01449432782828808</v>
       </c>
       <c r="BL13" t="n">
-        <v>3.506057055346901e-06</v>
+        <v>0.01048014499247074</v>
       </c>
       <c r="BM13" t="n">
-        <v>7.753518730169162e-06</v>
+        <v>0.02288821712136269</v>
       </c>
       <c r="BN13" t="n">
-        <v>3.400458354008151e-06</v>
+        <v>0.01419212389737368</v>
       </c>
       <c r="BO13" t="n">
-        <v>5.289878117764601e-07</v>
+        <v>0.007658825721591711</v>
       </c>
       <c r="BP13" t="n">
-        <v>1.759644192134147e-06</v>
+        <v>0.01026460528373718</v>
       </c>
       <c r="BQ13" t="n">
-        <v>6.637607839365955e-06</v>
+        <v>0.002298495499417186</v>
       </c>
       <c r="BR13" t="n">
-        <v>3.807920847975765e-06</v>
+        <v>0.005801288411021233</v>
       </c>
       <c r="BS13" t="n">
-        <v>3.327388412799337e-06</v>
+        <v>0.007560396566987038</v>
       </c>
       <c r="BT13" t="n">
-        <v>8.761719527683454e-07</v>
+        <v>0.004430596716701984</v>
       </c>
       <c r="BU13" t="n">
-        <v>5.394290838012239e-06</v>
+        <v>0.001100817229598761</v>
       </c>
       <c r="BV13" t="n">
-        <v>9.695640983409248e-06</v>
+        <v>0.03988118842244148</v>
       </c>
       <c r="BW13" t="n">
-        <v>3.979612756666029e-06</v>
+        <v>0.00715260487049818</v>
       </c>
       <c r="BX13" t="n">
-        <v>1.100465124181937e-05</v>
+        <v>0.009519140236079693</v>
       </c>
       <c r="BY13" t="n">
-        <v>2.428212610539049e-06</v>
+        <v>0.0009837441612035036</v>
       </c>
       <c r="BZ13" t="n">
-        <v>5.295449909681338e-07</v>
+        <v>0.02748111821711063</v>
       </c>
       <c r="CA13" t="n">
-        <v>6.161415058159037e-06</v>
+        <v>0.003368345554918051</v>
       </c>
       <c r="CB13" t="n">
-        <v>9.933268074746593e-07</v>
+        <v>0.001382960006594658</v>
       </c>
       <c r="CC13" t="n">
-        <v>7.624686986673623e-06</v>
+        <v>0.01101546920835972</v>
       </c>
       <c r="CD13" t="n">
-        <v>4.560986326396232e-06</v>
+        <v>0.002713734516873956</v>
       </c>
       <c r="CE13" t="n">
-        <v>9.473262252868153e-06</v>
+        <v>0.01604682020843029</v>
       </c>
       <c r="CF13" t="n">
-        <v>3.222443865524838e-06</v>
+        <v>0.01211367081850767</v>
       </c>
       <c r="CG13" t="n">
-        <v>6.099792699387763e-06</v>
+        <v>0.002498126588761806</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.496497018000809e-06</v>
+        <v>8.826097473502159e-05</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.865201625150803e-06</v>
+        <v>0.01805953122675419</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7.238895705086179e-09</v>
+        <v>0.008663628250360489</v>
       </c>
       <c r="CK13" t="n">
-        <v>1.599606548552401e-06</v>
+        <v>0.009982407093048096</v>
       </c>
       <c r="CL13" t="n">
-        <v>5.437244112727058e-07</v>
+        <v>0.01058194693177938</v>
       </c>
       <c r="CM13" t="n">
-        <v>9.543366559228161e-07</v>
+        <v>0.01460465788841248</v>
       </c>
       <c r="CN13" t="n">
-        <v>3.64860920853971e-06</v>
+        <v>0.01809539087116718</v>
       </c>
       <c r="CO13" t="n">
-        <v>1.953975697688293e-06</v>
+        <v>0.0008826850680634379</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.659029521761113e-06</v>
+        <v>0.02500171586871147</v>
       </c>
       <c r="CQ13" t="n">
-        <v>1.174017779703718e-05</v>
+        <v>4.926580004394054e-06</v>
       </c>
       <c r="CR13" t="n">
-        <v>6.607648629142204e-06</v>
+        <v>0.003851587418466806</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.493460786150536e-06</v>
+        <v>0.0214470811188221</v>
       </c>
       <c r="CT13" t="n">
-        <v>7.142164122342365e-06</v>
+        <v>0.01273605599999428</v>
       </c>
       <c r="CU13" t="n">
-        <v>2.666622549440945e-06</v>
+        <v>0.008697023615241051</v>
       </c>
       <c r="CV13" t="n">
-        <v>4.554763108899351e-06</v>
+        <v>0.001798395998775959</v>
       </c>
       <c r="CW13" t="n">
-        <v>8.947685273597017e-06</v>
+        <v>0.01435009390115738</v>
       </c>
       <c r="CX13" t="n">
-        <v>2.634410748214577e-06</v>
+        <v>0.01020972244441509</v>
       </c>
       <c r="CY13" t="n">
-        <v>7.354066838161089e-06</v>
+        <v>0.006025565322488546</v>
       </c>
       <c r="CZ13" t="n">
-        <v>2.333650172658963e-06</v>
+        <v>0.002592607866972685</v>
       </c>
       <c r="DA13" t="n">
-        <v>2.973175696752151e-07</v>
+        <v>0.01812541484832764</v>
       </c>
       <c r="DB13" t="n">
-        <v>1.079012008631253e-07</v>
+        <v>0.008643193170428276</v>
       </c>
       <c r="DC13" t="n">
-        <v>2.843671154550975e-06</v>
+        <v>0.01456367038190365</v>
       </c>
       <c r="DD13" t="n">
-        <v>1.126832330555771e-06</v>
+        <v>0.006682754494249821</v>
       </c>
       <c r="DE13" t="n">
-        <v>6.871120604046155e-06</v>
+        <v>0.002388311084359884</v>
       </c>
       <c r="DF13" t="n">
-        <v>8.152742339007091e-06</v>
+        <v>0.002419710857793689</v>
       </c>
       <c r="DG13" t="n">
-        <v>7.080720024532638e-06</v>
+        <v>0.001141125569120049</v>
       </c>
       <c r="DH13" t="n">
-        <v>1.259949272025551e-06</v>
+        <v>0.05665037781000137</v>
       </c>
       <c r="DI13" t="n">
-        <v>7.174714937718818e-06</v>
+        <v>0.01316325832158327</v>
       </c>
       <c r="DJ13" t="n">
-        <v>7.183948582678568e-06</v>
+        <v>0.0305376909673214</v>
       </c>
       <c r="DK13" t="n">
-        <v>6.846365067758597e-06</v>
+        <v>0.007879555225372314</v>
       </c>
       <c r="DL13" t="n">
-        <v>1.122609864978585e-05</v>
+        <v>0.0229729488492012</v>
       </c>
       <c r="DM13" t="n">
-        <v>1.599401343810314e-06</v>
+        <v>0.02292496897280216</v>
       </c>
       <c r="DN13" t="n">
-        <v>4.933465334033826e-06</v>
+        <v>0.001698239706456661</v>
       </c>
       <c r="DO13" t="n">
-        <v>2.194134367528022e-07</v>
+        <v>0.006337918341159821</v>
       </c>
       <c r="DP13" t="n">
-        <v>2.172215317841619e-06</v>
+        <v>0.01514085102826357</v>
       </c>
       <c r="DQ13" t="n">
-        <v>1.056612290994963e-07</v>
+        <v>0.005084037780761719</v>
       </c>
       <c r="DR13" t="n">
-        <v>2.12204531635507e-06</v>
+        <v>0.01856083236634731</v>
       </c>
       <c r="DS13" t="n">
-        <v>7.627932063769549e-07</v>
+        <v>0.008695066906511784</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.366467128922523e-07</v>
+        <v>0.0008573300438001752</v>
       </c>
       <c r="DU13" t="n">
-        <v>7.956226681926637e-07</v>
+        <v>0.001170361880213022</v>
       </c>
       <c r="DV13" t="n">
-        <v>3.145088612654945e-06</v>
+        <v>0.007322131190448999</v>
       </c>
       <c r="DW13" t="n">
-        <v>1.803746954465169e-06</v>
+        <v>0.002011070027947426</v>
       </c>
       <c r="DX13" t="n">
-        <v>3.989766810263973e-06</v>
+        <v>0.008587455376982689</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.989737484109355e-06</v>
+        <v>0.006540410686284304</v>
       </c>
       <c r="DZ13" t="n">
-        <v>4.493322649068432e-06</v>
+        <v>0.00566866947337985</v>
       </c>
       <c r="EA13" t="n">
-        <v>1.4351667232404e-06</v>
+        <v>0.01098582707345486</v>
       </c>
       <c r="EB13" t="n">
-        <v>4.817763056053082e-06</v>
+        <v>0.02237982489168644</v>
       </c>
       <c r="EC13" t="n">
-        <v>1.730980784486746e-06</v>
+        <v>0.001179045764729381</v>
       </c>
       <c r="ED13" t="n">
-        <v>4.867200459557353e-06</v>
+        <v>0.009994729422032833</v>
       </c>
       <c r="EE13" t="n">
-        <v>1.64427183335647e-06</v>
+        <v>0.02104929834604263</v>
       </c>
       <c r="EF13" t="n">
-        <v>3.415599621803267e-06</v>
+        <v>1.409417018294334e-05</v>
       </c>
       <c r="EG13" t="n">
-        <v>1.206694560096366e-05</v>
+        <v>0.01783042959868908</v>
       </c>
       <c r="EH13" t="n">
-        <v>2.12919371733733e-06</v>
+        <v>0.009717829525470734</v>
       </c>
       <c r="EI13" t="n">
-        <v>1.263251579075586e-05</v>
+        <v>0.008016550913453102</v>
       </c>
       <c r="EJ13" t="n">
-        <v>1.234992123499978e-05</v>
+        <v>0.0001812103000702336</v>
       </c>
       <c r="EK13" t="n">
-        <v>3.350648057676153e-06</v>
+        <v>0.007692668586969376</v>
       </c>
       <c r="EL13" t="n">
-        <v>1.095712605092558e-07</v>
+        <v>0.006241633091121912</v>
       </c>
       <c r="EM13" t="n">
-        <v>9.576865522831213e-07</v>
+        <v>0.004373446572571993</v>
       </c>
       <c r="EN13" t="n">
-        <v>4.875018021266442e-06</v>
+        <v>0.006608428899198771</v>
       </c>
       <c r="EO13" t="n">
-        <v>4.460158379515633e-06</v>
+        <v>0.001317248679697514</v>
       </c>
       <c r="EP13" t="n">
-        <v>5.887962743145181e-06</v>
+        <v>0.01049503963440657</v>
       </c>
       <c r="EQ13" t="n">
-        <v>6.793941338401055e-07</v>
+        <v>0.0004138299264013767</v>
       </c>
       <c r="ER13" t="n">
-        <v>1.074846522897133e-08</v>
+        <v>0.006750650703907013</v>
       </c>
       <c r="ES13" t="n">
-        <v>1.213627911056392e-06</v>
+        <v>0.003291316330432892</v>
       </c>
       <c r="ET13" t="n">
-        <v>7.174747906901757e-08</v>
+        <v>0.01964480057358742</v>
       </c>
       <c r="EU13" t="n">
-        <v>1.607939111636369e-06</v>
+        <v>0.01589296571910381</v>
       </c>
       <c r="EV13" t="n">
-        <v>2.525961008359445e-06</v>
+        <v>0.04330531507730484</v>
       </c>
       <c r="EW13" t="n">
-        <v>2.007098373724148e-06</v>
+        <v>0.009466586634516716</v>
       </c>
       <c r="EX13" t="n">
-        <v>3.806416088991682e-06</v>
+        <v>0.001582373050041497</v>
       </c>
       <c r="EY13" t="n">
-        <v>8.234164852183312e-06</v>
+        <v>0.01031784620136023</v>
       </c>
       <c r="EZ13" t="n">
-        <v>2.224257968919119e-06</v>
+        <v>0.00635444512590766</v>
       </c>
       <c r="FA13" t="n">
-        <v>7.209287105069961e-06</v>
+        <v>0.001851821783930063</v>
       </c>
       <c r="FB13" t="n">
-        <v>6.220756745278777e-07</v>
+        <v>0.0002365027321502566</v>
       </c>
       <c r="FC13" t="n">
-        <v>3.357013156346511e-07</v>
+        <v>0.01524699572473764</v>
       </c>
       <c r="FD13" t="n">
-        <v>2.147421582776587e-07</v>
+        <v>0.01460574567317963</v>
       </c>
       <c r="FE13" t="n">
-        <v>2.296140337421093e-06</v>
+        <v>0.01178315095603466</v>
       </c>
       <c r="FF13" t="n">
-        <v>1.293430841542431e-06</v>
+        <v>0.009982964023947716</v>
       </c>
       <c r="FG13" t="n">
-        <v>7.58485555252264e-07</v>
+        <v>0.008130919188261032</v>
       </c>
       <c r="FH13" t="n">
-        <v>4.469678515306441e-06</v>
+        <v>0.009278120473027229</v>
       </c>
       <c r="FI13" t="n">
-        <v>1.227125039804378e-06</v>
+        <v>0.00492339301854372</v>
       </c>
       <c r="FJ13" t="n">
-        <v>7.018676569714444e-06</v>
+        <v>0.02115770429372787</v>
       </c>
       <c r="FK13" t="n">
-        <v>4.255861767887836e-06</v>
+        <v>0.0006277215434238315</v>
       </c>
       <c r="FL13" t="n">
-        <v>4.259766228642548e-06</v>
+        <v>0.006963528227061033</v>
       </c>
       <c r="FM13" t="n">
-        <v>5.371430233935826e-07</v>
+        <v>0.008392905816435814</v>
       </c>
       <c r="FN13" t="n">
-        <v>5.798892743769102e-07</v>
+        <v>0.006776855792850256</v>
       </c>
       <c r="FO13" t="n">
-        <v>6.476989256043453e-06</v>
+        <v>0.003859392367303371</v>
       </c>
       <c r="FP13" t="n">
-        <v>2.702258825593162e-06</v>
+        <v>0.004240659065544605</v>
       </c>
       <c r="FQ13" t="n">
-        <v>2.146590304619167e-06</v>
+        <v>0.0213893074542284</v>
       </c>
       <c r="FR13" t="n">
-        <v>1.219792238771333e-06</v>
+        <v>0.01348294410854578</v>
       </c>
       <c r="FS13" t="n">
-        <v>3.788639105550828e-06</v>
+        <v>0.004445722326636314</v>
       </c>
       <c r="FT13" t="n">
-        <v>5.67206507184892e-06</v>
+        <v>0.02977360039949417</v>
       </c>
       <c r="FU13" t="n">
-        <v>3.017947165062651e-06</v>
+        <v>0.02347663603723049</v>
       </c>
       <c r="FV13" t="n">
-        <v>3.479396127659129e-06</v>
+        <v>0.01979248411953449</v>
       </c>
       <c r="FW13" t="n">
-        <v>1.493530589868897e-06</v>
+        <v>0.01024803891777992</v>
       </c>
       <c r="FX13" t="n">
-        <v>2.353495119677973e-06</v>
+        <v>0.01183501072227955</v>
       </c>
       <c r="FY13" t="n">
-        <v>3.804969992415863e-06</v>
+        <v>0.01599760912358761</v>
       </c>
       <c r="FZ13" t="n">
-        <v>1.279053435609967e-06</v>
+        <v>0.01150551624596119</v>
       </c>
       <c r="GA13" t="n">
-        <v>2.323294665984577e-06</v>
+        <v>0.008332669734954834</v>
       </c>
       <c r="GB13" t="n">
-        <v>6.583215508726425e-06</v>
+        <v>0.01155486516654491</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.804621428571409e-06</v>
+        <v>0.006337415426969528</v>
       </c>
       <c r="GD13" t="n">
-        <v>1.35963307457132e-06</v>
+        <v>0.001174187287688255</v>
       </c>
       <c r="GE13" t="n">
-        <v>4.916766101814574e-06</v>
+        <v>0.03593927621841431</v>
       </c>
       <c r="GF13" t="n">
-        <v>5.326616246748017e-06</v>
+        <v>0.007220597937703133</v>
       </c>
       <c r="GG13" t="n">
-        <v>4.87575562146958e-07</v>
+        <v>0.00423735287040472</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.494958766836476e-10</v>
+        <v>8.517997048329562e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>6.541104324853109e-10</v>
+        <v>0.002905787201598287</v>
       </c>
       <c r="C14" t="n">
-        <v>7.071725843799115e-11</v>
+        <v>0.0002999835996888578</v>
       </c>
       <c r="D14" t="n">
-        <v>1.183859343889537e-09</v>
+        <v>0.001349108526483178</v>
       </c>
       <c r="E14" t="n">
-        <v>8.299050335836e-10</v>
+        <v>0.0007236249512061477</v>
       </c>
       <c r="F14" t="n">
-        <v>8.649179983333255e-11</v>
+        <v>0.0004158563097007573</v>
       </c>
       <c r="G14" t="n">
-        <v>1.969323731865202e-10</v>
+        <v>0.0002256497391499579</v>
       </c>
       <c r="H14" t="n">
-        <v>3.48020445795072e-10</v>
+        <v>8.304441871587187e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.571313995058944e-10</v>
+        <v>0.0001243821607204154</v>
       </c>
       <c r="J14" t="n">
-        <v>2.515982422401919e-10</v>
+        <v>0.0002064517029793933</v>
       </c>
       <c r="K14" t="n">
-        <v>6.021524390220634e-10</v>
+        <v>0.00216554501093924</v>
       </c>
       <c r="L14" t="n">
-        <v>6.063181207105472e-11</v>
+        <v>2.910694456659257e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.206499899986113e-09</v>
+        <v>0.001128363539464772</v>
       </c>
       <c r="N14" t="n">
-        <v>8.177959420763159e-10</v>
+        <v>0.0007950774161145091</v>
       </c>
       <c r="O14" t="n">
-        <v>4.621694971174151e-10</v>
+        <v>0.0004013832949567586</v>
       </c>
       <c r="P14" t="n">
-        <v>1.891039685952833e-10</v>
+        <v>0.0002002334513235837</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.044506924869793e-10</v>
+        <v>0.0004976902855560184</v>
       </c>
       <c r="R14" t="n">
-        <v>5.254806034749038e-10</v>
+        <v>3.156140155624598e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>1.246184960779217e-10</v>
+        <v>0.0001219372570631094</v>
       </c>
       <c r="T14" t="n">
-        <v>1.184691927891279e-11</v>
+        <v>0.0004304568283259869</v>
       </c>
       <c r="U14" t="n">
-        <v>7.357241205152576e-11</v>
+        <v>0.0001358531881123781</v>
       </c>
       <c r="V14" t="n">
-        <v>3.078350352403447e-10</v>
+        <v>0.0003659657959360629</v>
       </c>
       <c r="W14" t="n">
-        <v>7.13742176472465e-10</v>
+        <v>0.0002762566728051752</v>
       </c>
       <c r="X14" t="n">
-        <v>2.488037900705287e-11</v>
+        <v>0.0002651521936058998</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.480590815563289e-11</v>
+        <v>0.0001900075585581362</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.768205165619818e-10</v>
+        <v>0.0003301849355921149</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.381753821945054e-11</v>
+        <v>0.0001837444433476776</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.884755767595948e-10</v>
+        <v>6.571205449290574e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.268996852044069e-10</v>
+        <v>6.405614840332419e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.062964785636389e-10</v>
+        <v>0.0002160184667445719</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.243942585193452e-10</v>
+        <v>5.611181040876545e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.707873063087732e-11</v>
+        <v>3.235739131923765e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.675366512188248e-10</v>
+        <v>7.450542034348473e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>4.923194490968896e-11</v>
+        <v>2.240361936856061e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.727058773770551e-10</v>
+        <v>0.0002639646700117737</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.8794119038823e-10</v>
+        <v>5.911779953748919e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.010683924387081e-10</v>
+        <v>0.0003510949318297207</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.158886112073709e-10</v>
+        <v>0.0001433662982890382</v>
       </c>
       <c r="AM14" t="n">
-        <v>5.847280992732351e-11</v>
+        <v>1.812895789043978e-08</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.923074613585101e-11</v>
+        <v>0.0002596845151856542</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.879869593324202e-10</v>
+        <v>0.0003287750587332994</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.611594607764388e-10</v>
+        <v>0.0003558089956641197</v>
       </c>
       <c r="AQ14" t="n">
-        <v>3.619304942553692e-12</v>
+        <v>9.809225593926385e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>8.63586979704678e-13</v>
+        <v>0.0002477050002198666</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.623134762324568e-11</v>
+        <v>0.0001444210211047903</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.650228618314657e-10</v>
+        <v>2.925446460722014e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>3.211116650359003e-10</v>
+        <v>0.001789478003047407</v>
       </c>
       <c r="AV14" t="n">
-        <v>1.040259822726597e-10</v>
+        <v>7.322189048863947e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.26387444848919e-10</v>
+        <v>0.0001699198764981702</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.248396079375993e-10</v>
+        <v>2.027361551881768e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.1782371713347e-11</v>
+        <v>2.922105704783462e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6.358186199761917e-11</v>
+        <v>0.0001978773216251284</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.414179689491647e-10</v>
+        <v>0.0003808103210758418</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.428792444941763e-10</v>
+        <v>4.985868145013228e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.217903110115273e-11</v>
+        <v>7.052801083773375e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.663544579866283e-10</v>
+        <v>0.0004722712328657508</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.376722069679204e-10</v>
+        <v>0.0006121016922406852</v>
       </c>
       <c r="BF14" t="n">
-        <v>6.034955313261037e-10</v>
+        <v>0.0004195997898932546</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.958671168646788e-10</v>
+        <v>0.0009873473318293691</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.112684749366878e-10</v>
+        <v>0.0001864837540779263</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.072559055459443e-10</v>
+        <v>4.40413314208854e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>5.013919140983703e-11</v>
+        <v>0.0004291873774491251</v>
       </c>
       <c r="BK14" t="n">
-        <v>3.128613201841546e-10</v>
+        <v>7.065139652695507e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>3.811674934017795e-11</v>
+        <v>0.0002562059962656349</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.748552107081139e-10</v>
+        <v>0.0006023970199748874</v>
       </c>
       <c r="BN14" t="n">
-        <v>4.600680947319802e-12</v>
+        <v>0.0002401783131062984</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.349669903090046e-10</v>
+        <v>2.862978544726502e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>2.448747038474863e-10</v>
+        <v>0.0003663985698949546</v>
       </c>
       <c r="BQ14" t="n">
-        <v>4.521746865826515e-11</v>
+        <v>0.0002517936809454113</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.871194518776598e-11</v>
+        <v>4.011499549960718e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.26529162147726e-10</v>
+        <v>0.0001519975776318461</v>
       </c>
       <c r="BT14" t="n">
-        <v>7.094125981099708e-11</v>
+        <v>8.079566759988666e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>5.337448816256085e-10</v>
+        <v>0.0001632771891308948</v>
       </c>
       <c r="BV14" t="n">
-        <v>6.025061005665577e-11</v>
+        <v>0.0009845386957749724</v>
       </c>
       <c r="BW14" t="n">
-        <v>1.094401999579553e-10</v>
+        <v>0.000300965242786333</v>
       </c>
       <c r="BX14" t="n">
-        <v>4.760976057838207e-10</v>
+        <v>0.0001211538256029598</v>
       </c>
       <c r="BY14" t="n">
-        <v>3.364379053127919e-10</v>
+        <v>9.725825293571688e-06</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.244323060729414e-10</v>
+        <v>0.0003499117447063327</v>
       </c>
       <c r="CA14" t="n">
-        <v>4.445841264577588e-11</v>
+        <v>0.0002432333712931722</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.728290427438495e-10</v>
+        <v>6.352877971949056e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>2.164566581530636e-10</v>
+        <v>6.166450475575402e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>9.762222974440959e-11</v>
+        <v>3.106789517914876e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.920175823899584e-10</v>
+        <v>0.0004813903942704201</v>
       </c>
       <c r="CF14" t="n">
-        <v>6.117713280406889e-11</v>
+        <v>0.0001699732092674822</v>
       </c>
       <c r="CG14" t="n">
-        <v>2.042516156208762e-10</v>
+        <v>0.0001856296294135973</v>
       </c>
       <c r="CH14" t="n">
-        <v>2.555752276478529e-10</v>
+        <v>0.0001185333312605508</v>
       </c>
       <c r="CI14" t="n">
-        <v>4.38224907750584e-11</v>
+        <v>0.0001003443176159635</v>
       </c>
       <c r="CJ14" t="n">
-        <v>3.298886164238013e-11</v>
+        <v>0.0001053591113304719</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.26848698212001e-10</v>
+        <v>6.662821397185326e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>9.214969065585166e-11</v>
+        <v>0.0001236885145772249</v>
       </c>
       <c r="CM14" t="n">
-        <v>6.348775671849438e-11</v>
+        <v>0.000569614116102457</v>
       </c>
       <c r="CN14" t="n">
-        <v>1.479359169886951e-11</v>
+        <v>9.586965461494401e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>1.045519573694698e-10</v>
+        <v>0.0001508389541413635</v>
       </c>
       <c r="CP14" t="n">
-        <v>3.450694174844671e-10</v>
+        <v>0.000289891439024359</v>
       </c>
       <c r="CQ14" t="n">
-        <v>3.263434522615682e-10</v>
+        <v>0.0002534148516133428</v>
       </c>
       <c r="CR14" t="n">
-        <v>3.45004719237707e-10</v>
+        <v>0.0006181662320159376</v>
       </c>
       <c r="CS14" t="n">
-        <v>7.7323217273495e-11</v>
+        <v>0.0003112837730441242</v>
       </c>
       <c r="CT14" t="n">
-        <v>2.224169876052784e-10</v>
+        <v>0.0002134239475708455</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.52618764848178e-10</v>
+        <v>0.0002669551759026945</v>
       </c>
       <c r="CV14" t="n">
-        <v>1.128855064980172e-10</v>
+        <v>1.106194031308405e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>2.254714609462027e-10</v>
+        <v>0.0004340850573498756</v>
       </c>
       <c r="CX14" t="n">
-        <v>3.068756013191454e-11</v>
+        <v>0.0002129210042767227</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.33399472024287e-10</v>
+        <v>0.0002760759962256998</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.013438860082317e-10</v>
+        <v>0.0001091469821403734</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.495181062294293e-11</v>
+        <v>8.231729589169845e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.197607985004012e-11</v>
+        <v>0.0001245816383743659</v>
       </c>
       <c r="DC14" t="n">
-        <v>1.261806215069328e-10</v>
+        <v>0.0001426053640898317</v>
       </c>
       <c r="DD14" t="n">
-        <v>7.766318144142303e-11</v>
+        <v>7.439974433509633e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>4.20645296372868e-10</v>
+        <v>0.0001589764870004728</v>
       </c>
       <c r="DF14" t="n">
-        <v>4.556428845337024e-10</v>
+        <v>0.0008114516385830939</v>
       </c>
       <c r="DG14" t="n">
-        <v>7.393615580886248e-11</v>
+        <v>0.0001583108241902664</v>
       </c>
       <c r="DH14" t="n">
-        <v>1.464922627647525e-10</v>
+        <v>0.0007993574836291373</v>
       </c>
       <c r="DI14" t="n">
-        <v>1.442855834810075e-10</v>
+        <v>1.002826866169926e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>6.372693484024694e-10</v>
+        <v>6.601663335459307e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.427009981875727e-11</v>
+        <v>0.0001886206300696358</v>
       </c>
       <c r="DL14" t="n">
-        <v>4.874294856627159e-10</v>
+        <v>0.0001186056906590238</v>
       </c>
       <c r="DM14" t="n">
-        <v>3.122987146664258e-10</v>
+        <v>0.0001254496746696532</v>
       </c>
       <c r="DN14" t="n">
-        <v>4.591155927657908e-11</v>
+        <v>0.0002806848497129977</v>
       </c>
       <c r="DO14" t="n">
-        <v>4.775940927459477e-13</v>
+        <v>0.0001961523230420426</v>
       </c>
       <c r="DP14" t="n">
-        <v>4.987199195283232e-11</v>
+        <v>6.301308167167008e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.632120549821536e-10</v>
+        <v>0.0001326093333773315</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.416234629569857e-10</v>
+        <v>9.833688091021031e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>3.342116861038136e-11</v>
+        <v>0.0001490974245825782</v>
       </c>
       <c r="DT14" t="n">
-        <v>4.563023570103297e-12</v>
+        <v>0.0001499410136602819</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.04886610350097e-11</v>
+        <v>0.0001316209963988513</v>
       </c>
       <c r="DV14" t="n">
-        <v>1.569101792942007e-11</v>
+        <v>0.0001033654625643976</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.152649933306883e-11</v>
+        <v>2.541800677136052e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.110124908665355e-10</v>
+        <v>0.0001944883842952549</v>
       </c>
       <c r="DY14" t="n">
-        <v>8.062253642471262e-11</v>
+        <v>0.0002106374158756807</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.058479623394781e-10</v>
+        <v>9.665842662798241e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>2.096926798866861e-12</v>
+        <v>0.0003151525743305683</v>
       </c>
       <c r="EB14" t="n">
-        <v>2.693496814476504e-10</v>
+        <v>6.375316297635436e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>8.973400494882711e-11</v>
+        <v>0.0001962254464160651</v>
       </c>
       <c r="ED14" t="n">
-        <v>5.608657288602714e-11</v>
+        <v>8.921341213863343e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>1.917612735269358e-10</v>
+        <v>0.0002186468045692891</v>
       </c>
       <c r="EF14" t="n">
-        <v>2.364855811176625e-10</v>
+        <v>0.0003040994051843882</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.098224011730764e-10</v>
+        <v>0.000452428765129298</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.960754640930375e-11</v>
+        <v>0.0002617327845655382</v>
       </c>
       <c r="EI14" t="n">
-        <v>2.986876024291263e-10</v>
+        <v>0.0001446200622012839</v>
       </c>
       <c r="EJ14" t="n">
-        <v>2.630282380788884e-10</v>
+        <v>0.0001132178877014667</v>
       </c>
       <c r="EK14" t="n">
-        <v>2.512507910057415e-11</v>
+        <v>7.3962815804407e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>6.430274368529609e-11</v>
+        <v>0.00011469230230432</v>
       </c>
       <c r="EM14" t="n">
-        <v>7.70706692909684e-11</v>
+        <v>7.984504190972075e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>9.478891282999058e-11</v>
+        <v>5.764192246715538e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>1.136825980574407e-10</v>
+        <v>6.947004294488579e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>1.977709107592318e-10</v>
+        <v>0.0002308560942765325</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.02021056133761e-11</v>
+        <v>0.0001914648164529353</v>
       </c>
       <c r="ER14" t="n">
-        <v>1.924302037159542e-11</v>
+        <v>0.0001938375789904967</v>
       </c>
       <c r="ES14" t="n">
-        <v>2.995865222565897e-10</v>
+        <v>0.0001223708095494658</v>
       </c>
       <c r="ET14" t="n">
-        <v>4.515736742871646e-11</v>
+        <v>0.0001416762097505853</v>
       </c>
       <c r="EU14" t="n">
-        <v>4.840882902867882e-11</v>
+        <v>0.000298579572699964</v>
       </c>
       <c r="EV14" t="n">
-        <v>3.558984357221462e-11</v>
+        <v>5.501626219484024e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>4.984795562434918e-11</v>
+        <v>8.127887849695981e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>9.612993040475359e-11</v>
+        <v>7.676189852645621e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.953482792194094e-10</v>
+        <v>0.0004463049990590662</v>
       </c>
       <c r="EZ14" t="n">
-        <v>4.304339176752769e-11</v>
+        <v>0.0001760279119480401</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.532266674653116e-10</v>
+        <v>0.0002252255217172205</v>
       </c>
       <c r="FB14" t="n">
-        <v>2.500765150514894e-10</v>
+        <v>4.837551387026906e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>6.362035898099805e-12</v>
+        <v>0.0001072165177902207</v>
       </c>
       <c r="FD14" t="n">
-        <v>2.159074308227815e-11</v>
+        <v>0.0001520679506938905</v>
       </c>
       <c r="FE14" t="n">
-        <v>8.733089251755644e-11</v>
+        <v>9.657647024141625e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.07581972444526e-11</v>
+        <v>0.0001493051822762936</v>
       </c>
       <c r="FG14" t="n">
-        <v>1.383117093078923e-10</v>
+        <v>0.000169846331118606</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.522574705203894e-10</v>
+        <v>8.627595525467768e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>4.186894234092797e-11</v>
+        <v>8.32560399430804e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>1.870750498955687e-10</v>
+        <v>0.0003004730679094791</v>
       </c>
       <c r="FK14" t="n">
-        <v>4.671034670167273e-10</v>
+        <v>0.0003141665365546942</v>
       </c>
       <c r="FL14" t="n">
-        <v>4.939854081342787e-10</v>
+        <v>0.000261552951997146</v>
       </c>
       <c r="FM14" t="n">
-        <v>9.10625463923509e-11</v>
+        <v>0.0001102002133848146</v>
       </c>
       <c r="FN14" t="n">
-        <v>2.215765071422737e-10</v>
+        <v>8.824211545288563e-05</v>
       </c>
       <c r="FO14" t="n">
-        <v>2.468098503349836e-10</v>
+        <v>2.36294545175042e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>7.423051756605403e-11</v>
+        <v>0.0002301581407664344</v>
       </c>
       <c r="FQ14" t="n">
-        <v>1.955773043516018e-10</v>
+        <v>2.312259857717436e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>2.989541114661876e-10</v>
+        <v>0.000632398878224194</v>
       </c>
       <c r="FS14" t="n">
-        <v>3.217628385954185e-10</v>
+        <v>3.170921991113573e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>5.129804359071954e-10</v>
+        <v>0.0003253940667491406</v>
       </c>
       <c r="FU14" t="n">
-        <v>8.7820799243854e-11</v>
+        <v>7.748477219138294e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>2.538430923793022e-11</v>
+        <v>0.0001259372947970405</v>
       </c>
       <c r="FW14" t="n">
-        <v>2.478108829251369e-10</v>
+        <v>0.0001082704256987199</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.396391613450731e-10</v>
+        <v>0.000319855404086411</v>
       </c>
       <c r="FY14" t="n">
-        <v>1.193866672188904e-10</v>
+        <v>0.0003597519535105675</v>
       </c>
       <c r="FZ14" t="n">
-        <v>4.280074905604891e-10</v>
+        <v>4.521890514297411e-05</v>
       </c>
       <c r="GA14" t="n">
-        <v>9.117699650840194e-11</v>
+        <v>4.878289473708719e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>9.065008466091484e-11</v>
+        <v>2.813588071148843e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>4.544840614961743e-10</v>
+        <v>0.0001491532020736486</v>
       </c>
       <c r="GD14" t="n">
-        <v>1.276495992241777e-10</v>
+        <v>0.0002742159704212099</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.884478406655177e-10</v>
+        <v>0.0005092241335660219</v>
       </c>
       <c r="GF14" t="n">
-        <v>2.055239589626723e-10</v>
+        <v>0.0001885541132651269</v>
       </c>
       <c r="GG14" t="n">
-        <v>1.043318903493073e-11</v>
+        <v>0.0002479297399986535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.001857547089457512</v>
+        <v>0.003748457878828049</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0006356025114655495</v>
+        <v>0.2939541637897491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00162376114167273</v>
+        <v>0.07268088310956955</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002401533536612988</v>
+        <v>0.1269596815109253</v>
       </c>
       <c r="E15" t="n">
-        <v>4.232073115417734e-05</v>
+        <v>0.05578209459781647</v>
       </c>
       <c r="F15" t="n">
-        <v>7.207015733001754e-05</v>
+        <v>0.02790944650769234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002207400830229744</v>
+        <v>0.02080770209431648</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009590379195287824</v>
+        <v>0.04571329057216644</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00418118154630065</v>
+        <v>0.003620733739808202</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0009357045637443662</v>
+        <v>0.09061772376298904</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007084037642925978</v>
+        <v>0.2642996311187744</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002597647020593286</v>
+        <v>0.07237890362739563</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001705898670479655</v>
+        <v>0.1635575741529465</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0002986514009535313</v>
+        <v>0.01880484446883202</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001052362844347954</v>
+        <v>0.03038492798805237</v>
       </c>
       <c r="P15" t="n">
-        <v>0.0001089331781258807</v>
+        <v>0.06836849451065063</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001367843709886074</v>
+        <v>0.09692665934562683</v>
       </c>
       <c r="R15" t="n">
-        <v>0.004203508608043194</v>
+        <v>0.05150145292282104</v>
       </c>
       <c r="S15" t="n">
-        <v>0.000263831956544891</v>
+        <v>0.006960033439099789</v>
       </c>
       <c r="T15" t="n">
-        <v>8.925131987780333e-05</v>
+        <v>0.04832576587796211</v>
       </c>
       <c r="U15" t="n">
-        <v>3.043285687454045e-05</v>
+        <v>0.06474906206130981</v>
       </c>
       <c r="V15" t="n">
-        <v>0.001394664868712425</v>
+        <v>0.04914366826415062</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001503795268945396</v>
+        <v>0.005010166671127081</v>
       </c>
       <c r="X15" t="n">
-        <v>0.0008378307102248073</v>
+        <v>0.006536731030791998</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0009443477028980851</v>
+        <v>0.00378851592540741</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0003891295054927468</v>
+        <v>0.01423497498035431</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.000669762259349227</v>
+        <v>0.02261601015925407</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0005734075093641877</v>
+        <v>0.06047169864177704</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.000356593111064285</v>
+        <v>0.03549952059984207</v>
       </c>
       <c r="AD15" t="n">
-        <v>8.650383097119629e-05</v>
+        <v>0.0464777797460556</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.386241436004639e-05</v>
+        <v>0.02117948606610298</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.000603505817707628</v>
+        <v>0.008490766398608685</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0009191049612127244</v>
+        <v>0.001585403457283974</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.000649641384370625</v>
+        <v>0.006654020864516497</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.002115842187777162</v>
+        <v>0.00161316804587841</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0008878723601810634</v>
+        <v>0.02668445557355881</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0004491734434850514</v>
+        <v>0.04839631915092468</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.001289290143176913</v>
+        <v>0.03317709639668465</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.0002779704518616199</v>
+        <v>0.01829063892364502</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0009795118821784854</v>
+        <v>0.03750894591212273</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0001574828347656876</v>
+        <v>0.02918210066854954</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.001621893607079983</v>
+        <v>0.04211440682411194</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0002437690855003893</v>
+        <v>0.01913498528301716</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.49304163036868e-05</v>
+        <v>0.04617326334118843</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0001748374488670379</v>
+        <v>0.02386298216879368</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.0004103075189050287</v>
+        <v>0.06975215673446655</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0006370111368596554</v>
+        <v>0.1507366150617599</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.00163495889864862</v>
+        <v>0.01644027046859264</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.001386268413625658</v>
+        <v>0.03041206300258636</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.000641649414319545</v>
+        <v>0.0006745709106326103</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.001566485501825809</v>
+        <v>0.01734867133200169</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0003553077112883329</v>
+        <v>0.009404949843883514</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0006363363936543465</v>
+        <v>0.02819161489605904</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.001351198530755937</v>
+        <v>0.0522523857653141</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.0003306631406303495</v>
+        <v>0.06212611868977547</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.0008883761474862695</v>
+        <v>0.07478228211402893</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0005089943879283965</v>
+        <v>0.05847933143377304</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0006291823228821158</v>
+        <v>0.02870714105665684</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.074636656994699e-05</v>
+        <v>0.1320097595453262</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.0002403688413323835</v>
+        <v>0.05194186046719551</v>
       </c>
       <c r="BI15" t="n">
-        <v>3.959202149417251e-05</v>
+        <v>0.02403495088219643</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0004720676224678755</v>
+        <v>0.1484038978815079</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.001288908766582608</v>
+        <v>0.01743110083043575</v>
       </c>
       <c r="BL15" t="n">
-        <v>9.619310003472492e-05</v>
+        <v>0.03117542713880539</v>
       </c>
       <c r="BM15" t="n">
-        <v>5.978234548820183e-05</v>
+        <v>0.01459899544715881</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.001049926853738725</v>
+        <v>0.02659819088876247</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0002681959304027259</v>
+        <v>0.02982909604907036</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0003783385909628123</v>
+        <v>0.05530661717057228</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0001981969980988652</v>
+        <v>0.03587349131703377</v>
       </c>
       <c r="BR15" t="n">
-        <v>2.896469959523529e-05</v>
+        <v>0.03614123910665512</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.0009948211954906583</v>
+        <v>0.02578970976173878</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.0006157645839266479</v>
+        <v>0.03956435993313789</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0005145536852069199</v>
+        <v>0.07947606593370438</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.0007764156325720251</v>
+        <v>0.0850117951631546</v>
       </c>
       <c r="BW15" t="n">
-        <v>3.35011282004416e-05</v>
+        <v>0.02994279935956001</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.001351923099718988</v>
+        <v>0.0372588112950325</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.0002369615249335766</v>
+        <v>0.08128539472818375</v>
       </c>
       <c r="BZ15" t="n">
-        <v>8.094360237009823e-05</v>
+        <v>0.01924659311771393</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.000103218320873566</v>
+        <v>0.01547825150191784</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.000955045223236084</v>
+        <v>0.0244742501527071</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.002212363528087735</v>
+        <v>0.07120814919471741</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0005238517769612372</v>
+        <v>0.0352015309035778</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0007417533779516816</v>
+        <v>0.0494392067193985</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.0003093757841270417</v>
+        <v>0.01021013222634792</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.0004662853898480535</v>
+        <v>0.02990307845175266</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0002619840961415321</v>
+        <v>0.05015784129500389</v>
       </c>
       <c r="CI15" t="n">
-        <v>5.188092018215684e-06</v>
+        <v>0.0245997104793787</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.0001751250820234418</v>
+        <v>0.008879158645868301</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.0001608547463547438</v>
+        <v>0.0153520992025733</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.0004836659645661712</v>
+        <v>0.02293953858315945</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.000110024877358228</v>
+        <v>0.0005823196843266487</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.001569823361933231</v>
+        <v>0.01858789287507534</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.0003539720783010125</v>
+        <v>0.008280316367745399</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.001087859505787492</v>
+        <v>0.0187825970351696</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.001140208682045341</v>
+        <v>0.06248272210359573</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.0006128529785200953</v>
+        <v>0.01726715639233589</v>
       </c>
       <c r="CS15" t="n">
-        <v>4.211007035337389e-05</v>
+        <v>0.04085820540785789</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0001607317535672337</v>
+        <v>0.0685279592871666</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.0005004910635761917</v>
+        <v>0.02463406510651112</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.0005952381761744618</v>
+        <v>0.03046001866459846</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.000863908848259598</v>
+        <v>0.04685439914464951</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.000264710484771058</v>
+        <v>0.003732652170583606</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.0005430444143712521</v>
+        <v>0.03090731613337994</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0003648616839200258</v>
+        <v>0.0351288765668869</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.0002378099597990513</v>
+        <v>0.02755447290837765</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.000222811839194037</v>
+        <v>0.01616587117314339</v>
       </c>
       <c r="DC15" t="n">
-        <v>8.546168828615919e-05</v>
+        <v>0.003163305809721351</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.0005986242322251201</v>
+        <v>0.02039527706801891</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.001444807974621654</v>
+        <v>0.04656404256820679</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.001912695588544011</v>
+        <v>0.2041345089673996</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.002065310953184962</v>
+        <v>0.01512525975704193</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.0005361053626984358</v>
+        <v>0.06905469298362732</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.001586179132573307</v>
+        <v>0.001180378487333655</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.0003404441813472658</v>
+        <v>0.09464193880558014</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.715883061289787e-05</v>
+        <v>0.07505388557910919</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.0006283317343331873</v>
+        <v>0.001306222751736641</v>
       </c>
       <c r="DM15" t="n">
-        <v>8.375481411349028e-05</v>
+        <v>0.03368007019162178</v>
       </c>
       <c r="DN15" t="n">
-        <v>7.662089774385095e-05</v>
+        <v>0.07282645255327225</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.0002760120842140168</v>
+        <v>0.03610574081540108</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0006779841496609151</v>
+        <v>0.1140890121459961</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0002260477922391146</v>
+        <v>0.07032424956560135</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0004213872889522463</v>
+        <v>0.07825019955635071</v>
       </c>
       <c r="DS15" t="n">
-        <v>4.298885323805735e-05</v>
+        <v>0.04568967968225479</v>
       </c>
       <c r="DT15" t="n">
-        <v>3.543467028066516e-05</v>
+        <v>0.01328903064131737</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0005018227966502309</v>
+        <v>0.03179099410772324</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.000651245063636452</v>
+        <v>0.005958736408501863</v>
       </c>
       <c r="DW15" t="n">
-        <v>3.300051321275532e-05</v>
+        <v>0.0377022847533226</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.784786581993103e-05</v>
+        <v>0.008282125927507877</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.0003087652148678899</v>
+        <v>0.04294783249497414</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.0002028705639531836</v>
+        <v>0.05100108683109283</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0002524781739339232</v>
+        <v>0.03240480273962021</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.0004058321355842054</v>
+        <v>0.1004563197493553</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.0003199217899236828</v>
+        <v>0.005629746243357658</v>
       </c>
       <c r="ED15" t="n">
-        <v>1.308169794356218e-05</v>
+        <v>0.04015978053212166</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0007684890879318118</v>
+        <v>0.01004400104284286</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.0005050487234257162</v>
+        <v>0.05901101976633072</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.001173261669464409</v>
+        <v>0.04402438551187515</v>
       </c>
       <c r="EH15" t="n">
-        <v>7.252053183037788e-05</v>
+        <v>0.006809934042394161</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.0008676889119669795</v>
+        <v>0.009555567987263203</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0003651061560958624</v>
+        <v>0.01825164072215557</v>
       </c>
       <c r="EK15" t="n">
-        <v>8.939628605730832e-05</v>
+        <v>0.002297178376466036</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.0002114548988174647</v>
+        <v>0.004097925964742899</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.0008076245430856943</v>
+        <v>0.02441642619669437</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.0007020916673354805</v>
+        <v>0.02920850925147533</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.0009287346620112658</v>
+        <v>0.007343227509409189</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.0004227795288898051</v>
+        <v>0.04243363812565804</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0007604079437442124</v>
+        <v>0.01995217241346836</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.0001195005606859922</v>
+        <v>0.002177890855818987</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.001104198629036546</v>
+        <v>0.02873652614653111</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.0001049693528329954</v>
+        <v>0.04690307006239891</v>
       </c>
       <c r="EU15" t="n">
-        <v>7.431002450175583e-05</v>
+        <v>0.0581616684794426</v>
       </c>
       <c r="EV15" t="n">
-        <v>7.831256516510621e-05</v>
+        <v>0.08005588501691818</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.0008051620097830892</v>
+        <v>0.03173582628369331</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0004620690597221255</v>
+        <v>0.02597500942647457</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.000836090708617121</v>
+        <v>0.06529874354600906</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0003425626782700419</v>
+        <v>0.001393980230204761</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.00037231738679111</v>
+        <v>0.03302001953125</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.0002574989921413362</v>
+        <v>0.02887941524386406</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.0001571052562212572</v>
+        <v>0.01701273769140244</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.0002455444191582501</v>
+        <v>0.03131158649921417</v>
       </c>
       <c r="FE15" t="n">
-        <v>9.656327893026173e-05</v>
+        <v>0.006384379230439663</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.0006947106448933482</v>
+        <v>0.03067784756422043</v>
       </c>
       <c r="FG15" t="n">
-        <v>6.550773105118424e-05</v>
+        <v>0.008677053265273571</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.0003598539333324879</v>
+        <v>0.0282707791775465</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.0003610827843658626</v>
+        <v>0.02899776585400105</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.0002370760485064238</v>
+        <v>0.01544584706425667</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.0002434287744108588</v>
+        <v>0.03826893121004105</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.0001401569170411676</v>
+        <v>0.03465059772133827</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.000344306172337383</v>
+        <v>0.01393864024430513</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.0004979893565177917</v>
+        <v>0.01118767634034157</v>
       </c>
       <c r="FO15" t="n">
-        <v>4.502108822634909e-06</v>
+        <v>0.01385708898305893</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.0001920055074151605</v>
+        <v>0.1139800697565079</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.0002880565589293838</v>
+        <v>0.05684257298707962</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.0001235530799021944</v>
+        <v>0.1888675540685654</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0006274625775404274</v>
+        <v>0.03264882415533066</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.0005719692562706769</v>
+        <v>0.06777483224868774</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.0003154869773425162</v>
+        <v>0.02821586281061172</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.000363880826625973</v>
+        <v>0.01513562444597483</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.0008568469784222543</v>
+        <v>0.004907233640551567</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.0004162961267866194</v>
+        <v>0.05558520182967186</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.0006786012090742588</v>
+        <v>0.02584340795874596</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.0004481850482989103</v>
+        <v>0.02230169996619225</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.0003177108010277152</v>
+        <v>0.004494910594075918</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.0001412660349160433</v>
+        <v>0.006736270152032375</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.0004333074321039021</v>
+        <v>0.05161187052726746</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.0004634953802451491</v>
+        <v>0.0649915412068367</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0002814717299770564</v>
+        <v>0.06732350587844849</v>
       </c>
       <c r="GF15" t="n">
-        <v>5.055356086813845e-05</v>
+        <v>0.0085792550817132</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.0006482017342932522</v>
+        <v>0.01701649278402328</v>
       </c>
     </row>
   </sheetData>
